--- a/input/escolas_lex.xlsx
+++ b/input/escolas_lex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrerodrigues\projetos\licencas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B1ADA2-DFA1-49E5-9D54-80E3546CCC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE77D51E-456C-4948-ABF6-43CF66357366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC585FA0-F66A-44AE-9546-6CB0DAE100F9}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2962" uniqueCount="1935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="1938">
   <si>
     <t>SchoolType</t>
   </si>
@@ -5852,6 +5852,15 @@
   </si>
   <si>
     <t>SchoolName</t>
+  </si>
+  <si>
+    <t>PASSOS ABOIM COMERCIO LTDA</t>
+  </si>
+  <si>
+    <t>PUERI CANDANGUINHO</t>
+  </si>
+  <si>
+    <t>1129D6BA-D13A-4252-9F5A-35A3DB513263</t>
   </si>
 </sst>
 </file>
@@ -5901,11 +5910,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6220,10 +6230,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A73577-28F2-45CA-9131-49B03B93C073}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G529"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I527" sqref="I527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6232,24 +6243,25 @@
     <col min="2" max="2" width="57.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>1931</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1932</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>1933</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>1934</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>1553</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -6259,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1499</v>
       </c>
@@ -6279,7 +6291,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6302,7 +6314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6325,7 +6337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -6348,7 +6360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6371,7 +6383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -6394,7 +6406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -6417,7 +6429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -6440,7 +6452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -6463,7 +6475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -6486,7 +6498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -6509,7 +6521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -6529,7 +6541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -6552,7 +6564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -6575,7 +6587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -6598,7 +6610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -6621,7 +6633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -6644,7 +6656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -6667,7 +6679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -6690,7 +6702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -6713,7 +6725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -6736,7 +6748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -6759,7 +6771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -6782,7 +6794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -6805,7 +6817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -6828,7 +6840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -6851,7 +6863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -6874,7 +6886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -6897,7 +6909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -6920,7 +6932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -6943,7 +6955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>133</v>
       </c>
@@ -6966,7 +6978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -6989,7 +7001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>140</v>
       </c>
@@ -7009,7 +7021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -7032,7 +7044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -7055,7 +7067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -7075,7 +7087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>157</v>
       </c>
@@ -7098,7 +7110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -7118,7 +7130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>165</v>
       </c>
@@ -7141,7 +7153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>168</v>
       </c>
@@ -7164,7 +7176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>171</v>
       </c>
@@ -7184,7 +7196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>174</v>
       </c>
@@ -7207,7 +7219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>179</v>
       </c>
@@ -7230,7 +7242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>182</v>
       </c>
@@ -7250,7 +7262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>185</v>
       </c>
@@ -7273,7 +7285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -7293,7 +7305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>195</v>
       </c>
@@ -7313,7 +7325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>198</v>
       </c>
@@ -7336,7 +7348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>201</v>
       </c>
@@ -7356,7 +7368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -7376,7 +7388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -7399,7 +7411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>211</v>
       </c>
@@ -7419,7 +7431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>215</v>
       </c>
@@ -7442,7 +7454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>218</v>
       </c>
@@ -7465,7 +7477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -7488,7 +7500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>225</v>
       </c>
@@ -7508,7 +7520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>228</v>
       </c>
@@ -7531,7 +7543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -7554,7 +7566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>235</v>
       </c>
@@ -7577,7 +7589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>238</v>
       </c>
@@ -7600,7 +7612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>241</v>
       </c>
@@ -7623,7 +7635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>244</v>
       </c>
@@ -7646,7 +7658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>247</v>
       </c>
@@ -7669,7 +7681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -7692,7 +7704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>281</v>
       </c>
@@ -7715,7 +7727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>284</v>
       </c>
@@ -7738,7 +7750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -7761,7 +7773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>291</v>
       </c>
@@ -7784,7 +7796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -7804,7 +7816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>297</v>
       </c>
@@ -7824,7 +7836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>300</v>
       </c>
@@ -7844,7 +7856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>304</v>
       </c>
@@ -7867,7 +7879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>307</v>
       </c>
@@ -7890,7 +7902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>310</v>
       </c>
@@ -7910,7 +7922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>313</v>
       </c>
@@ -7933,7 +7945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>317</v>
       </c>
@@ -7953,7 +7965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>320</v>
       </c>
@@ -7973,7 +7985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>323</v>
       </c>
@@ -7993,7 +8005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>326</v>
       </c>
@@ -8016,7 +8028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>329</v>
       </c>
@@ -8039,7 +8051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>332</v>
       </c>
@@ -8062,7 +8074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>335</v>
       </c>
@@ -8082,7 +8094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>338</v>
       </c>
@@ -8102,7 +8114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>341</v>
       </c>
@@ -8125,7 +8137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>345</v>
       </c>
@@ -8148,7 +8160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>348</v>
       </c>
@@ -8171,7 +8183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>352</v>
       </c>
@@ -8194,7 +8206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>355</v>
       </c>
@@ -8217,7 +8229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>359</v>
       </c>
@@ -8240,7 +8252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>362</v>
       </c>
@@ -8263,7 +8275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>365</v>
       </c>
@@ -8286,7 +8298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>369</v>
       </c>
@@ -8309,7 +8321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>372</v>
       </c>
@@ -8329,7 +8341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>376</v>
       </c>
@@ -8352,7 +8364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>380</v>
       </c>
@@ -8372,7 +8384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>383</v>
       </c>
@@ -8395,7 +8407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>383</v>
       </c>
@@ -8418,7 +8430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>388</v>
       </c>
@@ -8441,7 +8453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>391</v>
       </c>
@@ -8464,7 +8476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>394</v>
       </c>
@@ -8487,7 +8499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>397</v>
       </c>
@@ -8510,7 +8522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>400</v>
       </c>
@@ -8530,7 +8542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>404</v>
       </c>
@@ -8553,7 +8565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>408</v>
       </c>
@@ -8576,7 +8588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>411</v>
       </c>
@@ -8596,7 +8608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>414</v>
       </c>
@@ -8619,7 +8631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>417</v>
       </c>
@@ -8642,7 +8654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>421</v>
       </c>
@@ -8665,7 +8677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>424</v>
       </c>
@@ -8688,7 +8700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>424</v>
       </c>
@@ -8711,7 +8723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>436</v>
       </c>
@@ -8734,7 +8746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>436</v>
       </c>
@@ -8757,7 +8769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>442</v>
       </c>
@@ -8777,7 +8789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>446</v>
       </c>
@@ -8800,7 +8812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>449</v>
       </c>
@@ -8823,7 +8835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>452</v>
       </c>
@@ -8843,7 +8855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>455</v>
       </c>
@@ -8866,7 +8878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>455</v>
       </c>
@@ -8889,7 +8901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>455</v>
       </c>
@@ -8912,7 +8924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>462</v>
       </c>
@@ -8932,7 +8944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>465</v>
       </c>
@@ -8955,7 +8967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>468</v>
       </c>
@@ -8978,7 +8990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>471</v>
       </c>
@@ -9001,7 +9013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>474</v>
       </c>
@@ -9024,7 +9036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>477</v>
       </c>
@@ -9047,7 +9059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>480</v>
       </c>
@@ -9067,7 +9079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>484</v>
       </c>
@@ -9090,7 +9102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>488</v>
       </c>
@@ -9113,7 +9125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>488</v>
       </c>
@@ -9136,7 +9148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>488</v>
       </c>
@@ -9159,7 +9171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>488</v>
       </c>
@@ -9182,7 +9194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>488</v>
       </c>
@@ -9205,7 +9217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>488</v>
       </c>
@@ -9228,7 +9240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>502</v>
       </c>
@@ -9248,7 +9260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>505</v>
       </c>
@@ -9271,7 +9283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>508</v>
       </c>
@@ -9294,7 +9306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>508</v>
       </c>
@@ -9317,7 +9329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>513</v>
       </c>
@@ -9340,7 +9352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>517</v>
       </c>
@@ -9363,7 +9375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>520</v>
       </c>
@@ -9383,7 +9395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>523</v>
       </c>
@@ -9403,7 +9415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>526</v>
       </c>
@@ -9423,7 +9435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>529</v>
       </c>
@@ -9446,7 +9458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>532</v>
       </c>
@@ -9469,7 +9481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>535</v>
       </c>
@@ -9492,7 +9504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>538</v>
       </c>
@@ -9515,7 +9527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>538</v>
       </c>
@@ -9538,7 +9550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>544</v>
       </c>
@@ -9561,7 +9573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>547</v>
       </c>
@@ -9581,7 +9593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>551</v>
       </c>
@@ -9604,7 +9616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>554</v>
       </c>
@@ -9624,7 +9636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>558</v>
       </c>
@@ -9647,7 +9659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>561</v>
       </c>
@@ -9670,7 +9682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>564</v>
       </c>
@@ -9690,7 +9702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>567</v>
       </c>
@@ -9713,7 +9725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>570</v>
       </c>
@@ -9736,7 +9748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>573</v>
       </c>
@@ -9759,7 +9771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>576</v>
       </c>
@@ -9782,7 +9794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>579</v>
       </c>
@@ -9802,7 +9814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>582</v>
       </c>
@@ -9825,7 +9837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>585</v>
       </c>
@@ -9848,7 +9860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>589</v>
       </c>
@@ -9871,7 +9883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>593</v>
       </c>
@@ -9891,7 +9903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>596</v>
       </c>
@@ -9914,7 +9926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>600</v>
       </c>
@@ -9937,7 +9949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>603</v>
       </c>
@@ -9960,7 +9972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>606</v>
       </c>
@@ -9983,7 +9995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>609</v>
       </c>
@@ -10006,7 +10018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>612</v>
       </c>
@@ -10026,7 +10038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>615</v>
       </c>
@@ -10049,7 +10061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>615</v>
       </c>
@@ -10072,7 +10084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>621</v>
       </c>
@@ -10118,7 +10130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>628</v>
       </c>
@@ -10141,7 +10153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>628</v>
       </c>
@@ -10164,7 +10176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>634</v>
       </c>
@@ -10187,7 +10199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>637</v>
       </c>
@@ -10210,7 +10222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>640</v>
       </c>
@@ -10233,7 +10245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>643</v>
       </c>
@@ -10256,7 +10268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>646</v>
       </c>
@@ -10279,7 +10291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>649</v>
       </c>
@@ -10302,7 +10314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>649</v>
       </c>
@@ -10325,7 +10337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>655</v>
       </c>
@@ -10345,7 +10357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>658</v>
       </c>
@@ -10365,7 +10377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>661</v>
       </c>
@@ -10385,7 +10397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>664</v>
       </c>
@@ -10408,7 +10420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>667</v>
       </c>
@@ -10431,7 +10443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>671</v>
       </c>
@@ -10454,7 +10466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>675</v>
       </c>
@@ -10474,7 +10486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>678</v>
       </c>
@@ -10497,7 +10509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>681</v>
       </c>
@@ -10517,7 +10529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>686</v>
       </c>
@@ -10540,7 +10552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>689</v>
       </c>
@@ -10560,7 +10572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>692</v>
       </c>
@@ -10583,7 +10595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>696</v>
       </c>
@@ -10603,7 +10615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>699</v>
       </c>
@@ -10626,7 +10638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>702</v>
       </c>
@@ -10649,7 +10661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>702</v>
       </c>
@@ -10672,7 +10684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>708</v>
       </c>
@@ -10692,7 +10704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>711</v>
       </c>
@@ -10715,7 +10727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>714</v>
       </c>
@@ -10735,7 +10747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>719</v>
       </c>
@@ -10758,7 +10770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>719</v>
       </c>
@@ -10781,7 +10793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>719</v>
       </c>
@@ -10804,7 +10816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>719</v>
       </c>
@@ -10827,7 +10839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>731</v>
       </c>
@@ -10850,7 +10862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>731</v>
       </c>
@@ -10873,7 +10885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>737</v>
       </c>
@@ -10896,7 +10908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>740</v>
       </c>
@@ -10919,7 +10931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>743</v>
       </c>
@@ -10942,7 +10954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>746</v>
       </c>
@@ -10965,7 +10977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>749</v>
       </c>
@@ -10988,7 +11000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>749</v>
       </c>
@@ -11011,7 +11023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>761</v>
       </c>
@@ -11034,7 +11046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>764</v>
       </c>
@@ -11057,7 +11069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>764</v>
       </c>
@@ -11077,7 +11089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>769</v>
       </c>
@@ -11100,7 +11112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>772</v>
       </c>
@@ -11123,7 +11135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>774</v>
       </c>
@@ -11146,7 +11158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>777</v>
       </c>
@@ -11169,7 +11181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>780</v>
       </c>
@@ -11192,7 +11204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>783</v>
       </c>
@@ -11215,7 +11227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>786</v>
       </c>
@@ -11238,7 +11250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>789</v>
       </c>
@@ -11261,7 +11273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>792</v>
       </c>
@@ -11281,7 +11293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>796</v>
       </c>
@@ -11301,7 +11313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>800</v>
       </c>
@@ -11321,7 +11333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>804</v>
       </c>
@@ -11341,7 +11353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>808</v>
       </c>
@@ -11364,7 +11376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>812</v>
       </c>
@@ -11387,7 +11399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>815</v>
       </c>
@@ -11410,7 +11422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>815</v>
       </c>
@@ -11433,7 +11445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>831</v>
       </c>
@@ -11456,7 +11468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>834</v>
       </c>
@@ -11479,7 +11491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>837</v>
       </c>
@@ -11502,7 +11514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>840</v>
       </c>
@@ -11525,7 +11537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>843</v>
       </c>
@@ -11548,7 +11560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>846</v>
       </c>
@@ -11568,7 +11580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>849</v>
       </c>
@@ -11591,7 +11603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>852</v>
       </c>
@@ -11614,7 +11626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>860</v>
       </c>
@@ -11637,7 +11649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>863</v>
       </c>
@@ -11660,7 +11672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>866</v>
       </c>
@@ -11683,7 +11695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>869</v>
       </c>
@@ -11703,7 +11715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>872</v>
       </c>
@@ -11726,7 +11738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>875</v>
       </c>
@@ -11749,7 +11761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>879</v>
       </c>
@@ -11772,7 +11784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>883</v>
       </c>
@@ -11792,7 +11804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>886</v>
       </c>
@@ -11815,7 +11827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>889</v>
       </c>
@@ -11835,7 +11847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>893</v>
       </c>
@@ -11858,7 +11870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>897</v>
       </c>
@@ -11881,7 +11893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>900</v>
       </c>
@@ -11904,7 +11916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>903</v>
       </c>
@@ -11924,7 +11936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>906</v>
       </c>
@@ -11947,7 +11959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>909</v>
       </c>
@@ -11967,7 +11979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>913</v>
       </c>
@@ -11987,7 +11999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>916</v>
       </c>
@@ -12010,7 +12022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>919</v>
       </c>
@@ -12030,7 +12042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>923</v>
       </c>
@@ -12053,7 +12065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>926</v>
       </c>
@@ -12076,7 +12088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>929</v>
       </c>
@@ -12099,7 +12111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>932</v>
       </c>
@@ -12119,7 +12131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>935</v>
       </c>
@@ -12142,7 +12154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>939</v>
       </c>
@@ -12162,7 +12174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>942</v>
       </c>
@@ -12182,7 +12194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>945</v>
       </c>
@@ -12202,7 +12214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>948</v>
       </c>
@@ -12222,7 +12234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>951</v>
       </c>
@@ -12245,7 +12257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>954</v>
       </c>
@@ -12268,7 +12280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>957</v>
       </c>
@@ -12291,7 +12303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>960</v>
       </c>
@@ -12311,7 +12323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>963</v>
       </c>
@@ -12331,7 +12343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>967</v>
       </c>
@@ -12354,7 +12366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>970</v>
       </c>
@@ -12377,7 +12389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>973</v>
       </c>
@@ -12397,7 +12409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>976</v>
       </c>
@@ -12420,7 +12432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>979</v>
       </c>
@@ -12443,7 +12455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>983</v>
       </c>
@@ -12466,7 +12478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>987</v>
       </c>
@@ -12486,7 +12498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>991</v>
       </c>
@@ -12509,7 +12521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>994</v>
       </c>
@@ -12529,7 +12541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>997</v>
       </c>
@@ -12549,7 +12561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1000</v>
       </c>
@@ -12569,7 +12581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1003</v>
       </c>
@@ -12592,7 +12604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1006</v>
       </c>
@@ -12612,7 +12624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1009</v>
       </c>
@@ -12635,7 +12647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1013</v>
       </c>
@@ -12658,7 +12670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1016</v>
       </c>
@@ -12678,7 +12690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1020</v>
       </c>
@@ -12701,7 +12713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1034</v>
       </c>
@@ -12724,7 +12736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1040</v>
       </c>
@@ -12747,7 +12759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1043</v>
       </c>
@@ -12770,7 +12782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1046</v>
       </c>
@@ -12793,7 +12805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1049</v>
       </c>
@@ -12813,7 +12825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1049</v>
       </c>
@@ -12833,7 +12845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1049</v>
       </c>
@@ -12856,7 +12868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1049</v>
       </c>
@@ -12876,7 +12888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1049</v>
       </c>
@@ -12896,7 +12908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1061</v>
       </c>
@@ -12919,7 +12931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1064</v>
       </c>
@@ -12939,7 +12951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1067</v>
       </c>
@@ -12959,7 +12971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1070</v>
       </c>
@@ -12979,7 +12991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1073</v>
       </c>
@@ -13002,7 +13014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1077</v>
       </c>
@@ -13025,7 +13037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1081</v>
       </c>
@@ -13045,7 +13057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1084</v>
       </c>
@@ -13068,7 +13080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1087</v>
       </c>
@@ -13091,7 +13103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1090</v>
       </c>
@@ -13111,7 +13123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1093</v>
       </c>
@@ -13134,7 +13146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1097</v>
       </c>
@@ -13157,7 +13169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1100</v>
       </c>
@@ -13180,7 +13192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1103</v>
       </c>
@@ -13203,7 +13215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1106</v>
       </c>
@@ -13223,7 +13235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1110</v>
       </c>
@@ -13246,7 +13258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1110</v>
       </c>
@@ -13269,7 +13281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1110</v>
       </c>
@@ -13292,7 +13304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1110</v>
       </c>
@@ -13315,7 +13327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1110</v>
       </c>
@@ -13338,7 +13350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1110</v>
       </c>
@@ -13361,7 +13373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1110</v>
       </c>
@@ -13384,7 +13396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1110</v>
       </c>
@@ -13407,7 +13419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1110</v>
       </c>
@@ -13430,7 +13442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1110</v>
       </c>
@@ -13453,7 +13465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1110</v>
       </c>
@@ -13476,7 +13488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1110</v>
       </c>
@@ -13499,7 +13511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1110</v>
       </c>
@@ -13522,7 +13534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1110</v>
       </c>
@@ -13545,7 +13557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1110</v>
       </c>
@@ -13568,7 +13580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1110</v>
       </c>
@@ -13591,7 +13603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1144</v>
       </c>
@@ -13614,7 +13626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1147</v>
       </c>
@@ -13637,7 +13649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1150</v>
       </c>
@@ -13657,7 +13669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1153</v>
       </c>
@@ -13680,7 +13692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1157</v>
       </c>
@@ -13703,7 +13715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1160</v>
       </c>
@@ -13726,7 +13738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1163</v>
       </c>
@@ -13749,7 +13761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1166</v>
       </c>
@@ -13772,7 +13784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1166</v>
       </c>
@@ -13795,7 +13807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1172</v>
       </c>
@@ -13818,7 +13830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1176</v>
       </c>
@@ -13841,7 +13853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1179</v>
       </c>
@@ -13864,7 +13876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1182</v>
       </c>
@@ -13887,7 +13899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1186</v>
       </c>
@@ -13910,7 +13922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1192</v>
       </c>
@@ -13933,7 +13945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1195</v>
       </c>
@@ -13956,7 +13968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1198</v>
       </c>
@@ -13976,7 +13988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1203</v>
       </c>
@@ -13999,7 +14011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1207</v>
       </c>
@@ -14019,7 +14031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1210</v>
       </c>
@@ -14039,7 +14051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1213</v>
       </c>
@@ -14062,7 +14074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1217</v>
       </c>
@@ -14085,7 +14097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1220</v>
       </c>
@@ -14108,7 +14120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1226</v>
       </c>
@@ -14128,7 +14140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1230</v>
       </c>
@@ -14151,7 +14163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1235</v>
       </c>
@@ -14174,7 +14186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1238</v>
       </c>
@@ -14194,7 +14206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1242</v>
       </c>
@@ -14217,7 +14229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1245</v>
       </c>
@@ -14237,7 +14249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1248</v>
       </c>
@@ -14257,7 +14269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1252</v>
       </c>
@@ -14280,7 +14292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1252</v>
       </c>
@@ -14303,7 +14315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1259</v>
       </c>
@@ -14326,7 +14338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1261</v>
       </c>
@@ -14346,7 +14358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1264</v>
       </c>
@@ -14366,7 +14378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1267</v>
       </c>
@@ -14389,7 +14401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1271</v>
       </c>
@@ -14412,7 +14424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1274</v>
       </c>
@@ -14432,7 +14444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1277</v>
       </c>
@@ -14455,7 +14467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1280</v>
       </c>
@@ -14475,7 +14487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1283</v>
       </c>
@@ -14495,7 +14507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1287</v>
       </c>
@@ -14515,7 +14527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1291</v>
       </c>
@@ -14538,7 +14550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1295</v>
       </c>
@@ -14558,7 +14570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1299</v>
       </c>
@@ -14578,7 +14590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1303</v>
       </c>
@@ -14598,7 +14610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1306</v>
       </c>
@@ -14621,7 +14633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1312</v>
       </c>
@@ -14641,7 +14653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1315</v>
       </c>
@@ -14664,7 +14676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1318</v>
       </c>
@@ -14684,7 +14696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1318</v>
       </c>
@@ -14704,7 +14716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1318</v>
       </c>
@@ -14724,7 +14736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1326</v>
       </c>
@@ -14747,7 +14759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1330</v>
       </c>
@@ -14767,7 +14779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1334</v>
       </c>
@@ -14790,7 +14802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1337</v>
       </c>
@@ -14810,7 +14822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1340</v>
       </c>
@@ -14833,7 +14845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1344</v>
       </c>
@@ -14856,7 +14868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1347</v>
       </c>
@@ -14879,7 +14891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1404</v>
       </c>
@@ -14902,7 +14914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1450</v>
       </c>
@@ -14925,7 +14937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1454</v>
       </c>
@@ -14948,7 +14960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1458</v>
       </c>
@@ -14968,7 +14980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1462</v>
       </c>
@@ -14991,7 +15003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1466</v>
       </c>
@@ -15011,7 +15023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1469</v>
       </c>
@@ -15034,7 +15046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1472</v>
       </c>
@@ -15054,7 +15066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1475</v>
       </c>
@@ -15074,7 +15086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1479</v>
       </c>
@@ -15094,7 +15106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1483</v>
       </c>
@@ -15114,7 +15126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1486</v>
       </c>
@@ -15137,7 +15149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1489</v>
       </c>
@@ -15160,7 +15172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1493</v>
       </c>
@@ -15180,7 +15192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1496</v>
       </c>
@@ -15203,7 +15215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1506</v>
       </c>
@@ -15226,7 +15238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1510</v>
       </c>
@@ -15249,7 +15261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1513</v>
       </c>
@@ -15272,7 +15284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1516</v>
       </c>
@@ -15295,7 +15307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1519</v>
       </c>
@@ -15318,7 +15330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1522</v>
       </c>
@@ -15341,7 +15353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1525</v>
       </c>
@@ -15361,7 +15373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>25</v>
       </c>
@@ -15384,7 +15396,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>25</v>
       </c>
@@ -15407,7 +15419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>35</v>
       </c>
@@ -15430,7 +15442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>42</v>
       </c>
@@ -15443,7 +15455,7 @@
       <c r="D416" t="s">
         <v>45</v>
       </c>
-      <c r="E416">
+      <c r="E416" s="4">
         <v>7549613000121</v>
       </c>
       <c r="F416" t="s">
@@ -15453,7 +15465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>46</v>
       </c>
@@ -15476,7 +15488,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>49</v>
       </c>
@@ -15499,7 +15511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>52</v>
       </c>
@@ -15522,7 +15534,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>55</v>
       </c>
@@ -15545,7 +15557,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>73</v>
       </c>
@@ -15568,7 +15580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>146</v>
       </c>
@@ -15588,7 +15600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>188</v>
       </c>
@@ -15608,7 +15620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>188</v>
       </c>
@@ -15628,7 +15640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>253</v>
       </c>
@@ -15651,7 +15663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>253</v>
       </c>
@@ -15674,7 +15686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>253</v>
       </c>
@@ -15697,7 +15709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>253</v>
       </c>
@@ -15717,7 +15729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>253</v>
       </c>
@@ -15740,7 +15752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>253</v>
       </c>
@@ -15763,7 +15775,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>253</v>
       </c>
@@ -15783,7 +15795,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>253</v>
       </c>
@@ -15806,7 +15818,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>253</v>
       </c>
@@ -15829,7 +15841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>253</v>
       </c>
@@ -15852,7 +15864,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>253</v>
       </c>
@@ -15875,7 +15887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>253</v>
       </c>
@@ -15898,7 +15910,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>253</v>
       </c>
@@ -15921,7 +15933,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>430</v>
       </c>
@@ -15944,7 +15956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>433</v>
       </c>
@@ -15967,7 +15979,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>755</v>
       </c>
@@ -15990,7 +16002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>758</v>
       </c>
@@ -16013,7 +16025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>820</v>
       </c>
@@ -16036,7 +16048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>823</v>
       </c>
@@ -16050,7 +16062,7 @@
         <v>824</v>
       </c>
       <c r="E443">
-        <v>15236367001409</v>
+        <v>21255704000347</v>
       </c>
       <c r="F443" t="s">
         <v>1772</v>
@@ -16059,7 +16071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>823</v>
       </c>
@@ -16082,7 +16094,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>828</v>
       </c>
@@ -16105,7 +16117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1025</v>
       </c>
@@ -16128,7 +16140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1028</v>
       </c>
@@ -16151,7 +16163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1028</v>
       </c>
@@ -16174,7 +16186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1037</v>
       </c>
@@ -16197,7 +16209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1189</v>
       </c>
@@ -16220,7 +16232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1309</v>
       </c>
@@ -16243,7 +16255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1350</v>
       </c>
@@ -16266,7 +16278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1350</v>
       </c>
@@ -16289,7 +16301,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1356</v>
       </c>
@@ -16312,7 +16324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1356</v>
       </c>
@@ -16335,7 +16347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1362</v>
       </c>
@@ -16358,7 +16370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1362</v>
       </c>
@@ -16381,7 +16393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1368</v>
       </c>
@@ -16404,7 +16416,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1368</v>
       </c>
@@ -16427,7 +16439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1373</v>
       </c>
@@ -16450,7 +16462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1376</v>
       </c>
@@ -16470,7 +16482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1379</v>
       </c>
@@ -16493,7 +16505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1383</v>
       </c>
@@ -16516,7 +16528,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1383</v>
       </c>
@@ -16539,7 +16551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1389</v>
       </c>
@@ -16562,7 +16574,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1389</v>
       </c>
@@ -16585,7 +16597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1389</v>
       </c>
@@ -16608,7 +16620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1389</v>
       </c>
@@ -16631,7 +16643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1397</v>
       </c>
@@ -16654,7 +16666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1401</v>
       </c>
@@ -16677,7 +16689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1404</v>
       </c>
@@ -16700,7 +16712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1409</v>
       </c>
@@ -16723,7 +16735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1412</v>
       </c>
@@ -16746,7 +16758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1416</v>
       </c>
@@ -16766,7 +16778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1416</v>
       </c>
@@ -16789,7 +16801,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1421</v>
       </c>
@@ -16812,7 +16824,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1424</v>
       </c>
@@ -16835,7 +16847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1427</v>
       </c>
@@ -16858,7 +16870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1427</v>
       </c>
@@ -16881,7 +16893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1433</v>
       </c>
@@ -16904,7 +16916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1436</v>
       </c>
@@ -16927,7 +16939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1436</v>
       </c>
@@ -16950,7 +16962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1442</v>
       </c>
@@ -16973,7 +16985,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1445</v>
       </c>
@@ -16996,7 +17008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1445</v>
       </c>
@@ -17019,7 +17031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1503</v>
       </c>
@@ -17042,7 +17054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>6</v>
       </c>
@@ -17062,7 +17074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>62</v>
       </c>
@@ -17082,7 +17094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>69</v>
       </c>
@@ -17105,7 +17117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>161</v>
       </c>
@@ -17128,7 +17140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>174</v>
       </c>
@@ -17148,7 +17160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>211</v>
       </c>
@@ -17171,7 +17183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>300</v>
       </c>
@@ -17194,7 +17206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>348</v>
       </c>
@@ -17214,7 +17226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>355</v>
       </c>
@@ -17237,7 +17249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>372</v>
       </c>
@@ -17260,7 +17272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>442</v>
       </c>
@@ -17283,7 +17295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>484</v>
       </c>
@@ -17303,7 +17315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>513</v>
       </c>
@@ -17326,7 +17338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>554</v>
       </c>
@@ -17349,7 +17361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>596</v>
       </c>
@@ -17369,7 +17381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>667</v>
       </c>
@@ -17392,7 +17404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>681</v>
       </c>
@@ -17415,7 +17427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>714</v>
       </c>
@@ -17438,7 +17450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>719</v>
       </c>
@@ -17461,7 +17473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>856</v>
       </c>
@@ -17484,7 +17496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>987</v>
       </c>
@@ -17507,7 +17519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1009</v>
       </c>
@@ -17530,7 +17542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1073</v>
       </c>
@@ -17553,7 +17565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1077</v>
       </c>
@@ -17573,7 +17585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1153</v>
       </c>
@@ -17593,7 +17605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1182</v>
       </c>
@@ -17616,7 +17628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1198</v>
       </c>
@@ -17639,7 +17651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>1223</v>
       </c>
@@ -17662,7 +17674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1230</v>
       </c>
@@ -17685,7 +17697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1340</v>
       </c>
@@ -17705,8 +17717,46 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>625</v>
+      </c>
+      <c r="B517" t="s">
+        <v>626</v>
+      </c>
+      <c r="C517" t="s">
+        <v>627</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E517">
+        <v>32031159000160</v>
+      </c>
+      <c r="G517" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E518">
+        <v>47259678000157</v>
+      </c>
+      <c r="G518" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="519" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="520" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="521" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17720,9 +17770,11 @@
     <row r="529" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:G516" xr:uid="{97A73577-28F2-45CA-9131-49B03B93C073}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G516">
-      <sortCondition ref="G1:G516"/>
-    </sortState>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="COLÉGIO MUNDO DA CRIANÇA"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/input/escolas_lex.xlsx
+++ b/input/escolas_lex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrerodrigues\projetos\licencas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE77D51E-456C-4948-ABF6-43CF66357366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA597076-E02D-4D65-8CA9-6CA7AF9628B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC585FA0-F66A-44AE-9546-6CB0DAE100F9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BASE" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE!$A$1:$G$516</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE!$A$1:$G$518</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4699,9 +4699,6 @@
     <t>0d2db64d-24e4-447d-90b0-6fc3e82c09da</t>
   </si>
   <si>
-    <t>ba4feb1f-b9cd-483c-a0b6-08644f2877b</t>
-  </si>
-  <si>
     <t>d2ca4873-572b-4ad0-b68d-baa035754e9e</t>
   </si>
   <si>
@@ -5861,6 +5858,9 @@
   </si>
   <si>
     <t>1129D6BA-D13A-4252-9F5A-35A3DB513263</t>
+  </si>
+  <si>
+    <t>ba4feb1f-b9cd-483c-a0b6-08644f2877b0</t>
   </si>
 </sst>
 </file>
@@ -6233,8 +6233,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I527" sqref="I527"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C534" sqref="C534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6250,22 +6250,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B1" t="s">
         <v>1931</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1932</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1933</v>
       </c>
-      <c r="D1" t="s">
-        <v>1934</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1553</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1554</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -6308,7 +6308,7 @@
         <v>1377900000115</v>
       </c>
       <c r="F3" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -6331,7 +6331,7 @@
         <v>6164912000185</v>
       </c>
       <c r="F4" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -6354,7 +6354,7 @@
         <v>39439115000112</v>
       </c>
       <c r="F5" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -6377,7 +6377,7 @@
         <v>2547304000107</v>
       </c>
       <c r="F6" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -6400,7 +6400,7 @@
         <v>12544349000173</v>
       </c>
       <c r="F7" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -6423,7 +6423,7 @@
         <v>16782672000136</v>
       </c>
       <c r="F8" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -6446,7 +6446,7 @@
         <v>53416921000520</v>
       </c>
       <c r="F9" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -6469,7 +6469,7 @@
         <v>34670401000170</v>
       </c>
       <c r="F10" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -6492,7 +6492,7 @@
         <v>9565924000100</v>
       </c>
       <c r="F11" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -6515,7 +6515,7 @@
         <v>56362056000140</v>
       </c>
       <c r="F12" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -6558,7 +6558,7 @@
         <v>53416921001500</v>
       </c>
       <c r="F14" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -6581,7 +6581,7 @@
         <v>5155331000114</v>
       </c>
       <c r="F15" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -6604,7 +6604,7 @@
         <v>14248395000150</v>
       </c>
       <c r="F16" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -6627,7 +6627,7 @@
         <v>65059370000140</v>
       </c>
       <c r="F17" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -6650,7 +6650,7 @@
         <v>951049000120</v>
       </c>
       <c r="F18" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -6673,7 +6673,7 @@
         <v>20153805000182</v>
       </c>
       <c r="F19" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -6696,7 +6696,7 @@
         <v>177428000104</v>
       </c>
       <c r="F20" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -6719,7 +6719,7 @@
         <v>6057175000111</v>
       </c>
       <c r="F21" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
@@ -6742,7 +6742,7 @@
         <v>9069920000130</v>
       </c>
       <c r="F22" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
@@ -6765,7 +6765,7 @@
         <v>5960184000155</v>
       </c>
       <c r="F23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -6788,7 +6788,7 @@
         <v>24912925000177</v>
       </c>
       <c r="F24" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -6811,7 +6811,7 @@
         <v>4942494000184</v>
       </c>
       <c r="F25" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -6834,7 +6834,7 @@
         <v>9484351000190</v>
       </c>
       <c r="F26" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="G26" t="s">
         <v>5</v>
@@ -6857,7 +6857,7 @@
         <v>7631897000109</v>
       </c>
       <c r="F27" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="G27" t="s">
         <v>5</v>
@@ -6880,7 +6880,7 @@
         <v>51481101000162</v>
       </c>
       <c r="F28" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="G28" t="s">
         <v>5</v>
@@ -6903,7 +6903,7 @@
         <v>42030505000149</v>
       </c>
       <c r="F29" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="G29" t="s">
         <v>5</v>
@@ -6926,7 +6926,7 @@
         <v>10667819000160</v>
       </c>
       <c r="F30" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="G30" t="s">
         <v>5</v>
@@ -6949,7 +6949,7 @@
         <v>42030285000153</v>
       </c>
       <c r="F31" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G31" t="s">
         <v>5</v>
@@ -6972,7 +6972,7 @@
         <v>54683834000178</v>
       </c>
       <c r="F32" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="G32" t="s">
         <v>5</v>
@@ -6995,7 +6995,7 @@
         <v>9000291000192</v>
       </c>
       <c r="F33" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="G33" t="s">
         <v>5</v>
@@ -7038,7 +7038,7 @@
         <v>40451213000154</v>
       </c>
       <c r="F35" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="G35" t="s">
         <v>5</v>
@@ -7061,7 +7061,7 @@
         <v>970453000140</v>
       </c>
       <c r="F36" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="G36" t="s">
         <v>5</v>
@@ -7104,7 +7104,7 @@
         <v>22962393000157</v>
       </c>
       <c r="F38" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="G38" t="s">
         <v>5</v>
@@ -7147,7 +7147,7 @@
         <v>5924839000130</v>
       </c>
       <c r="F40" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G40" t="s">
         <v>5</v>
@@ -7170,7 +7170,7 @@
         <v>2114474000270</v>
       </c>
       <c r="F41" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="G41" t="s">
         <v>5</v>
@@ -7213,7 +7213,7 @@
         <v>33268393000178</v>
       </c>
       <c r="F43" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="G43" t="s">
         <v>5</v>
@@ -7236,7 +7236,7 @@
         <v>7748088000173</v>
       </c>
       <c r="F44" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
@@ -7279,7 +7279,7 @@
         <v>4645428000142</v>
       </c>
       <c r="F46" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="G46" t="s">
         <v>5</v>
@@ -7342,7 +7342,7 @@
         <v>60716214000190</v>
       </c>
       <c r="F49" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="G49" t="s">
         <v>5</v>
@@ -7405,7 +7405,7 @@
         <v>52583195000143</v>
       </c>
       <c r="F52" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="G52" t="s">
         <v>5</v>
@@ -7448,7 +7448,7 @@
         <v>6002540000190</v>
       </c>
       <c r="F54" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G54" t="s">
         <v>5</v>
@@ -7471,7 +7471,7 @@
         <v>9012942000164</v>
       </c>
       <c r="F55" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="G55" t="s">
         <v>5</v>
@@ -7494,7 +7494,7 @@
         <v>13207355000106</v>
       </c>
       <c r="F56" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="G56" t="s">
         <v>5</v>
@@ -7537,7 +7537,7 @@
         <v>13226097000105</v>
       </c>
       <c r="F58" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="G58" t="s">
         <v>5</v>
@@ -7560,7 +7560,7 @@
         <v>40060738000169</v>
       </c>
       <c r="F59" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="G59" t="s">
         <v>5</v>
@@ -7583,7 +7583,7 @@
         <v>11516546000116</v>
       </c>
       <c r="F60" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="G60" t="s">
         <v>5</v>
@@ -7606,7 +7606,7 @@
         <v>60130895000100</v>
       </c>
       <c r="F61" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="G61" t="s">
         <v>5</v>
@@ -7629,7 +7629,7 @@
         <v>1099223000110</v>
       </c>
       <c r="F62" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="G62" t="s">
         <v>5</v>
@@ -7652,7 +7652,7 @@
         <v>29805098000136</v>
       </c>
       <c r="F63" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="G63" t="s">
         <v>5</v>
@@ -7675,7 +7675,7 @@
         <v>21232694000162</v>
       </c>
       <c r="F64" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="G64" t="s">
         <v>5</v>
@@ -7698,7 +7698,7 @@
         <v>9635346000130</v>
       </c>
       <c r="F65" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="G65" t="s">
         <v>5</v>
@@ -7721,7 +7721,7 @@
         <v>9104655000184</v>
       </c>
       <c r="F66" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="G66" t="s">
         <v>5</v>
@@ -7744,7 +7744,7 @@
         <v>53416921002140</v>
       </c>
       <c r="F67" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="G67" t="s">
         <v>5</v>
@@ -7767,7 +7767,7 @@
         <v>31439286000130</v>
       </c>
       <c r="F68" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="G68" t="s">
         <v>5</v>
@@ -7790,7 +7790,7 @@
         <v>7584832000141</v>
       </c>
       <c r="F69" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="G69" t="s">
         <v>5</v>
@@ -7873,7 +7873,7 @@
         <v>9206393000169</v>
       </c>
       <c r="F73" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="G73" t="s">
         <v>5</v>
@@ -7896,7 +7896,7 @@
         <v>29496948000161</v>
       </c>
       <c r="F74" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="G74" t="s">
         <v>5</v>
@@ -7939,7 +7939,7 @@
         <v>35086269000117</v>
       </c>
       <c r="F76" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="G76" t="s">
         <v>5</v>
@@ -8022,7 +8022,7 @@
         <v>83268623000177</v>
       </c>
       <c r="F80" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="G80" t="s">
         <v>5</v>
@@ -8045,7 +8045,7 @@
         <v>12145966000104</v>
       </c>
       <c r="F81" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="G81" t="s">
         <v>5</v>
@@ -8068,7 +8068,7 @@
         <v>17203928002209</v>
       </c>
       <c r="F82" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="G82" t="s">
         <v>5</v>
@@ -8131,7 +8131,7 @@
         <v>33646704000519</v>
       </c>
       <c r="F85" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="G85" t="s">
         <v>5</v>
@@ -8154,7 +8154,7 @@
         <v>39872738000184</v>
       </c>
       <c r="F86" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="G86" t="s">
         <v>5</v>
@@ -8177,7 +8177,7 @@
         <v>9292850000185</v>
       </c>
       <c r="F87" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="G87" t="s">
         <v>5</v>
@@ -8200,7 +8200,7 @@
         <v>2697887000144</v>
       </c>
       <c r="F88" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="G88" t="s">
         <v>5</v>
@@ -8223,7 +8223,7 @@
         <v>13408459000170</v>
       </c>
       <c r="F89" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G89" t="s">
         <v>5</v>
@@ -8246,7 +8246,7 @@
         <v>27381987000198</v>
       </c>
       <c r="F90" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="G90" t="s">
         <v>5</v>
@@ -8269,7 +8269,7 @@
         <v>11984868000190</v>
       </c>
       <c r="F91" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="G91" t="s">
         <v>5</v>
@@ -8292,7 +8292,7 @@
         <v>68623289000139</v>
       </c>
       <c r="F92" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="G92" t="s">
         <v>5</v>
@@ -8315,7 +8315,7 @@
         <v>2279729000174</v>
       </c>
       <c r="F93" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="G93" t="s">
         <v>5</v>
@@ -8358,7 +8358,7 @@
         <v>41176850000122</v>
       </c>
       <c r="F95" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="G95" t="s">
         <v>5</v>
@@ -8401,7 +8401,7 @@
         <v>8194562000125</v>
       </c>
       <c r="F97" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="G97" t="s">
         <v>5</v>
@@ -8424,7 +8424,7 @@
         <v>48277677000106</v>
       </c>
       <c r="F98" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="G98" t="s">
         <v>5</v>
@@ -8447,7 +8447,7 @@
         <v>1463319000116</v>
       </c>
       <c r="F99" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="G99" t="s">
         <v>5</v>
@@ -8470,7 +8470,7 @@
         <v>10802982000199</v>
       </c>
       <c r="F100" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="G100" t="s">
         <v>5</v>
@@ -8493,7 +8493,7 @@
         <v>10729846000110</v>
       </c>
       <c r="F101" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="G101" t="s">
         <v>5</v>
@@ -8516,7 +8516,7 @@
         <v>24996467000100</v>
       </c>
       <c r="F102" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G102" t="s">
         <v>5</v>
@@ -8559,7 +8559,7 @@
         <v>9943564000132</v>
       </c>
       <c r="F104" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="G104" t="s">
         <v>5</v>
@@ -8582,7 +8582,7 @@
         <v>8790544000106</v>
       </c>
       <c r="F105" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="G105" t="s">
         <v>5</v>
@@ -8625,7 +8625,7 @@
         <v>46348280000124</v>
       </c>
       <c r="F107" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="G107" t="s">
         <v>5</v>
@@ -8648,7 +8648,7 @@
         <v>5951513000282</v>
       </c>
       <c r="F108" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="G108" t="s">
         <v>5</v>
@@ -8671,7 +8671,7 @@
         <v>24917561000118</v>
       </c>
       <c r="F109" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="G109" t="s">
         <v>5</v>
@@ -8694,7 +8694,7 @@
         <v>1130539000209</v>
       </c>
       <c r="F110" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="G110" t="s">
         <v>5</v>
@@ -8717,7 +8717,7 @@
         <v>1130539000128</v>
       </c>
       <c r="F111" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="G111" t="s">
         <v>5</v>
@@ -8740,7 +8740,7 @@
         <v>28436310000172</v>
       </c>
       <c r="F112" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="G112" t="s">
         <v>5</v>
@@ -8763,7 +8763,7 @@
         <v>4070495000186</v>
       </c>
       <c r="F113" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="G113" t="s">
         <v>5</v>
@@ -8806,7 +8806,7 @@
         <v>9176197000199</v>
       </c>
       <c r="F115" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="G115" t="s">
         <v>5</v>
@@ -8829,7 +8829,7 @@
         <v>2188157000118</v>
       </c>
       <c r="F116" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="G116" t="s">
         <v>5</v>
@@ -8872,7 +8872,7 @@
         <v>30955000000106</v>
       </c>
       <c r="F118" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G118" t="s">
         <v>5</v>
@@ -8895,7 +8895,7 @@
         <v>13482434000117</v>
       </c>
       <c r="F119" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="G119" t="s">
         <v>5</v>
@@ -8918,7 +8918,7 @@
         <v>3750852000194</v>
       </c>
       <c r="F120" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="G120" t="s">
         <v>5</v>
@@ -8961,7 +8961,7 @@
         <v>36345073000162</v>
       </c>
       <c r="F122" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="G122" t="s">
         <v>5</v>
@@ -8984,7 +8984,7 @@
         <v>45800356000148</v>
       </c>
       <c r="F123" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="G123" t="s">
         <v>5</v>
@@ -9007,7 +9007,7 @@
         <v>4756536000192</v>
       </c>
       <c r="F124" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="G124" t="s">
         <v>5</v>
@@ -9030,7 +9030,7 @@
         <v>56368202000145</v>
       </c>
       <c r="F125" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="G125" t="s">
         <v>5</v>
@@ -9053,7 +9053,7 @@
         <v>972792000166</v>
       </c>
       <c r="F126" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="G126" t="s">
         <v>5</v>
@@ -9096,7 +9096,7 @@
         <v>716608000117</v>
       </c>
       <c r="F128" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="G128" t="s">
         <v>5</v>
@@ -9119,7 +9119,7 @@
         <v>48069924000251</v>
       </c>
       <c r="F129" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="G129" t="s">
         <v>5</v>
@@ -9142,7 +9142,7 @@
         <v>48069924000685</v>
       </c>
       <c r="F130" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="G130" t="s">
         <v>5</v>
@@ -9165,7 +9165,7 @@
         <v>48069924001061</v>
       </c>
       <c r="F131" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="G131" t="s">
         <v>5</v>
@@ -9188,7 +9188,7 @@
         <v>48069924000413</v>
       </c>
       <c r="F132" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="G132" t="s">
         <v>5</v>
@@ -9211,7 +9211,7 @@
         <v>48069924001142</v>
       </c>
       <c r="F133" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="G133" t="s">
         <v>5</v>
@@ -9234,7 +9234,7 @@
         <v>48069924000766</v>
       </c>
       <c r="F134" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G134" t="s">
         <v>5</v>
@@ -9277,7 +9277,7 @@
         <v>8335404000148</v>
       </c>
       <c r="F136" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="G136" t="s">
         <v>5</v>
@@ -9300,7 +9300,7 @@
         <v>43668142000134</v>
       </c>
       <c r="F137" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G137" t="s">
         <v>5</v>
@@ -9323,7 +9323,7 @@
         <v>42262085000126</v>
       </c>
       <c r="F138" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="G138" t="s">
         <v>5</v>
@@ -9346,7 +9346,7 @@
         <v>51253946000109</v>
       </c>
       <c r="F139" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="G139" t="s">
         <v>5</v>
@@ -9452,7 +9452,7 @@
         <v>36756617000189</v>
       </c>
       <c r="F144" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="G144" t="s">
         <v>5</v>
@@ -9475,7 +9475,7 @@
         <v>4647728000160</v>
       </c>
       <c r="F145" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G145" t="s">
         <v>5</v>
@@ -9498,7 +9498,7 @@
         <v>44643786000130</v>
       </c>
       <c r="F146" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="G146" t="s">
         <v>5</v>
@@ -9521,7 +9521,7 @@
         <v>4847013000151</v>
       </c>
       <c r="F147" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="G147" t="s">
         <v>5</v>
@@ -9544,7 +9544,7 @@
         <v>3876611000196</v>
       </c>
       <c r="F148" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="G148" t="s">
         <v>5</v>
@@ -9567,7 +9567,7 @@
         <v>6373574000191</v>
       </c>
       <c r="F149" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="G149" t="s">
         <v>5</v>
@@ -9610,7 +9610,7 @@
         <v>4531514000124</v>
       </c>
       <c r="F151" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="G151" t="s">
         <v>5</v>
@@ -9653,7 +9653,7 @@
         <v>3255661000156</v>
       </c>
       <c r="F153" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="G153" t="s">
         <v>5</v>
@@ -9676,7 +9676,7 @@
         <v>30871552000136</v>
       </c>
       <c r="F154" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="G154" t="s">
         <v>5</v>
@@ -9719,7 +9719,7 @@
         <v>3441599000197</v>
       </c>
       <c r="F156" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="G156" t="s">
         <v>5</v>
@@ -9742,7 +9742,7 @@
         <v>17110535000118</v>
       </c>
       <c r="F157" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="G157" t="s">
         <v>5</v>
@@ -9765,7 +9765,7 @@
         <v>13920834000167</v>
       </c>
       <c r="F158" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="G158" t="s">
         <v>5</v>
@@ -9788,7 +9788,7 @@
         <v>409627000109</v>
       </c>
       <c r="F159" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="G159" t="s">
         <v>5</v>
@@ -9831,7 +9831,7 @@
         <v>10591778000176</v>
       </c>
       <c r="F161" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="G161" t="s">
         <v>5</v>
@@ -9854,7 +9854,7 @@
         <v>37509433000187</v>
       </c>
       <c r="F162" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="G162" t="s">
         <v>5</v>
@@ -9877,7 +9877,7 @@
         <v>5751170000121</v>
       </c>
       <c r="F163" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="G163" t="s">
         <v>5</v>
@@ -9920,7 +9920,7 @@
         <v>16421973000134</v>
       </c>
       <c r="F165" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="G165" t="s">
         <v>5</v>
@@ -9943,7 +9943,7 @@
         <v>490237000106</v>
       </c>
       <c r="F166" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="G166" t="s">
         <v>5</v>
@@ -9966,7 +9966,7 @@
         <v>9596993000180</v>
       </c>
       <c r="F167" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="G167" t="s">
         <v>5</v>
@@ -9989,7 +9989,7 @@
         <v>12476438000120</v>
       </c>
       <c r="F168" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="G168" t="s">
         <v>5</v>
@@ -10012,7 +10012,7 @@
         <v>8201693000192</v>
       </c>
       <c r="F169" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="G169" t="s">
         <v>5</v>
@@ -10055,7 +10055,7 @@
         <v>4152901000150</v>
       </c>
       <c r="F171" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="G171" t="s">
         <v>5</v>
@@ -10078,7 +10078,7 @@
         <v>301320000181</v>
       </c>
       <c r="F172" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="G172" t="s">
         <v>5</v>
@@ -10101,13 +10101,13 @@
         <v>52923219000166</v>
       </c>
       <c r="F173" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G173" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>625</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>5261919000152</v>
       </c>
       <c r="F174" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="G174" t="s">
         <v>5</v>
@@ -10147,7 +10147,7 @@
         <v>9641277000178</v>
       </c>
       <c r="F175" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="G175" t="s">
         <v>5</v>
@@ -10170,7 +10170,7 @@
         <v>36363894000121</v>
       </c>
       <c r="F176" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="G176" t="s">
         <v>5</v>
@@ -10193,7 +10193,7 @@
         <v>3723940000105</v>
       </c>
       <c r="F177" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="G177" t="s">
         <v>5</v>
@@ -10216,7 +10216,7 @@
         <v>20147560000180</v>
       </c>
       <c r="F178" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="G178" t="s">
         <v>5</v>
@@ -10239,7 +10239,7 @@
         <v>33862392000157</v>
       </c>
       <c r="F179" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="G179" t="s">
         <v>5</v>
@@ -10262,7 +10262,7 @@
         <v>16962967000275</v>
       </c>
       <c r="F180" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="G180" t="s">
         <v>5</v>
@@ -10285,7 +10285,7 @@
         <v>12952479000145</v>
       </c>
       <c r="F181" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="G181" t="s">
         <v>5</v>
@@ -10308,7 +10308,7 @@
         <v>5422489000103</v>
       </c>
       <c r="F182" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="G182" t="s">
         <v>5</v>
@@ -10331,7 +10331,7 @@
         <v>51814747000114</v>
       </c>
       <c r="F183" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="G183" t="s">
         <v>5</v>
@@ -10414,7 +10414,7 @@
         <v>20229584000189</v>
       </c>
       <c r="F187" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="G187" t="s">
         <v>5</v>
@@ -10437,7 +10437,7 @@
         <v>5466057000102</v>
       </c>
       <c r="F188" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G188" t="s">
         <v>5</v>
@@ -10460,7 +10460,7 @@
         <v>31672462000189</v>
       </c>
       <c r="F189" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="G189" t="s">
         <v>5</v>
@@ -10503,7 +10503,7 @@
         <v>25213018000100</v>
       </c>
       <c r="F191" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="G191" t="s">
         <v>5</v>
@@ -10546,7 +10546,7 @@
         <v>21231876000119</v>
       </c>
       <c r="F193" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="G193" t="s">
         <v>5</v>
@@ -10589,7 +10589,7 @@
         <v>13724542000159</v>
       </c>
       <c r="F195" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="G195" t="s">
         <v>5</v>
@@ -10632,7 +10632,7 @@
         <v>22960534000100</v>
       </c>
       <c r="F197" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="G197" t="s">
         <v>5</v>
@@ -10655,7 +10655,7 @@
         <v>45304415000197</v>
       </c>
       <c r="F198" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="G198" t="s">
         <v>5</v>
@@ -10678,7 +10678,7 @@
         <v>2235010000131</v>
       </c>
       <c r="F199" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="G199" t="s">
         <v>5</v>
@@ -10721,7 +10721,7 @@
         <v>73000747000113</v>
       </c>
       <c r="F201" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G201" t="s">
         <v>5</v>
@@ -10764,7 +10764,7 @@
         <v>34895162000238</v>
       </c>
       <c r="F203" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G203" t="s">
         <v>5</v>
@@ -10787,7 +10787,7 @@
         <v>5857270000137</v>
       </c>
       <c r="F204" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="G204" t="s">
         <v>5</v>
@@ -10810,7 +10810,7 @@
         <v>8347720000130</v>
       </c>
       <c r="F205" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G205" t="s">
         <v>5</v>
@@ -10833,7 +10833,7 @@
         <v>34895162000157</v>
       </c>
       <c r="F206" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="G206" t="s">
         <v>5</v>
@@ -10856,7 +10856,7 @@
         <v>13083232000100</v>
       </c>
       <c r="F207" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G207" t="s">
         <v>5</v>
@@ -10879,7 +10879,7 @@
         <v>51243137000108</v>
       </c>
       <c r="F208" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="G208" t="s">
         <v>5</v>
@@ -10902,7 +10902,7 @@
         <v>11177273000122</v>
       </c>
       <c r="F209" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="G209" t="s">
         <v>5</v>
@@ -10925,7 +10925,7 @@
         <v>5005669000190</v>
       </c>
       <c r="F210" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="G210" t="s">
         <v>5</v>
@@ -10948,7 +10948,7 @@
         <v>992633000123</v>
       </c>
       <c r="F211" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="G211" t="s">
         <v>5</v>
@@ -10971,7 +10971,7 @@
         <v>34688698000100</v>
       </c>
       <c r="F212" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="G212" t="s">
         <v>5</v>
@@ -10994,7 +10994,7 @@
         <v>2227407000262</v>
       </c>
       <c r="F213" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G213" t="s">
         <v>5</v>
@@ -11017,7 +11017,7 @@
         <v>2227407000181</v>
       </c>
       <c r="F214" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G214" t="s">
         <v>5</v>
@@ -11040,7 +11040,7 @@
         <v>8754350000155</v>
       </c>
       <c r="F215" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="G215" t="s">
         <v>5</v>
@@ -11063,7 +11063,7 @@
         <v>635899000119</v>
       </c>
       <c r="F216" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="G216" t="s">
         <v>5</v>
@@ -11106,7 +11106,7 @@
         <v>42668535000185</v>
       </c>
       <c r="F218" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="G218" t="s">
         <v>5</v>
@@ -11129,7 +11129,7 @@
         <v>28466203000197</v>
       </c>
       <c r="F219" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="G219" t="s">
         <v>5</v>
@@ -11152,7 +11152,7 @@
         <v>33314929000144</v>
       </c>
       <c r="F220" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="G220" t="s">
         <v>5</v>
@@ -11175,7 +11175,7 @@
         <v>26287728000130</v>
       </c>
       <c r="F221" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="G221" t="s">
         <v>5</v>
@@ -11198,7 +11198,7 @@
         <v>25002155000198</v>
       </c>
       <c r="F222" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G222" t="s">
         <v>5</v>
@@ -11221,7 +11221,7 @@
         <v>10831048000103</v>
       </c>
       <c r="F223" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G223" t="s">
         <v>5</v>
@@ -11244,7 +11244,7 @@
         <v>5387081000148</v>
       </c>
       <c r="F224" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="G224" t="s">
         <v>5</v>
@@ -11267,7 +11267,7 @@
         <v>23838241000100</v>
       </c>
       <c r="F225" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="G225" t="s">
         <v>5</v>
@@ -11370,7 +11370,7 @@
         <v>23693676000103</v>
       </c>
       <c r="F230" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G230" t="s">
         <v>5</v>
@@ -11393,7 +11393,7 @@
         <v>2421276000179</v>
       </c>
       <c r="F231" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="G231" t="s">
         <v>5</v>
@@ -11416,7 +11416,7 @@
         <v>26383824000181</v>
       </c>
       <c r="F232" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="G232" t="s">
         <v>5</v>
@@ -11439,7 +11439,7 @@
         <v>26383824000181</v>
       </c>
       <c r="F233" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="G233" t="s">
         <v>5</v>
@@ -11462,7 +11462,7 @@
         <v>72140700000192</v>
       </c>
       <c r="F234" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="G234" t="s">
         <v>5</v>
@@ -11485,7 +11485,7 @@
         <v>23439693000119</v>
       </c>
       <c r="F235" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="G235" t="s">
         <v>5</v>
@@ -11508,7 +11508,7 @@
         <v>5951513000100</v>
       </c>
       <c r="F236" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="G236" t="s">
         <v>5</v>
@@ -11531,7 +11531,7 @@
         <v>10430184000183</v>
       </c>
       <c r="F237" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="G237" t="s">
         <v>5</v>
@@ -11554,7 +11554,7 @@
         <v>50792704000112</v>
       </c>
       <c r="F238" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="G238" t="s">
         <v>5</v>
@@ -11597,7 +11597,7 @@
         <v>97523370000145</v>
       </c>
       <c r="F240" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G240" t="s">
         <v>5</v>
@@ -11620,7 +11620,7 @@
         <v>8672838000133</v>
       </c>
       <c r="F241" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G241" t="s">
         <v>5</v>
@@ -11643,7 +11643,7 @@
         <v>69896439000140</v>
       </c>
       <c r="F242" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G242" t="s">
         <v>5</v>
@@ -11666,7 +11666,7 @@
         <v>35448810000190</v>
       </c>
       <c r="F243" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="G243" t="s">
         <v>5</v>
@@ -11689,7 +11689,7 @@
         <v>6737746000169</v>
       </c>
       <c r="F244" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="G244" t="s">
         <v>5</v>
@@ -11732,7 +11732,7 @@
         <v>7395381000102</v>
       </c>
       <c r="F246" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G246" t="s">
         <v>5</v>
@@ -11755,7 +11755,7 @@
         <v>32318603000122</v>
       </c>
       <c r="F247" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="G247" t="s">
         <v>5</v>
@@ -11778,7 +11778,7 @@
         <v>4497695000110</v>
       </c>
       <c r="F248" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="G248" t="s">
         <v>5</v>
@@ -11821,7 +11821,7 @@
         <v>4132552000104</v>
       </c>
       <c r="F250" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="G250" t="s">
         <v>5</v>
@@ -11864,7 +11864,7 @@
         <v>8281595000102</v>
       </c>
       <c r="F252" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="G252" t="s">
         <v>5</v>
@@ -11887,7 +11887,7 @@
         <v>51797678000188</v>
       </c>
       <c r="F253" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="G253" t="s">
         <v>5</v>
@@ -11910,7 +11910,7 @@
         <v>63216972000138</v>
       </c>
       <c r="F254" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="G254" t="s">
         <v>5</v>
@@ -11953,7 +11953,7 @@
         <v>19606829000160</v>
       </c>
       <c r="F256" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G256" t="s">
         <v>5</v>
@@ -12016,7 +12016,7 @@
         <v>5121569000129</v>
       </c>
       <c r="F259" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G259" t="s">
         <v>5</v>
@@ -12059,7 +12059,7 @@
         <v>41182015000103</v>
       </c>
       <c r="F261" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G261" t="s">
         <v>5</v>
@@ -12082,7 +12082,7 @@
         <v>79322343000122</v>
       </c>
       <c r="F262" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G262" t="s">
         <v>5</v>
@@ -12105,7 +12105,7 @@
         <v>30634685000199</v>
       </c>
       <c r="F263" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G263" t="s">
         <v>5</v>
@@ -12148,7 +12148,7 @@
         <v>15129921000126</v>
       </c>
       <c r="F265" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G265" t="s">
         <v>5</v>
@@ -12251,7 +12251,7 @@
         <v>1805095000264</v>
       </c>
       <c r="F270" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="G270" t="s">
         <v>5</v>
@@ -12274,7 +12274,7 @@
         <v>1805095000183</v>
       </c>
       <c r="F271" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G271" t="s">
         <v>5</v>
@@ -12297,7 +12297,7 @@
         <v>23901342000188</v>
       </c>
       <c r="F272" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="G272" t="s">
         <v>5</v>
@@ -12360,7 +12360,7 @@
         <v>4768001000131</v>
       </c>
       <c r="F275" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="G275" t="s">
         <v>5</v>
@@ -12383,7 +12383,7 @@
         <v>626497000158</v>
       </c>
       <c r="F276" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G276" t="s">
         <v>5</v>
@@ -12426,7 +12426,7 @@
         <v>29279335000172</v>
       </c>
       <c r="F278" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G278" t="s">
         <v>5</v>
@@ -12449,7 +12449,7 @@
         <v>8624001000119</v>
       </c>
       <c r="F279" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G279" t="s">
         <v>5</v>
@@ -12472,7 +12472,7 @@
         <v>21965924000100</v>
       </c>
       <c r="F280" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="G280" t="s">
         <v>5</v>
@@ -12515,7 +12515,7 @@
         <v>3342603000160</v>
       </c>
       <c r="F282" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="G282" t="s">
         <v>5</v>
@@ -12598,7 +12598,7 @@
         <v>78575156000198</v>
       </c>
       <c r="F286" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="G286" t="s">
         <v>5</v>
@@ -12641,7 +12641,7 @@
         <v>7764667000100</v>
       </c>
       <c r="F288" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="G288" t="s">
         <v>5</v>
@@ -12664,7 +12664,7 @@
         <v>31304911000136</v>
       </c>
       <c r="F289" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="G289" t="s">
         <v>5</v>
@@ -12707,7 +12707,7 @@
         <v>11535923000164</v>
       </c>
       <c r="F291" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="G291" t="s">
         <v>5</v>
@@ -12730,7 +12730,7 @@
         <v>7086651000195</v>
       </c>
       <c r="F292" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="G292" t="s">
         <v>5</v>
@@ -12753,7 +12753,7 @@
         <v>44580130000116</v>
       </c>
       <c r="F293" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="G293" t="s">
         <v>5</v>
@@ -12776,7 +12776,7 @@
         <v>26383369000114</v>
       </c>
       <c r="F294" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="G294" t="s">
         <v>5</v>
@@ -12799,7 +12799,7 @@
         <v>430222000144</v>
       </c>
       <c r="F295" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G295" t="s">
         <v>5</v>
@@ -12862,7 +12862,7 @@
         <v>28849342000108</v>
       </c>
       <c r="F298" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="G298" t="s">
         <v>5</v>
@@ -12925,7 +12925,7 @@
         <v>23141033000157</v>
       </c>
       <c r="F301" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="G301" t="s">
         <v>5</v>
@@ -13008,7 +13008,7 @@
         <v>76591718000161</v>
       </c>
       <c r="F305" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="G305" t="s">
         <v>5</v>
@@ -13031,7 +13031,7 @@
         <v>28968311000168</v>
       </c>
       <c r="F306" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="G306" t="s">
         <v>5</v>
@@ -13074,7 +13074,7 @@
         <v>45366200000109</v>
       </c>
       <c r="F308" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G308" t="s">
         <v>5</v>
@@ -13097,7 +13097,7 @@
         <v>33789058000115</v>
       </c>
       <c r="F309" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G309" t="s">
         <v>5</v>
@@ -13140,7 +13140,7 @@
         <v>44449709000144</v>
       </c>
       <c r="F311" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="G311" t="s">
         <v>5</v>
@@ -13163,7 +13163,7 @@
         <v>80810484000173</v>
       </c>
       <c r="F312" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G312" t="s">
         <v>5</v>
@@ -13186,7 +13186,7 @@
         <v>45344021000162</v>
       </c>
       <c r="F313" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G313" t="s">
         <v>5</v>
@@ -13209,7 +13209,7 @@
         <v>8174971000160</v>
       </c>
       <c r="F314" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G314" t="s">
         <v>5</v>
@@ -13252,7 +13252,7 @@
         <v>3603595005801</v>
       </c>
       <c r="F316" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G316" t="s">
         <v>5</v>
@@ -13275,7 +13275,7 @@
         <v>3603595001130</v>
       </c>
       <c r="F317" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G317" t="s">
         <v>5</v>
@@ -13298,7 +13298,7 @@
         <v>3603595001644</v>
       </c>
       <c r="F318" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G318" t="s">
         <v>5</v>
@@ -13321,7 +13321,7 @@
         <v>3603595001806</v>
       </c>
       <c r="F319" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="G319" t="s">
         <v>5</v>
@@ -13344,7 +13344,7 @@
         <v>3603595000834</v>
       </c>
       <c r="F320" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="G320" t="s">
         <v>5</v>
@@ -13367,7 +13367,7 @@
         <v>3603595003930</v>
       </c>
       <c r="F321" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="G321" t="s">
         <v>5</v>
@@ -13390,7 +13390,7 @@
         <v>3603595000168</v>
       </c>
       <c r="F322" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="G322" t="s">
         <v>5</v>
@@ -13413,7 +13413,7 @@
         <v>3603595001300</v>
       </c>
       <c r="F323" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G323" t="s">
         <v>5</v>
@@ -13436,7 +13436,7 @@
         <v>3603595002020</v>
       </c>
       <c r="F324" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="G324" t="s">
         <v>5</v>
@@ -13459,7 +13459,7 @@
         <v>3603595001997</v>
       </c>
       <c r="F325" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="G325" t="s">
         <v>5</v>
@@ -13482,7 +13482,7 @@
         <v>3603595001482</v>
       </c>
       <c r="F326" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G326" t="s">
         <v>5</v>
@@ -13505,7 +13505,7 @@
         <v>3603595005470</v>
       </c>
       <c r="F327" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="G327" t="s">
         <v>5</v>
@@ -13528,7 +13528,7 @@
         <v>3603595001210</v>
       </c>
       <c r="F328" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="G328" t="s">
         <v>5</v>
@@ -13551,7 +13551,7 @@
         <v>3603595006956</v>
       </c>
       <c r="F329" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G329" t="s">
         <v>5</v>
@@ -13574,7 +13574,7 @@
         <v>3603595004740</v>
       </c>
       <c r="F330" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G330" t="s">
         <v>5</v>
@@ -13597,7 +13597,7 @@
         <v>3603595001725</v>
       </c>
       <c r="F331" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G331" t="s">
         <v>5</v>
@@ -13620,7 +13620,7 @@
         <v>15336255000288</v>
       </c>
       <c r="F332" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="G332" t="s">
         <v>5</v>
@@ -13643,7 +13643,7 @@
         <v>26364541000192</v>
       </c>
       <c r="F333" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="G333" t="s">
         <v>5</v>
@@ -13686,7 +13686,7 @@
         <v>325607000141</v>
       </c>
       <c r="F335" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G335" t="s">
         <v>5</v>
@@ -13709,7 +13709,7 @@
         <v>4149320000169</v>
       </c>
       <c r="F336" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G336" t="s">
         <v>5</v>
@@ -13732,7 +13732,7 @@
         <v>5659581000191</v>
       </c>
       <c r="F337" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="G337" t="s">
         <v>5</v>
@@ -13755,7 +13755,7 @@
         <v>1238496000107</v>
       </c>
       <c r="F338" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G338" t="s">
         <v>5</v>
@@ -13778,7 +13778,7 @@
         <v>10489592000100</v>
       </c>
       <c r="F339" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="G339" t="s">
         <v>5</v>
@@ -13801,7 +13801,7 @@
         <v>10489592000291</v>
       </c>
       <c r="F340" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="G340" t="s">
         <v>5</v>
@@ -13824,7 +13824,7 @@
         <v>5276177000139</v>
       </c>
       <c r="F341" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="G341" t="s">
         <v>5</v>
@@ -13847,7 +13847,7 @@
         <v>2156364000190</v>
       </c>
       <c r="F342" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G342" t="s">
         <v>5</v>
@@ -13870,7 +13870,7 @@
         <v>15013642000100</v>
       </c>
       <c r="F343" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="G343" t="s">
         <v>5</v>
@@ -13893,7 +13893,7 @@
         <v>8627306000184</v>
       </c>
       <c r="F344" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="G344" t="s">
         <v>5</v>
@@ -13916,7 +13916,7 @@
         <v>9309337000150</v>
       </c>
       <c r="F345" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="G345" t="s">
         <v>5</v>
@@ -13939,7 +13939,7 @@
         <v>26859540000119</v>
       </c>
       <c r="F346" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G346" t="s">
         <v>5</v>
@@ -13962,7 +13962,7 @@
         <v>10497017000150</v>
       </c>
       <c r="F347" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="G347" t="s">
         <v>5</v>
@@ -14005,7 +14005,7 @@
         <v>3847116000159</v>
       </c>
       <c r="F349" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="G349" t="s">
         <v>5</v>
@@ -14068,7 +14068,7 @@
         <v>7371069000170</v>
       </c>
       <c r="F352" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="G352" t="s">
         <v>5</v>
@@ -14091,7 +14091,7 @@
         <v>24242477000222</v>
       </c>
       <c r="F353" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="G353" t="s">
         <v>5</v>
@@ -14114,7 +14114,7 @@
         <v>46433716000183</v>
       </c>
       <c r="F354" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="G354" t="s">
         <v>5</v>
@@ -14157,7 +14157,7 @@
         <v>50904622000112</v>
       </c>
       <c r="F356" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="G356" t="s">
         <v>5</v>
@@ -14180,7 +14180,7 @@
         <v>42514768000123</v>
       </c>
       <c r="F357" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="G357" t="s">
         <v>5</v>
@@ -14223,7 +14223,7 @@
         <v>48012250000178</v>
       </c>
       <c r="F359" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="G359" t="s">
         <v>5</v>
@@ -14286,7 +14286,7 @@
         <v>56012628005988</v>
       </c>
       <c r="F362" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="G362" t="s">
         <v>5</v>
@@ -14309,7 +14309,7 @@
         <v>56012628004078</v>
       </c>
       <c r="F363" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="G363" t="s">
         <v>5</v>
@@ -14332,7 +14332,7 @@
         <v>22267948000221</v>
       </c>
       <c r="F364" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="G364" t="s">
         <v>5</v>
@@ -14395,7 +14395,7 @@
         <v>17419223000190</v>
       </c>
       <c r="F367" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="G367" t="s">
         <v>5</v>
@@ -14418,7 +14418,7 @@
         <v>2143737000199</v>
       </c>
       <c r="F368" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="G368" t="s">
         <v>5</v>
@@ -14461,7 +14461,7 @@
         <v>8295787000178</v>
       </c>
       <c r="F370" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="G370" t="s">
         <v>5</v>
@@ -14544,7 +14544,7 @@
         <v>7355118000181</v>
       </c>
       <c r="F374" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="G374" t="s">
         <v>5</v>
@@ -14627,7 +14627,7 @@
         <v>29293897000170</v>
       </c>
       <c r="F378" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="G378" t="s">
         <v>5</v>
@@ -14670,7 +14670,7 @@
         <v>31149654000105</v>
       </c>
       <c r="F380" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="G380" t="s">
         <v>5</v>
@@ -14753,7 +14753,7 @@
         <v>4615618000117</v>
       </c>
       <c r="F384" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="G384" t="s">
         <v>5</v>
@@ -14796,7 +14796,7 @@
         <v>36290708000171</v>
       </c>
       <c r="F386" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="G386" t="s">
         <v>5</v>
@@ -14839,7 +14839,7 @@
         <v>43085266000197</v>
       </c>
       <c r="F388" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="G388" t="s">
         <v>5</v>
@@ -14862,7 +14862,7 @@
         <v>35113727000160</v>
       </c>
       <c r="F389" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="G389" t="s">
         <v>5</v>
@@ -14885,7 +14885,7 @@
         <v>34146282000402</v>
       </c>
       <c r="F390" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="G390" t="s">
         <v>5</v>
@@ -14908,7 +14908,7 @@
         <v>56012628006011</v>
       </c>
       <c r="F391" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G391" t="s">
         <v>5</v>
@@ -14931,7 +14931,7 @@
         <v>3603739002391</v>
       </c>
       <c r="F392" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="G392" t="s">
         <v>5</v>
@@ -14954,7 +14954,7 @@
         <v>3603739001239</v>
       </c>
       <c r="F393" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G393" t="s">
         <v>5</v>
@@ -14997,7 +14997,7 @@
         <v>3603739002200</v>
       </c>
       <c r="F395" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="G395" t="s">
         <v>5</v>
@@ -15040,7 +15040,7 @@
         <v>3603739002634</v>
       </c>
       <c r="F397" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="G397" t="s">
         <v>5</v>
@@ -15143,7 +15143,7 @@
         <v>26589534000199</v>
       </c>
       <c r="F402" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="G402" t="s">
         <v>5</v>
@@ -15166,7 +15166,7 @@
         <v>40595864000118</v>
       </c>
       <c r="F403" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="G403" t="s">
         <v>5</v>
@@ -15209,7 +15209,7 @@
         <v>23141033000319</v>
       </c>
       <c r="F405" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="G405" t="s">
         <v>5</v>
@@ -15232,7 +15232,7 @@
         <v>70394507000152</v>
       </c>
       <c r="F406" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="G406" t="s">
         <v>5</v>
@@ -15255,7 +15255,7 @@
         <v>24675488000115</v>
       </c>
       <c r="F407" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="G407" t="s">
         <v>5</v>
@@ -15278,7 +15278,7 @@
         <v>70050406000164</v>
       </c>
       <c r="F408" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="G408" t="s">
         <v>5</v>
@@ -15301,7 +15301,7 @@
         <v>9079021000119</v>
       </c>
       <c r="F409" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="G409" t="s">
         <v>5</v>
@@ -15324,7 +15324,7 @@
         <v>84714682000194</v>
       </c>
       <c r="F410" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="G410" t="s">
         <v>5</v>
@@ -15347,7 +15347,7 @@
         <v>23624360000240</v>
       </c>
       <c r="F411" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="G411" t="s">
         <v>5</v>
@@ -15390,7 +15390,7 @@
         <v>56012628005805</v>
       </c>
       <c r="F413" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G413" t="s">
         <v>29</v>
@@ -15413,7 +15413,7 @@
         <v>33268567000445</v>
       </c>
       <c r="F414" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="G414" t="s">
         <v>29</v>
@@ -15436,7 +15436,7 @@
         <v>56012628003772</v>
       </c>
       <c r="F415" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="G415" t="s">
         <v>29</v>
@@ -15459,7 +15459,7 @@
         <v>7549613000121</v>
       </c>
       <c r="F416" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="G416" t="s">
         <v>29</v>
@@ -15482,7 +15482,7 @@
         <v>7549613000202</v>
       </c>
       <c r="F417" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G417" t="s">
         <v>29</v>
@@ -15505,7 +15505,7 @@
         <v>7549613000474</v>
       </c>
       <c r="F418" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="G418" t="s">
         <v>29</v>
@@ -15528,7 +15528,7 @@
         <v>30298376000276</v>
       </c>
       <c r="F419" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="G419" t="s">
         <v>29</v>
@@ -15574,7 +15574,7 @@
         <v>56012628003500</v>
       </c>
       <c r="F421" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G421" t="s">
         <v>29</v>
@@ -15657,7 +15657,7 @@
         <v>33268567001840</v>
       </c>
       <c r="F425" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="G425" t="s">
         <v>29</v>
@@ -15680,7 +15680,7 @@
         <v>33268567001760</v>
       </c>
       <c r="F426" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="G426" t="s">
         <v>29</v>
@@ -15703,7 +15703,7 @@
         <v>33268567001689</v>
       </c>
       <c r="F427" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="G427" t="s">
         <v>29</v>
@@ -15746,7 +15746,7 @@
         <v>56012628004906</v>
       </c>
       <c r="F429" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="G429" t="s">
         <v>29</v>
@@ -15769,7 +15769,7 @@
         <v>56012628005473</v>
       </c>
       <c r="F430" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="G430" t="s">
         <v>29</v>
@@ -15812,7 +15812,7 @@
         <v>56012628005392</v>
       </c>
       <c r="F432" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="G432" t="s">
         <v>29</v>
@@ -15835,7 +15835,7 @@
         <v>56012628004825</v>
       </c>
       <c r="F433" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="G433" t="s">
         <v>29</v>
@@ -15858,7 +15858,7 @@
         <v>56012628005120</v>
       </c>
       <c r="F434" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="G434" t="s">
         <v>29</v>
@@ -15881,7 +15881,7 @@
         <v>56012628005554</v>
       </c>
       <c r="F435" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="G435" t="s">
         <v>29</v>
@@ -15904,7 +15904,7 @@
         <v>33268567001417</v>
       </c>
       <c r="F436" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="G436" t="s">
         <v>29</v>
@@ -15927,7 +15927,7 @@
         <v>33268567001506</v>
       </c>
       <c r="F437" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="G437" t="s">
         <v>29</v>
@@ -15950,7 +15950,7 @@
         <v>5857215000732</v>
       </c>
       <c r="F438" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="G438" t="s">
         <v>29</v>
@@ -15973,7 +15973,7 @@
         <v>4200833000157</v>
       </c>
       <c r="F439" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="G439" t="s">
         <v>29</v>
@@ -15996,7 +15996,7 @@
         <v>10870228000196</v>
       </c>
       <c r="F440" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="G440" t="s">
         <v>29</v>
@@ -16019,7 +16019,7 @@
         <v>23567572000152</v>
       </c>
       <c r="F441" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G441" t="s">
         <v>29</v>
@@ -16042,7 +16042,7 @@
         <v>21255704000185</v>
       </c>
       <c r="F442" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G442" t="s">
         <v>29</v>
@@ -16065,7 +16065,7 @@
         <v>21255704000347</v>
       </c>
       <c r="F443" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G443" t="s">
         <v>29</v>
@@ -16088,7 +16088,7 @@
         <v>47154834000115</v>
       </c>
       <c r="F444" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="G444" t="s">
         <v>29</v>
@@ -16111,7 +16111,7 @@
         <v>21255704000690</v>
       </c>
       <c r="F445" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="G445" t="s">
         <v>29</v>
@@ -16134,7 +16134,7 @@
         <v>47768602000157</v>
       </c>
       <c r="F446" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G446" t="s">
         <v>29</v>
@@ -16157,7 +16157,7 @@
         <v>33618984000390</v>
       </c>
       <c r="F447" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G447" t="s">
         <v>29</v>
@@ -16180,7 +16180,7 @@
         <v>5857215000813</v>
       </c>
       <c r="F448" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G448" t="s">
         <v>29</v>
@@ -16203,7 +16203,7 @@
         <v>56012628001800</v>
       </c>
       <c r="F449" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="G449" t="s">
         <v>29</v>
@@ -16226,7 +16226,7 @@
         <v>22776342000130</v>
       </c>
       <c r="F450" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G450" t="s">
         <v>29</v>
@@ -16249,7 +16249,7 @@
         <v>56012628004078</v>
       </c>
       <c r="F451" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="G451" t="s">
         <v>29</v>
@@ -16272,7 +16272,7 @@
         <v>33268567001336</v>
       </c>
       <c r="F452" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G452" t="s">
         <v>29</v>
@@ -16295,7 +16295,7 @@
         <v>56012628004663</v>
       </c>
       <c r="F453" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="G453" t="s">
         <v>29</v>
@@ -16318,7 +16318,7 @@
         <v>56012628002296</v>
       </c>
       <c r="F454" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G454" t="s">
         <v>29</v>
@@ -16341,7 +16341,7 @@
         <v>33268567001174</v>
       </c>
       <c r="F455" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G455" t="s">
         <v>29</v>
@@ -16364,7 +16364,7 @@
         <v>76031368000189</v>
       </c>
       <c r="F456" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="G456" t="s">
         <v>29</v>
@@ -16387,7 +16387,7 @@
         <v>76031368000502</v>
       </c>
       <c r="F457" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="G457" t="s">
         <v>29</v>
@@ -16410,7 +16410,7 @@
         <v>76031368000774</v>
       </c>
       <c r="F458" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="G458" t="s">
         <v>29</v>
@@ -16433,7 +16433,7 @@
         <v>76031368000936</v>
       </c>
       <c r="F459" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="G459" t="s">
         <v>29</v>
@@ -16456,7 +16456,7 @@
         <v>76031368000421</v>
       </c>
       <c r="F460" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="G460" t="s">
         <v>29</v>
@@ -16499,7 +16499,7 @@
         <v>33268567001093</v>
       </c>
       <c r="F462" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="G462" t="s">
         <v>29</v>
@@ -16522,7 +16522,7 @@
         <v>56012628002105</v>
       </c>
       <c r="F463" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="G463" t="s">
         <v>29</v>
@@ -16545,7 +16545,7 @@
         <v>33268567000364</v>
       </c>
       <c r="F464" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="G464" t="s">
         <v>29</v>
@@ -16568,7 +16568,7 @@
         <v>56012628001729</v>
       </c>
       <c r="F465" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="G465" t="s">
         <v>29</v>
@@ -16591,7 +16591,7 @@
         <v>56012628000757</v>
       </c>
       <c r="F466" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="G466" t="s">
         <v>29</v>
@@ -16614,7 +16614,7 @@
         <v>33268567000879</v>
       </c>
       <c r="F467" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="G467" t="s">
         <v>29</v>
@@ -16637,7 +16637,7 @@
         <v>56012628001214</v>
       </c>
       <c r="F468" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="G468" t="s">
         <v>29</v>
@@ -16660,7 +16660,7 @@
         <v>56012628003268</v>
       </c>
       <c r="F469" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="G469" t="s">
         <v>29</v>
@@ -16683,7 +16683,7 @@
         <v>56012628003349</v>
       </c>
       <c r="F470" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G470" t="s">
         <v>29</v>
@@ -16706,7 +16706,7 @@
         <v>56012628005716</v>
       </c>
       <c r="F471" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="G471" t="s">
         <v>29</v>
@@ -16729,7 +16729,7 @@
         <v>56012628003187</v>
       </c>
       <c r="F472" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="G472" t="s">
         <v>29</v>
@@ -16752,7 +16752,7 @@
         <v>33268567000950</v>
       </c>
       <c r="F473" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="G473" t="s">
         <v>29</v>
@@ -16795,7 +16795,7 @@
         <v>33268567000283</v>
       </c>
       <c r="F475" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="G475" t="s">
         <v>29</v>
@@ -16818,7 +16818,7 @@
         <v>15236367000186</v>
       </c>
       <c r="F476" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="G476" t="s">
         <v>29</v>
@@ -16841,7 +16841,7 @@
         <v>15236367001077</v>
       </c>
       <c r="F477" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="G477" t="s">
         <v>29</v>
@@ -16864,7 +16864,7 @@
         <v>15236367001158</v>
       </c>
       <c r="F478" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="G478" t="s">
         <v>29</v>
@@ -16887,7 +16887,7 @@
         <v>15236367001310</v>
       </c>
       <c r="F479" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="G479" t="s">
         <v>29</v>
@@ -16910,7 +16910,7 @@
         <v>15236367001239</v>
       </c>
       <c r="F480" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="G480" t="s">
         <v>29</v>
@@ -16933,7 +16933,7 @@
         <v>5857215000309</v>
       </c>
       <c r="F481" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="G481" t="s">
         <v>29</v>
@@ -16956,7 +16956,7 @@
         <v>5857215000147</v>
       </c>
       <c r="F482" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="G482" t="s">
         <v>29</v>
@@ -16979,7 +16979,7 @@
         <v>56012628002539</v>
       </c>
       <c r="F483" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="G483" t="s">
         <v>29</v>
@@ -17002,7 +17002,7 @@
         <v>56012628002610</v>
       </c>
       <c r="F484" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="G484" t="s">
         <v>29</v>
@@ -17025,7 +17025,7 @@
         <v>33268567001255</v>
       </c>
       <c r="F485" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="G485" t="s">
         <v>29</v>
@@ -17048,7 +17048,7 @@
         <v>23141033000238</v>
       </c>
       <c r="F486" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="G486" t="s">
         <v>29</v>
@@ -17111,7 +17111,7 @@
         <v>72133820000162</v>
       </c>
       <c r="F489" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G489" t="s">
         <v>11</v>
@@ -17134,7 +17134,7 @@
         <v>43254428000173</v>
       </c>
       <c r="F490" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="G490" t="s">
         <v>11</v>
@@ -17177,7 +17177,7 @@
         <v>12839628000164</v>
       </c>
       <c r="F492" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="G492" t="s">
         <v>11</v>
@@ -17200,7 +17200,7 @@
         <v>38079209000165</v>
       </c>
       <c r="F493" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="G493" t="s">
         <v>11</v>
@@ -17243,7 +17243,7 @@
         <v>46718836000127</v>
       </c>
       <c r="F495" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G495" t="s">
         <v>11</v>
@@ -17266,7 +17266,7 @@
         <v>36214347000184</v>
       </c>
       <c r="F496" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G496" t="s">
         <v>11</v>
@@ -17289,7 +17289,7 @@
         <v>15047591000120</v>
       </c>
       <c r="F497" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="G497" t="s">
         <v>11</v>
@@ -17332,7 +17332,7 @@
         <v>3506577000168</v>
       </c>
       <c r="F499" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="G499" t="s">
         <v>11</v>
@@ -17355,7 +17355,7 @@
         <v>29271264000161</v>
       </c>
       <c r="F500" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="G500" t="s">
         <v>11</v>
@@ -17398,7 +17398,7 @@
         <v>7394984000181</v>
       </c>
       <c r="F502" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="G502" t="s">
         <v>11</v>
@@ -17421,7 +17421,7 @@
         <v>24648653000140</v>
       </c>
       <c r="F503" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="G503" t="s">
         <v>11</v>
@@ -17444,7 +17444,7 @@
         <v>11230668000141</v>
       </c>
       <c r="F504" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G504" s="1" t="s">
         <v>11</v>
@@ -17467,7 +17467,7 @@
         <v>10352769000122</v>
       </c>
       <c r="F505" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="G505" s="1" t="s">
         <v>11</v>
@@ -17490,7 +17490,7 @@
         <v>51868453000175</v>
       </c>
       <c r="F506" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="G506" s="1" t="s">
         <v>11</v>
@@ -17513,7 +17513,7 @@
         <v>26083559000116</v>
       </c>
       <c r="F507" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="G507" t="s">
         <v>11</v>
@@ -17536,7 +17536,7 @@
         <v>10203179000138</v>
       </c>
       <c r="F508" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="G508" t="s">
         <v>11</v>
@@ -17559,7 +17559,7 @@
         <v>80105182000102</v>
       </c>
       <c r="F509" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="G509" t="s">
         <v>11</v>
@@ -17622,13 +17622,13 @@
         <v>20736476000100</v>
       </c>
       <c r="F512" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="G512" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1198</v>
       </c>
@@ -17636,7 +17636,7 @@
         <v>1199</v>
       </c>
       <c r="C513" t="s">
-        <v>1550</v>
+        <v>1937</v>
       </c>
       <c r="D513" t="s">
         <v>1202</v>
@@ -17645,7 +17645,7 @@
         <v>34214923000168</v>
       </c>
       <c r="F513" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G513" t="s">
         <v>11</v>
@@ -17668,7 +17668,7 @@
         <v>28849342000795</v>
       </c>
       <c r="F514" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="G514" s="1" t="s">
         <v>11</v>
@@ -17682,7 +17682,7 @@
         <v>1231</v>
       </c>
       <c r="C515" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D515" t="s">
         <v>1234</v>
@@ -17691,7 +17691,7 @@
         <v>52356323000116</v>
       </c>
       <c r="F515" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="G515" t="s">
         <v>11</v>
@@ -17705,7 +17705,7 @@
         <v>1341</v>
       </c>
       <c r="C516" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D516" t="s">
         <v>1342</v>
@@ -17717,7 +17717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>625</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>627</v>
       </c>
       <c r="D517" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E517">
         <v>32031159000160</v>
@@ -17737,7 +17737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1309</v>
       </c>
@@ -17745,10 +17745,10 @@
         <v>1310</v>
       </c>
       <c r="C518" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D518" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E518">
         <v>47259678000157</v>
@@ -17769,10 +17769,10 @@
     <row r="528" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="529" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:G516" xr:uid="{97A73577-28F2-45CA-9131-49B03B93C073}">
+  <autoFilter ref="A1:G518" xr:uid="{97A73577-28F2-45CA-9131-49B03B93C073}">
     <filterColumn colId="3">
       <filters>
-        <filter val="COLÉGIO MUNDO DA CRIANÇA"/>
+        <filter val="SUPER COMÉRCIO DE MATERIAL LTDA"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/input/escolas_lex.xlsx
+++ b/input/escolas_lex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrerodrigues\projetos\licencas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA597076-E02D-4D65-8CA9-6CA7AF9628B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535638A7-185D-49A1-853F-2CABB087ACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC585FA0-F66A-44AE-9546-6CB0DAE100F9}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="1938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="1940">
   <si>
     <t>SchoolType</t>
   </si>
@@ -5861,6 +5861,12 @@
   </si>
   <si>
     <t>ba4feb1f-b9cd-483c-a0b6-08644f2877b0</t>
+  </si>
+  <si>
+    <t>F1D6AE23-1E7F-48F2-87D8-8A0C65382F3E</t>
+  </si>
+  <si>
+    <t>COLÉGIO GENOMA - TEIXEIRA DE FREITAS</t>
   </si>
 </sst>
 </file>
@@ -5934,9 +5940,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5974,7 +5980,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6080,7 +6086,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6222,7 +6228,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6230,11 +6236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A73577-28F2-45CA-9131-49B03B93C073}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G529"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C534" sqref="C534"/>
+    <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
+      <selection activeCell="E523" sqref="E523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6271,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1499</v>
       </c>
@@ -6291,7 +6296,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6314,7 +6319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6337,7 +6342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -6360,7 +6365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6383,7 +6388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -6406,7 +6411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -6429,7 +6434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -6452,7 +6457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -6475,7 +6480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -6498,7 +6503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -6521,7 +6526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -6541,7 +6546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -6564,7 +6569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -6587,7 +6592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -6610,7 +6615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -6633,7 +6638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -6656,7 +6661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -6679,7 +6684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -6702,7 +6707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -6725,7 +6730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -6748,7 +6753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -6771,7 +6776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -6794,7 +6799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -6817,7 +6822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -6840,7 +6845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -6863,7 +6868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -6886,7 +6891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -6909,7 +6914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -6932,7 +6937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -6955,7 +6960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>133</v>
       </c>
@@ -6978,7 +6983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -7001,7 +7006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>140</v>
       </c>
@@ -7021,7 +7026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -7044,7 +7049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -7067,7 +7072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -7087,7 +7092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>157</v>
       </c>
@@ -7110,7 +7115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -7130,7 +7135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>165</v>
       </c>
@@ -7153,7 +7158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>168</v>
       </c>
@@ -7176,7 +7181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>171</v>
       </c>
@@ -7196,7 +7201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>174</v>
       </c>
@@ -7219,7 +7224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>179</v>
       </c>
@@ -7242,7 +7247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>182</v>
       </c>
@@ -7262,7 +7267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>185</v>
       </c>
@@ -7285,7 +7290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -7305,7 +7310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>195</v>
       </c>
@@ -7325,7 +7330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>198</v>
       </c>
@@ -7348,7 +7353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>201</v>
       </c>
@@ -7368,7 +7373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -7388,7 +7393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -7411,7 +7416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>211</v>
       </c>
@@ -7431,7 +7436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>215</v>
       </c>
@@ -7454,7 +7459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>218</v>
       </c>
@@ -7477,7 +7482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -7500,7 +7505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>225</v>
       </c>
@@ -7520,7 +7525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>228</v>
       </c>
@@ -7543,7 +7548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -7566,7 +7571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>235</v>
       </c>
@@ -7589,7 +7594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>238</v>
       </c>
@@ -7612,7 +7617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>241</v>
       </c>
@@ -7635,7 +7640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>244</v>
       </c>
@@ -7658,7 +7663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>247</v>
       </c>
@@ -7681,7 +7686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -7704,7 +7709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>281</v>
       </c>
@@ -7727,7 +7732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>284</v>
       </c>
@@ -7750,7 +7755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -7773,7 +7778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>291</v>
       </c>
@@ -7796,7 +7801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -7816,7 +7821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>297</v>
       </c>
@@ -7836,7 +7841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>300</v>
       </c>
@@ -7856,7 +7861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>304</v>
       </c>
@@ -7879,7 +7884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>307</v>
       </c>
@@ -7902,7 +7907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>310</v>
       </c>
@@ -7922,7 +7927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>313</v>
       </c>
@@ -7945,7 +7950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>317</v>
       </c>
@@ -7965,7 +7970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>320</v>
       </c>
@@ -7985,7 +7990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>323</v>
       </c>
@@ -8005,7 +8010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>326</v>
       </c>
@@ -8028,7 +8033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>329</v>
       </c>
@@ -8051,7 +8056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>332</v>
       </c>
@@ -8074,7 +8079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>335</v>
       </c>
@@ -8094,7 +8099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>338</v>
       </c>
@@ -8114,7 +8119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>341</v>
       </c>
@@ -8137,7 +8142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>345</v>
       </c>
@@ -8160,7 +8165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>348</v>
       </c>
@@ -8183,7 +8188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>352</v>
       </c>
@@ -8206,7 +8211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>355</v>
       </c>
@@ -8229,7 +8234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>359</v>
       </c>
@@ -8252,7 +8257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>362</v>
       </c>
@@ -8275,7 +8280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>365</v>
       </c>
@@ -8298,7 +8303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>369</v>
       </c>
@@ -8321,7 +8326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>372</v>
       </c>
@@ -8341,7 +8346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>376</v>
       </c>
@@ -8364,7 +8369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>380</v>
       </c>
@@ -8384,7 +8389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>383</v>
       </c>
@@ -8407,7 +8412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>383</v>
       </c>
@@ -8430,7 +8435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>388</v>
       </c>
@@ -8453,7 +8458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>391</v>
       </c>
@@ -8476,7 +8481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>394</v>
       </c>
@@ -8499,7 +8504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>397</v>
       </c>
@@ -8522,7 +8527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>400</v>
       </c>
@@ -8542,7 +8547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>404</v>
       </c>
@@ -8565,7 +8570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>408</v>
       </c>
@@ -8588,7 +8593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>411</v>
       </c>
@@ -8608,7 +8613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>414</v>
       </c>
@@ -8631,7 +8636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>417</v>
       </c>
@@ -8654,7 +8659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>421</v>
       </c>
@@ -8677,7 +8682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>424</v>
       </c>
@@ -8700,7 +8705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>424</v>
       </c>
@@ -8723,7 +8728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>436</v>
       </c>
@@ -8746,7 +8751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>436</v>
       </c>
@@ -8769,7 +8774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>442</v>
       </c>
@@ -8789,7 +8794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>446</v>
       </c>
@@ -8812,7 +8817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>449</v>
       </c>
@@ -8835,7 +8840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>452</v>
       </c>
@@ -8855,7 +8860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>455</v>
       </c>
@@ -8878,7 +8883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>455</v>
       </c>
@@ -8901,7 +8906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>455</v>
       </c>
@@ -8924,7 +8929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>462</v>
       </c>
@@ -8944,7 +8949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>465</v>
       </c>
@@ -8967,7 +8972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>468</v>
       </c>
@@ -8990,7 +8995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>471</v>
       </c>
@@ -9013,7 +9018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>474</v>
       </c>
@@ -9036,7 +9041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>477</v>
       </c>
@@ -9059,7 +9064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>480</v>
       </c>
@@ -9079,7 +9084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>484</v>
       </c>
@@ -9102,7 +9107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>488</v>
       </c>
@@ -9125,7 +9130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>488</v>
       </c>
@@ -9148,7 +9153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>488</v>
       </c>
@@ -9171,7 +9176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>488</v>
       </c>
@@ -9194,7 +9199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>488</v>
       </c>
@@ -9217,7 +9222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>488</v>
       </c>
@@ -9240,7 +9245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>502</v>
       </c>
@@ -9260,7 +9265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>505</v>
       </c>
@@ -9283,7 +9288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>508</v>
       </c>
@@ -9306,7 +9311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>508</v>
       </c>
@@ -9329,7 +9334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>513</v>
       </c>
@@ -9352,7 +9357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>517</v>
       </c>
@@ -9375,7 +9380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>520</v>
       </c>
@@ -9395,7 +9400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>523</v>
       </c>
@@ -9415,7 +9420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>526</v>
       </c>
@@ -9435,7 +9440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>529</v>
       </c>
@@ -9458,7 +9463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>532</v>
       </c>
@@ -9481,7 +9486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>535</v>
       </c>
@@ -9504,7 +9509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>538</v>
       </c>
@@ -9527,7 +9532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>538</v>
       </c>
@@ -9550,7 +9555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>544</v>
       </c>
@@ -9573,7 +9578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>547</v>
       </c>
@@ -9593,7 +9598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>551</v>
       </c>
@@ -9616,7 +9621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>554</v>
       </c>
@@ -9636,7 +9641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>558</v>
       </c>
@@ -9659,7 +9664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>561</v>
       </c>
@@ -9682,7 +9687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>564</v>
       </c>
@@ -9702,7 +9707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>567</v>
       </c>
@@ -9725,7 +9730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>570</v>
       </c>
@@ -9748,7 +9753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>573</v>
       </c>
@@ -9771,7 +9776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>576</v>
       </c>
@@ -9794,7 +9799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>579</v>
       </c>
@@ -9814,7 +9819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>582</v>
       </c>
@@ -9837,7 +9842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>585</v>
       </c>
@@ -9860,7 +9865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>589</v>
       </c>
@@ -9883,7 +9888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>593</v>
       </c>
@@ -9903,7 +9908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>596</v>
       </c>
@@ -9926,7 +9931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>600</v>
       </c>
@@ -9949,7 +9954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>603</v>
       </c>
@@ -9972,7 +9977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>606</v>
       </c>
@@ -9995,7 +10000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>609</v>
       </c>
@@ -10018,7 +10023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>612</v>
       </c>
@@ -10038,7 +10043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>615</v>
       </c>
@@ -10061,7 +10066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>615</v>
       </c>
@@ -10084,7 +10089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>621</v>
       </c>
@@ -10107,7 +10112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>625</v>
       </c>
@@ -10130,7 +10135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>628</v>
       </c>
@@ -10153,7 +10158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>628</v>
       </c>
@@ -10176,7 +10181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>634</v>
       </c>
@@ -10199,7 +10204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>637</v>
       </c>
@@ -10222,7 +10227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>640</v>
       </c>
@@ -10245,7 +10250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>643</v>
       </c>
@@ -10268,7 +10273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>646</v>
       </c>
@@ -10291,7 +10296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>649</v>
       </c>
@@ -10314,7 +10319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>649</v>
       </c>
@@ -10337,7 +10342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>655</v>
       </c>
@@ -10357,7 +10362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>658</v>
       </c>
@@ -10377,7 +10382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>661</v>
       </c>
@@ -10397,7 +10402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>664</v>
       </c>
@@ -10420,7 +10425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>667</v>
       </c>
@@ -10443,7 +10448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>671</v>
       </c>
@@ -10466,7 +10471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>675</v>
       </c>
@@ -10486,7 +10491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>678</v>
       </c>
@@ -10509,7 +10514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>681</v>
       </c>
@@ -10529,7 +10534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>686</v>
       </c>
@@ -10552,7 +10557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>689</v>
       </c>
@@ -10572,7 +10577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>692</v>
       </c>
@@ -10595,7 +10600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>696</v>
       </c>
@@ -10615,7 +10620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>699</v>
       </c>
@@ -10638,7 +10643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>702</v>
       </c>
@@ -10661,7 +10666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>702</v>
       </c>
@@ -10684,7 +10689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>708</v>
       </c>
@@ -10704,7 +10709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>711</v>
       </c>
@@ -10727,7 +10732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>714</v>
       </c>
@@ -10747,7 +10752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>719</v>
       </c>
@@ -10770,7 +10775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>719</v>
       </c>
@@ -10793,7 +10798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>719</v>
       </c>
@@ -10816,7 +10821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>719</v>
       </c>
@@ -10839,7 +10844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>731</v>
       </c>
@@ -10862,7 +10867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>731</v>
       </c>
@@ -10885,7 +10890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>737</v>
       </c>
@@ -10908,7 +10913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>740</v>
       </c>
@@ -10931,7 +10936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>743</v>
       </c>
@@ -10954,7 +10959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>746</v>
       </c>
@@ -10977,7 +10982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>749</v>
       </c>
@@ -11000,7 +11005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>749</v>
       </c>
@@ -11023,7 +11028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>761</v>
       </c>
@@ -11046,7 +11051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>764</v>
       </c>
@@ -11069,7 +11074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>764</v>
       </c>
@@ -11089,7 +11094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>769</v>
       </c>
@@ -11112,7 +11117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>772</v>
       </c>
@@ -11135,7 +11140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>774</v>
       </c>
@@ -11158,7 +11163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>777</v>
       </c>
@@ -11181,7 +11186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>780</v>
       </c>
@@ -11204,7 +11209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>783</v>
       </c>
@@ -11227,7 +11232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>786</v>
       </c>
@@ -11250,7 +11255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>789</v>
       </c>
@@ -11273,7 +11278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>792</v>
       </c>
@@ -11293,7 +11298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>796</v>
       </c>
@@ -11313,7 +11318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>800</v>
       </c>
@@ -11333,7 +11338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>804</v>
       </c>
@@ -11353,7 +11358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>808</v>
       </c>
@@ -11376,7 +11381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>812</v>
       </c>
@@ -11399,7 +11404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>815</v>
       </c>
@@ -11422,7 +11427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>815</v>
       </c>
@@ -11445,7 +11450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>831</v>
       </c>
@@ -11468,7 +11473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>834</v>
       </c>
@@ -11491,7 +11496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>837</v>
       </c>
@@ -11514,7 +11519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>840</v>
       </c>
@@ -11537,7 +11542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>843</v>
       </c>
@@ -11560,7 +11565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>846</v>
       </c>
@@ -11580,7 +11585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>849</v>
       </c>
@@ -11603,7 +11608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>852</v>
       </c>
@@ -11626,7 +11631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>860</v>
       </c>
@@ -11649,7 +11654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>863</v>
       </c>
@@ -11672,7 +11677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>866</v>
       </c>
@@ -11695,7 +11700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>869</v>
       </c>
@@ -11715,7 +11720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>872</v>
       </c>
@@ -11738,7 +11743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>875</v>
       </c>
@@ -11761,7 +11766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>879</v>
       </c>
@@ -11784,7 +11789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>883</v>
       </c>
@@ -11804,7 +11809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>886</v>
       </c>
@@ -11827,7 +11832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>889</v>
       </c>
@@ -11847,7 +11852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>893</v>
       </c>
@@ -11870,7 +11875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>897</v>
       </c>
@@ -11893,7 +11898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>900</v>
       </c>
@@ -11916,7 +11921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>903</v>
       </c>
@@ -11936,7 +11941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>906</v>
       </c>
@@ -11959,7 +11964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>909</v>
       </c>
@@ -11979,7 +11984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>913</v>
       </c>
@@ -11999,7 +12004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>916</v>
       </c>
@@ -12022,7 +12027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>919</v>
       </c>
@@ -12042,7 +12047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>923</v>
       </c>
@@ -12065,7 +12070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>926</v>
       </c>
@@ -12088,7 +12093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>929</v>
       </c>
@@ -12111,7 +12116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>932</v>
       </c>
@@ -12131,7 +12136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>935</v>
       </c>
@@ -12154,7 +12159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>939</v>
       </c>
@@ -12174,7 +12179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>942</v>
       </c>
@@ -12194,7 +12199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>945</v>
       </c>
@@ -12214,7 +12219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>948</v>
       </c>
@@ -12234,7 +12239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>951</v>
       </c>
@@ -12257,7 +12262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>954</v>
       </c>
@@ -12280,7 +12285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>957</v>
       </c>
@@ -12303,7 +12308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>960</v>
       </c>
@@ -12323,7 +12328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>963</v>
       </c>
@@ -12343,7 +12348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>967</v>
       </c>
@@ -12366,7 +12371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>970</v>
       </c>
@@ -12389,7 +12394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>973</v>
       </c>
@@ -12409,7 +12414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>976</v>
       </c>
@@ -12432,7 +12437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>979</v>
       </c>
@@ -12455,7 +12460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>983</v>
       </c>
@@ -12478,7 +12483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>987</v>
       </c>
@@ -12498,7 +12503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>991</v>
       </c>
@@ -12521,7 +12526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>994</v>
       </c>
@@ -12541,7 +12546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>997</v>
       </c>
@@ -12561,7 +12566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1000</v>
       </c>
@@ -12581,7 +12586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1003</v>
       </c>
@@ -12604,7 +12609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1006</v>
       </c>
@@ -12624,7 +12629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1009</v>
       </c>
@@ -12647,7 +12652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1013</v>
       </c>
@@ -12670,7 +12675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1016</v>
       </c>
@@ -12690,7 +12695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1020</v>
       </c>
@@ -12713,7 +12718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1034</v>
       </c>
@@ -12736,7 +12741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1040</v>
       </c>
@@ -12759,7 +12764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1043</v>
       </c>
@@ -12782,7 +12787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1046</v>
       </c>
@@ -12805,7 +12810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1049</v>
       </c>
@@ -12825,7 +12830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1049</v>
       </c>
@@ -12845,7 +12850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1049</v>
       </c>
@@ -12868,7 +12873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1049</v>
       </c>
@@ -12888,7 +12893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1049</v>
       </c>
@@ -12908,7 +12913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1061</v>
       </c>
@@ -12931,7 +12936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1064</v>
       </c>
@@ -12951,7 +12956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1067</v>
       </c>
@@ -12971,7 +12976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1070</v>
       </c>
@@ -12991,7 +12996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1073</v>
       </c>
@@ -13014,7 +13019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1077</v>
       </c>
@@ -13037,7 +13042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1081</v>
       </c>
@@ -13057,7 +13062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1084</v>
       </c>
@@ -13080,7 +13085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1087</v>
       </c>
@@ -13103,7 +13108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1090</v>
       </c>
@@ -13123,7 +13128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1093</v>
       </c>
@@ -13146,7 +13151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1097</v>
       </c>
@@ -13169,7 +13174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1100</v>
       </c>
@@ -13192,7 +13197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1103</v>
       </c>
@@ -13215,7 +13220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1106</v>
       </c>
@@ -13235,7 +13240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1110</v>
       </c>
@@ -13258,7 +13263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1110</v>
       </c>
@@ -13281,7 +13286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1110</v>
       </c>
@@ -13304,7 +13309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1110</v>
       </c>
@@ -13327,7 +13332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1110</v>
       </c>
@@ -13350,7 +13355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1110</v>
       </c>
@@ -13373,7 +13378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1110</v>
       </c>
@@ -13396,7 +13401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1110</v>
       </c>
@@ -13419,7 +13424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1110</v>
       </c>
@@ -13442,7 +13447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1110</v>
       </c>
@@ -13465,7 +13470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1110</v>
       </c>
@@ -13488,7 +13493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1110</v>
       </c>
@@ -13511,7 +13516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1110</v>
       </c>
@@ -13534,7 +13539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1110</v>
       </c>
@@ -13557,7 +13562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1110</v>
       </c>
@@ -13580,7 +13585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1110</v>
       </c>
@@ -13603,7 +13608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1144</v>
       </c>
@@ -13626,7 +13631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1147</v>
       </c>
@@ -13649,7 +13654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1150</v>
       </c>
@@ -13669,7 +13674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1153</v>
       </c>
@@ -13692,7 +13697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1157</v>
       </c>
@@ -13715,7 +13720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1160</v>
       </c>
@@ -13738,7 +13743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1163</v>
       </c>
@@ -13761,7 +13766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1166</v>
       </c>
@@ -13784,7 +13789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1166</v>
       </c>
@@ -13807,7 +13812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1172</v>
       </c>
@@ -13830,7 +13835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1176</v>
       </c>
@@ -13853,7 +13858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1179</v>
       </c>
@@ -13876,7 +13881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1182</v>
       </c>
@@ -13899,7 +13904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1186</v>
       </c>
@@ -13922,7 +13927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1192</v>
       </c>
@@ -13945,7 +13950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1195</v>
       </c>
@@ -13968,7 +13973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1198</v>
       </c>
@@ -13988,7 +13993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1203</v>
       </c>
@@ -14011,7 +14016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1207</v>
       </c>
@@ -14031,7 +14036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1210</v>
       </c>
@@ -14051,7 +14056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1213</v>
       </c>
@@ -14074,7 +14079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1217</v>
       </c>
@@ -14097,7 +14102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1220</v>
       </c>
@@ -14120,7 +14125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1226</v>
       </c>
@@ -14140,7 +14145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1230</v>
       </c>
@@ -14163,7 +14168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1235</v>
       </c>
@@ -14186,7 +14191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1238</v>
       </c>
@@ -14206,7 +14211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1242</v>
       </c>
@@ -14229,7 +14234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1245</v>
       </c>
@@ -14249,7 +14254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1248</v>
       </c>
@@ -14269,7 +14274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1252</v>
       </c>
@@ -14292,7 +14297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1252</v>
       </c>
@@ -14315,7 +14320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1259</v>
       </c>
@@ -14338,7 +14343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1261</v>
       </c>
@@ -14358,7 +14363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1264</v>
       </c>
@@ -14378,7 +14383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1267</v>
       </c>
@@ -14401,7 +14406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1271</v>
       </c>
@@ -14424,7 +14429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1274</v>
       </c>
@@ -14444,7 +14449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1277</v>
       </c>
@@ -14467,7 +14472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1280</v>
       </c>
@@ -14487,7 +14492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1283</v>
       </c>
@@ -14507,7 +14512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1287</v>
       </c>
@@ -14527,7 +14532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1291</v>
       </c>
@@ -14550,7 +14555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1295</v>
       </c>
@@ -14570,7 +14575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1299</v>
       </c>
@@ -14590,7 +14595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1303</v>
       </c>
@@ -14610,7 +14615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1306</v>
       </c>
@@ -14633,7 +14638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1312</v>
       </c>
@@ -14653,7 +14658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1315</v>
       </c>
@@ -14676,7 +14681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1318</v>
       </c>
@@ -14696,7 +14701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1318</v>
       </c>
@@ -14716,7 +14721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1318</v>
       </c>
@@ -14736,7 +14741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1326</v>
       </c>
@@ -14759,7 +14764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1330</v>
       </c>
@@ -14779,7 +14784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1334</v>
       </c>
@@ -14802,7 +14807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1337</v>
       </c>
@@ -14822,7 +14827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1340</v>
       </c>
@@ -14845,7 +14850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1344</v>
       </c>
@@ -14868,7 +14873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1347</v>
       </c>
@@ -14891,7 +14896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1404</v>
       </c>
@@ -14914,7 +14919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1450</v>
       </c>
@@ -14937,7 +14942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1454</v>
       </c>
@@ -14960,7 +14965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1458</v>
       </c>
@@ -14980,7 +14985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1462</v>
       </c>
@@ -15003,7 +15008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1466</v>
       </c>
@@ -15023,7 +15028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1469</v>
       </c>
@@ -15046,7 +15051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1472</v>
       </c>
@@ -15066,7 +15071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1475</v>
       </c>
@@ -15086,7 +15091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1479</v>
       </c>
@@ -15106,7 +15111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1483</v>
       </c>
@@ -15126,7 +15131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1486</v>
       </c>
@@ -15149,7 +15154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1489</v>
       </c>
@@ -15172,7 +15177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1493</v>
       </c>
@@ -15192,7 +15197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1496</v>
       </c>
@@ -15215,7 +15220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1506</v>
       </c>
@@ -15238,7 +15243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1510</v>
       </c>
@@ -15261,7 +15266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1513</v>
       </c>
@@ -15284,7 +15289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1516</v>
       </c>
@@ -15307,7 +15312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1519</v>
       </c>
@@ -15330,7 +15335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1522</v>
       </c>
@@ -15353,7 +15358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1525</v>
       </c>
@@ -15373,7 +15378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>25</v>
       </c>
@@ -15396,7 +15401,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>25</v>
       </c>
@@ -15419,7 +15424,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>35</v>
       </c>
@@ -15442,7 +15447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>42</v>
       </c>
@@ -15465,7 +15470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>46</v>
       </c>
@@ -15488,7 +15493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>49</v>
       </c>
@@ -15511,7 +15516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>52</v>
       </c>
@@ -15534,7 +15539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>55</v>
       </c>
@@ -15557,7 +15562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>73</v>
       </c>
@@ -15580,7 +15585,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>146</v>
       </c>
@@ -15600,7 +15605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>188</v>
       </c>
@@ -15620,7 +15625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>188</v>
       </c>
@@ -15640,7 +15645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>253</v>
       </c>
@@ -15663,7 +15668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>253</v>
       </c>
@@ -15686,7 +15691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>253</v>
       </c>
@@ -15709,7 +15714,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>253</v>
       </c>
@@ -15729,7 +15734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>253</v>
       </c>
@@ -15752,7 +15757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>253</v>
       </c>
@@ -15775,7 +15780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>253</v>
       </c>
@@ -15795,7 +15800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>253</v>
       </c>
@@ -15818,7 +15823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>253</v>
       </c>
@@ -15841,7 +15846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>253</v>
       </c>
@@ -15864,7 +15869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>253</v>
       </c>
@@ -15887,7 +15892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>253</v>
       </c>
@@ -15910,7 +15915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>253</v>
       </c>
@@ -15933,7 +15938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>430</v>
       </c>
@@ -15956,7 +15961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>433</v>
       </c>
@@ -15979,7 +15984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>755</v>
       </c>
@@ -16002,7 +16007,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>758</v>
       </c>
@@ -16025,7 +16030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>820</v>
       </c>
@@ -16048,7 +16053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>823</v>
       </c>
@@ -16071,7 +16076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>823</v>
       </c>
@@ -16094,7 +16099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>828</v>
       </c>
@@ -16117,7 +16122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1025</v>
       </c>
@@ -16140,7 +16145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1028</v>
       </c>
@@ -16163,7 +16168,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1028</v>
       </c>
@@ -16186,7 +16191,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1037</v>
       </c>
@@ -16209,7 +16214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1189</v>
       </c>
@@ -16232,7 +16237,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1309</v>
       </c>
@@ -16255,7 +16260,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1350</v>
       </c>
@@ -16278,7 +16283,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1350</v>
       </c>
@@ -16301,7 +16306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1356</v>
       </c>
@@ -16324,7 +16329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1356</v>
       </c>
@@ -16347,7 +16352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1362</v>
       </c>
@@ -16370,7 +16375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1362</v>
       </c>
@@ -16393,7 +16398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1368</v>
       </c>
@@ -16416,7 +16421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1368</v>
       </c>
@@ -16439,7 +16444,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1373</v>
       </c>
@@ -16462,7 +16467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1376</v>
       </c>
@@ -16482,7 +16487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1379</v>
       </c>
@@ -16505,7 +16510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1383</v>
       </c>
@@ -16528,7 +16533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1383</v>
       </c>
@@ -16551,7 +16556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1389</v>
       </c>
@@ -16574,7 +16579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1389</v>
       </c>
@@ -16597,7 +16602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1389</v>
       </c>
@@ -16620,7 +16625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1389</v>
       </c>
@@ -16643,7 +16648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1397</v>
       </c>
@@ -16666,7 +16671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1401</v>
       </c>
@@ -16689,7 +16694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1404</v>
       </c>
@@ -16712,7 +16717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1409</v>
       </c>
@@ -16735,7 +16740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1412</v>
       </c>
@@ -16758,7 +16763,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1416</v>
       </c>
@@ -16778,7 +16783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1416</v>
       </c>
@@ -16801,7 +16806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1421</v>
       </c>
@@ -16824,7 +16829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1424</v>
       </c>
@@ -16847,7 +16852,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1427</v>
       </c>
@@ -16870,7 +16875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1427</v>
       </c>
@@ -16893,7 +16898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1433</v>
       </c>
@@ -16916,7 +16921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1436</v>
       </c>
@@ -16939,7 +16944,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1436</v>
       </c>
@@ -16962,7 +16967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1442</v>
       </c>
@@ -16985,7 +16990,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1445</v>
       </c>
@@ -17008,7 +17013,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1445</v>
       </c>
@@ -17031,7 +17036,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1503</v>
       </c>
@@ -17054,7 +17059,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>6</v>
       </c>
@@ -17074,7 +17079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>62</v>
       </c>
@@ -17094,7 +17099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>69</v>
       </c>
@@ -17117,7 +17122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>161</v>
       </c>
@@ -17140,7 +17145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>174</v>
       </c>
@@ -17160,7 +17165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>211</v>
       </c>
@@ -17183,7 +17188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>300</v>
       </c>
@@ -17206,7 +17211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>348</v>
       </c>
@@ -17226,7 +17231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>355</v>
       </c>
@@ -17249,7 +17254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>372</v>
       </c>
@@ -17272,7 +17277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>442</v>
       </c>
@@ -17295,7 +17300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>484</v>
       </c>
@@ -17315,7 +17320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>513</v>
       </c>
@@ -17338,7 +17343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>554</v>
       </c>
@@ -17361,7 +17366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>596</v>
       </c>
@@ -17381,7 +17386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>667</v>
       </c>
@@ -17404,7 +17409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>681</v>
       </c>
@@ -17427,7 +17432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>714</v>
       </c>
@@ -17450,7 +17455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>719</v>
       </c>
@@ -17473,7 +17478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>856</v>
       </c>
@@ -17496,7 +17501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>987</v>
       </c>
@@ -17519,7 +17524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1009</v>
       </c>
@@ -17542,7 +17547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1073</v>
       </c>
@@ -17565,7 +17570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1077</v>
       </c>
@@ -17585,7 +17590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1153</v>
       </c>
@@ -17605,7 +17610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1182</v>
       </c>
@@ -17651,7 +17656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>1223</v>
       </c>
@@ -17674,7 +17679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1230</v>
       </c>
@@ -17697,7 +17702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1340</v>
       </c>
@@ -17717,7 +17722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>625</v>
       </c>
@@ -17737,7 +17742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1309</v>
       </c>
@@ -17757,7 +17762,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>488</v>
+      </c>
+      <c r="B519" t="s">
+        <v>489</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E519">
+        <v>48069924000502</v>
+      </c>
+      <c r="G519" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="520" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="521" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="522" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17769,13 +17793,7 @@
     <row r="528" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="529" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:G518" xr:uid="{97A73577-28F2-45CA-9131-49B03B93C073}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="SUPER COMÉRCIO DE MATERIAL LTDA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G518" xr:uid="{97A73577-28F2-45CA-9131-49B03B93C073}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/input/escolas_lex.xlsx
+++ b/input/escolas_lex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrerodrigues\projetos\licencas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535638A7-185D-49A1-853F-2CABB087ACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E42A588-74B3-4204-ABBE-FF8541DD88F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC585FA0-F66A-44AE-9546-6CB0DAE100F9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BASE" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE!$A$1:$G$518</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="1940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="1945">
   <si>
     <t>SchoolType</t>
   </si>
@@ -5867,6 +5867,21 @@
   </si>
   <si>
     <t>COLÉGIO GENOMA - TEIXEIRA DE FREITAS</t>
+  </si>
+  <si>
+    <t>1E592F4C-454B-437D-9B8D-BCDE254ABDDF</t>
+  </si>
+  <si>
+    <t>SEB BRASÍLIA - PEDIDOS</t>
+  </si>
+  <si>
+    <t>DF594FB3-12FB-47D6-A54C-86E37A2D00E7</t>
+  </si>
+  <si>
+    <t>SEB BRASÍLIA - PEDIDOS II</t>
+  </si>
+  <si>
+    <t>SEB BRASÍLIA</t>
   </si>
 </sst>
 </file>
@@ -5940,9 +5955,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5980,7 +5995,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6086,7 +6101,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6228,7 +6243,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6236,10 +6251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A73577-28F2-45CA-9131-49B03B93C073}">
-  <dimension ref="A1:G529"/>
+  <dimension ref="A1:G527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
-      <selection activeCell="E523" sqref="E523"/>
+    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
+      <selection activeCell="B514" sqref="B514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17782,18 +17797,73 @@
         <v>5</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E520">
+        <v>33268567002146</v>
+      </c>
+      <c r="G520" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E521">
+        <v>33268567002227</v>
+      </c>
+      <c r="G521" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>247</v>
+      </c>
+      <c r="B522" t="s">
+        <v>248</v>
+      </c>
+      <c r="C522" t="s">
+        <v>249</v>
+      </c>
+      <c r="D522" t="s">
+        <v>248</v>
+      </c>
+      <c r="E522">
+        <v>21232694000162</v>
+      </c>
+      <c r="G522" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="523" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="524" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="525" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="526" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="527" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:G518" xr:uid="{97A73577-28F2-45CA-9131-49B03B93C073}"/>
+  <autoFilter ref="A1:G1" xr:uid="{97A73577-28F2-45CA-9131-49B03B93C073}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/input/escolas_lex.xlsx
+++ b/input/escolas_lex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrerodrigues\projetos\licencas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E42A588-74B3-4204-ABBE-FF8541DD88F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4A2C5E-5062-4C8B-9A43-7FF8F87922C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC585FA0-F66A-44AE-9546-6CB0DAE100F9}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="1945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="1946">
   <si>
     <t>SchoolType</t>
   </si>
@@ -5882,6 +5882,9 @@
   </si>
   <si>
     <t>SEB BRASÍLIA</t>
+  </si>
+  <si>
+    <t>EDUCANDARIO DOM HELDER</t>
   </si>
 </sst>
 </file>
@@ -5955,9 +5958,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5995,7 +5998,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6101,7 +6104,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6243,7 +6246,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6253,8 +6256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A73577-28F2-45CA-9131-49B03B93C073}">
   <dimension ref="A1:G527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="B514" sqref="B514"/>
+    <sheetView tabSelected="1" topLeftCell="B498" workbookViewId="0">
+      <selection activeCell="G524" sqref="G524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17857,7 +17860,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>863</v>
+      </c>
+      <c r="B523" t="s">
+        <v>864</v>
+      </c>
+      <c r="C523" t="s">
+        <v>865</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E523">
+        <v>35448810000190</v>
+      </c>
+      <c r="G523" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="524" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="525" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="526" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/input/escolas_lex.xlsx
+++ b/input/escolas_lex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrerodrigues\projetos\licencas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4A2C5E-5062-4C8B-9A43-7FF8F87922C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919449AA-D2DD-4BE7-8256-FC7E099FE2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC585FA0-F66A-44AE-9546-6CB0DAE100F9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BASE" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE!$A$1:$G$522</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="1945">
   <si>
     <t>SchoolType</t>
   </si>
@@ -5882,9 +5882,6 @@
   </si>
   <si>
     <t>SEB BRASÍLIA</t>
-  </si>
-  <si>
-    <t>EDUCANDARIO DOM HELDER</t>
   </si>
 </sst>
 </file>
@@ -6254,10 +6251,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A73577-28F2-45CA-9131-49B03B93C073}">
-  <dimension ref="A1:G527"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B498" workbookViewId="0">
-      <selection activeCell="G524" sqref="G524"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B523" sqref="A523:XFD523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6294,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1499</v>
       </c>
@@ -6314,7 +6312,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6337,7 +6335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6360,7 +6358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -6383,7 +6381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6406,7 +6404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -6429,7 +6427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -6452,7 +6450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -6475,7 +6473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -6498,7 +6496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -6521,7 +6519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -6544,7 +6542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -6564,7 +6562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -6587,7 +6585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -6610,7 +6608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -6633,7 +6631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -6656,7 +6654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -6679,7 +6677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -6702,7 +6700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -6725,7 +6723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -6748,7 +6746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -6771,7 +6769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -6794,7 +6792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -6817,7 +6815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -6840,7 +6838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -6863,7 +6861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -6886,7 +6884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -6909,7 +6907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -6932,7 +6930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -6955,7 +6953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -6978,7 +6976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>133</v>
       </c>
@@ -7001,7 +6999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -7024,7 +7022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>140</v>
       </c>
@@ -7044,7 +7042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -7067,7 +7065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -7090,7 +7088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -7110,7 +7108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>157</v>
       </c>
@@ -7133,7 +7131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -7153,7 +7151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>165</v>
       </c>
@@ -7176,7 +7174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>168</v>
       </c>
@@ -7199,7 +7197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>171</v>
       </c>
@@ -7219,7 +7217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>174</v>
       </c>
@@ -7242,7 +7240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>179</v>
       </c>
@@ -7265,7 +7263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>182</v>
       </c>
@@ -7285,7 +7283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>185</v>
       </c>
@@ -7308,7 +7306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -7328,7 +7326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>195</v>
       </c>
@@ -7348,7 +7346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>198</v>
       </c>
@@ -7371,7 +7369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>201</v>
       </c>
@@ -7391,7 +7389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -7411,7 +7409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -7434,7 +7432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>211</v>
       </c>
@@ -7454,7 +7452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>215</v>
       </c>
@@ -7477,7 +7475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>218</v>
       </c>
@@ -7500,7 +7498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -7523,7 +7521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>225</v>
       </c>
@@ -7543,7 +7541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>228</v>
       </c>
@@ -7566,7 +7564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -7589,7 +7587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>235</v>
       </c>
@@ -7612,7 +7610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>238</v>
       </c>
@@ -7635,7 +7633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>241</v>
       </c>
@@ -7658,7 +7656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>244</v>
       </c>
@@ -7681,7 +7679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>247</v>
       </c>
@@ -7704,7 +7702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -7727,7 +7725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>281</v>
       </c>
@@ -7750,7 +7748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>284</v>
       </c>
@@ -7773,7 +7771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -7796,7 +7794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>291</v>
       </c>
@@ -7819,7 +7817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -7839,7 +7837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>297</v>
       </c>
@@ -7859,7 +7857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>300</v>
       </c>
@@ -7879,7 +7877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>304</v>
       </c>
@@ -7902,7 +7900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>307</v>
       </c>
@@ -7925,7 +7923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>310</v>
       </c>
@@ -7945,7 +7943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>313</v>
       </c>
@@ -7968,7 +7966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>317</v>
       </c>
@@ -7988,7 +7986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>320</v>
       </c>
@@ -8008,7 +8006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>323</v>
       </c>
@@ -8028,7 +8026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>326</v>
       </c>
@@ -8051,7 +8049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>329</v>
       </c>
@@ -8074,7 +8072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>332</v>
       </c>
@@ -8097,7 +8095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>335</v>
       </c>
@@ -8117,7 +8115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>338</v>
       </c>
@@ -8137,7 +8135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>341</v>
       </c>
@@ -8160,7 +8158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>345</v>
       </c>
@@ -8183,7 +8181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>348</v>
       </c>
@@ -8206,7 +8204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>352</v>
       </c>
@@ -8229,7 +8227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>355</v>
       </c>
@@ -8252,7 +8250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>359</v>
       </c>
@@ -8275,7 +8273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>362</v>
       </c>
@@ -8298,7 +8296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>365</v>
       </c>
@@ -8321,7 +8319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>369</v>
       </c>
@@ -8344,7 +8342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>372</v>
       </c>
@@ -8364,7 +8362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>376</v>
       </c>
@@ -8387,7 +8385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>380</v>
       </c>
@@ -8407,7 +8405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>383</v>
       </c>
@@ -8430,7 +8428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>383</v>
       </c>
@@ -8453,7 +8451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>388</v>
       </c>
@@ -8476,7 +8474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>391</v>
       </c>
@@ -8499,7 +8497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>394</v>
       </c>
@@ -8522,7 +8520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>397</v>
       </c>
@@ -8545,7 +8543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>400</v>
       </c>
@@ -8565,7 +8563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>404</v>
       </c>
@@ -8588,7 +8586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>408</v>
       </c>
@@ -8611,7 +8609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>411</v>
       </c>
@@ -8631,7 +8629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>414</v>
       </c>
@@ -8654,7 +8652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>417</v>
       </c>
@@ -8677,7 +8675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>421</v>
       </c>
@@ -8700,7 +8698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>424</v>
       </c>
@@ -8723,7 +8721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>424</v>
       </c>
@@ -8746,7 +8744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>436</v>
       </c>
@@ -8769,7 +8767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>436</v>
       </c>
@@ -8792,7 +8790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>442</v>
       </c>
@@ -8812,7 +8810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>446</v>
       </c>
@@ -8835,7 +8833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>449</v>
       </c>
@@ -8858,7 +8856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>452</v>
       </c>
@@ -8878,7 +8876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>455</v>
       </c>
@@ -8901,7 +8899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>455</v>
       </c>
@@ -8924,7 +8922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>455</v>
       </c>
@@ -8947,7 +8945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>462</v>
       </c>
@@ -8967,7 +8965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>465</v>
       </c>
@@ -8990,7 +8988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>468</v>
       </c>
@@ -9013,7 +9011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>471</v>
       </c>
@@ -9036,7 +9034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>474</v>
       </c>
@@ -9059,7 +9057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>477</v>
       </c>
@@ -9082,7 +9080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>480</v>
       </c>
@@ -9102,7 +9100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>484</v>
       </c>
@@ -9125,7 +9123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>488</v>
       </c>
@@ -9148,7 +9146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>488</v>
       </c>
@@ -9171,7 +9169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>488</v>
       </c>
@@ -9194,7 +9192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>488</v>
       </c>
@@ -9217,7 +9215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>488</v>
       </c>
@@ -9240,7 +9238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>488</v>
       </c>
@@ -9263,7 +9261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>502</v>
       </c>
@@ -9283,7 +9281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>505</v>
       </c>
@@ -9306,7 +9304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>508</v>
       </c>
@@ -9329,7 +9327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>508</v>
       </c>
@@ -9352,7 +9350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>513</v>
       </c>
@@ -9375,7 +9373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>517</v>
       </c>
@@ -9398,7 +9396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>520</v>
       </c>
@@ -9418,7 +9416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>523</v>
       </c>
@@ -9438,7 +9436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>526</v>
       </c>
@@ -9458,7 +9456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>529</v>
       </c>
@@ -9481,7 +9479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>532</v>
       </c>
@@ -9504,7 +9502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>535</v>
       </c>
@@ -9527,7 +9525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>538</v>
       </c>
@@ -9550,7 +9548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>538</v>
       </c>
@@ -9573,7 +9571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>544</v>
       </c>
@@ -9596,7 +9594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>547</v>
       </c>
@@ -9616,7 +9614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>551</v>
       </c>
@@ -9639,7 +9637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>554</v>
       </c>
@@ -9659,7 +9657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>558</v>
       </c>
@@ -9682,7 +9680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>561</v>
       </c>
@@ -9705,7 +9703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>564</v>
       </c>
@@ -9725,7 +9723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>567</v>
       </c>
@@ -9748,7 +9746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>570</v>
       </c>
@@ -9771,7 +9769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>573</v>
       </c>
@@ -9794,7 +9792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>576</v>
       </c>
@@ -9817,7 +9815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>579</v>
       </c>
@@ -9837,7 +9835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>582</v>
       </c>
@@ -9860,7 +9858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>585</v>
       </c>
@@ -9883,7 +9881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>589</v>
       </c>
@@ -9906,7 +9904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>593</v>
       </c>
@@ -9926,7 +9924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>596</v>
       </c>
@@ -9949,7 +9947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>600</v>
       </c>
@@ -9972,7 +9970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>603</v>
       </c>
@@ -9995,7 +9993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>606</v>
       </c>
@@ -10018,7 +10016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>609</v>
       </c>
@@ -10041,7 +10039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>612</v>
       </c>
@@ -10061,7 +10059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>615</v>
       </c>
@@ -10084,7 +10082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>615</v>
       </c>
@@ -10107,7 +10105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>621</v>
       </c>
@@ -10130,7 +10128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>625</v>
       </c>
@@ -10153,7 +10151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>628</v>
       </c>
@@ -10176,7 +10174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>628</v>
       </c>
@@ -10199,7 +10197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>634</v>
       </c>
@@ -10222,7 +10220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>637</v>
       </c>
@@ -10245,7 +10243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>640</v>
       </c>
@@ -10268,7 +10266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>643</v>
       </c>
@@ -10291,7 +10289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>646</v>
       </c>
@@ -10314,7 +10312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>649</v>
       </c>
@@ -10337,7 +10335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>649</v>
       </c>
@@ -10360,7 +10358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>655</v>
       </c>
@@ -10380,7 +10378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>658</v>
       </c>
@@ -10400,7 +10398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>661</v>
       </c>
@@ -10420,7 +10418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>664</v>
       </c>
@@ -10443,7 +10441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>667</v>
       </c>
@@ -10466,7 +10464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>671</v>
       </c>
@@ -10489,7 +10487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>675</v>
       </c>
@@ -10509,7 +10507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>678</v>
       </c>
@@ -10532,7 +10530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>681</v>
       </c>
@@ -10552,7 +10550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>686</v>
       </c>
@@ -10575,7 +10573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>689</v>
       </c>
@@ -10595,7 +10593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>692</v>
       </c>
@@ -10618,7 +10616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>696</v>
       </c>
@@ -10638,7 +10636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>699</v>
       </c>
@@ -10661,7 +10659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>702</v>
       </c>
@@ -10684,7 +10682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>702</v>
       </c>
@@ -10707,7 +10705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>708</v>
       </c>
@@ -10727,7 +10725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>711</v>
       </c>
@@ -10750,7 +10748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>714</v>
       </c>
@@ -10770,7 +10768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>719</v>
       </c>
@@ -10793,7 +10791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>719</v>
       </c>
@@ -10816,7 +10814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>719</v>
       </c>
@@ -10839,7 +10837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>719</v>
       </c>
@@ -10862,7 +10860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>731</v>
       </c>
@@ -10885,7 +10883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>731</v>
       </c>
@@ -10908,7 +10906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>737</v>
       </c>
@@ -10931,7 +10929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>740</v>
       </c>
@@ -10954,7 +10952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>743</v>
       </c>
@@ -10977,7 +10975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>746</v>
       </c>
@@ -11000,7 +10998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>749</v>
       </c>
@@ -11023,7 +11021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>749</v>
       </c>
@@ -11046,7 +11044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>761</v>
       </c>
@@ -11069,7 +11067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>764</v>
       </c>
@@ -11092,7 +11090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>764</v>
       </c>
@@ -11112,7 +11110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>769</v>
       </c>
@@ -11135,7 +11133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>772</v>
       </c>
@@ -11158,7 +11156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>774</v>
       </c>
@@ -11181,7 +11179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>777</v>
       </c>
@@ -11204,7 +11202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>780</v>
       </c>
@@ -11227,7 +11225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>783</v>
       </c>
@@ -11250,7 +11248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>786</v>
       </c>
@@ -11273,7 +11271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>789</v>
       </c>
@@ -11296,7 +11294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>792</v>
       </c>
@@ -11316,7 +11314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>796</v>
       </c>
@@ -11336,7 +11334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>800</v>
       </c>
@@ -11356,7 +11354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>804</v>
       </c>
@@ -11376,7 +11374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>808</v>
       </c>
@@ -11399,7 +11397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>812</v>
       </c>
@@ -11422,7 +11420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>815</v>
       </c>
@@ -11445,7 +11443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>815</v>
       </c>
@@ -11468,7 +11466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>831</v>
       </c>
@@ -11491,7 +11489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>834</v>
       </c>
@@ -11514,7 +11512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>837</v>
       </c>
@@ -11537,7 +11535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>840</v>
       </c>
@@ -11560,7 +11558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>843</v>
       </c>
@@ -11583,7 +11581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>846</v>
       </c>
@@ -11603,7 +11601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>849</v>
       </c>
@@ -11626,7 +11624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>852</v>
       </c>
@@ -11649,7 +11647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>860</v>
       </c>
@@ -11695,7 +11693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>866</v>
       </c>
@@ -11718,7 +11716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>869</v>
       </c>
@@ -11738,7 +11736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>872</v>
       </c>
@@ -11761,7 +11759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>875</v>
       </c>
@@ -11784,7 +11782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>879</v>
       </c>
@@ -11807,7 +11805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>883</v>
       </c>
@@ -11827,7 +11825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>886</v>
       </c>
@@ -11850,7 +11848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>889</v>
       </c>
@@ -11870,7 +11868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>893</v>
       </c>
@@ -11893,7 +11891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>897</v>
       </c>
@@ -11916,7 +11914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>900</v>
       </c>
@@ -11939,7 +11937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>903</v>
       </c>
@@ -11959,7 +11957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>906</v>
       </c>
@@ -11982,7 +11980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>909</v>
       </c>
@@ -12002,7 +12000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>913</v>
       </c>
@@ -12022,7 +12020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>916</v>
       </c>
@@ -12045,7 +12043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>919</v>
       </c>
@@ -12065,7 +12063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>923</v>
       </c>
@@ -12088,7 +12086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>926</v>
       </c>
@@ -12111,7 +12109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>929</v>
       </c>
@@ -12134,7 +12132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>932</v>
       </c>
@@ -12154,7 +12152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>935</v>
       </c>
@@ -12177,7 +12175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>939</v>
       </c>
@@ -12197,7 +12195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>942</v>
       </c>
@@ -12217,7 +12215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>945</v>
       </c>
@@ -12237,7 +12235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>948</v>
       </c>
@@ -12257,7 +12255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>951</v>
       </c>
@@ -12280,7 +12278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>954</v>
       </c>
@@ -12303,7 +12301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>957</v>
       </c>
@@ -12326,7 +12324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>960</v>
       </c>
@@ -12346,7 +12344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>963</v>
       </c>
@@ -12366,7 +12364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>967</v>
       </c>
@@ -12389,7 +12387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>970</v>
       </c>
@@ -12412,7 +12410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>973</v>
       </c>
@@ -12432,7 +12430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>976</v>
       </c>
@@ -12455,7 +12453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>979</v>
       </c>
@@ -12478,7 +12476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>983</v>
       </c>
@@ -12501,7 +12499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>987</v>
       </c>
@@ -12521,7 +12519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>991</v>
       </c>
@@ -12544,7 +12542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>994</v>
       </c>
@@ -12564,7 +12562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>997</v>
       </c>
@@ -12584,7 +12582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1000</v>
       </c>
@@ -12604,7 +12602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1003</v>
       </c>
@@ -12627,7 +12625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1006</v>
       </c>
@@ -12647,7 +12645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1009</v>
       </c>
@@ -12670,7 +12668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1013</v>
       </c>
@@ -12693,7 +12691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1016</v>
       </c>
@@ -12713,7 +12711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1020</v>
       </c>
@@ -12736,7 +12734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1034</v>
       </c>
@@ -12759,7 +12757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1040</v>
       </c>
@@ -12782,7 +12780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1043</v>
       </c>
@@ -12805,7 +12803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1046</v>
       </c>
@@ -12828,7 +12826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1049</v>
       </c>
@@ -12848,7 +12846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1049</v>
       </c>
@@ -12868,7 +12866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1049</v>
       </c>
@@ -12891,7 +12889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1049</v>
       </c>
@@ -12911,7 +12909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1049</v>
       </c>
@@ -12931,7 +12929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1061</v>
       </c>
@@ -12954,7 +12952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1064</v>
       </c>
@@ -12974,7 +12972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1067</v>
       </c>
@@ -12994,7 +12992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1070</v>
       </c>
@@ -13014,7 +13012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1073</v>
       </c>
@@ -13037,7 +13035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1077</v>
       </c>
@@ -13060,7 +13058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1081</v>
       </c>
@@ -13080,7 +13078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1084</v>
       </c>
@@ -13103,7 +13101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1087</v>
       </c>
@@ -13126,7 +13124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1090</v>
       </c>
@@ -13146,7 +13144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1093</v>
       </c>
@@ -13169,7 +13167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1097</v>
       </c>
@@ -13192,7 +13190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1100</v>
       </c>
@@ -13215,7 +13213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1103</v>
       </c>
@@ -13238,7 +13236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1106</v>
       </c>
@@ -13258,7 +13256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1110</v>
       </c>
@@ -13281,7 +13279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1110</v>
       </c>
@@ -13304,7 +13302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1110</v>
       </c>
@@ -13327,7 +13325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1110</v>
       </c>
@@ -13350,7 +13348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1110</v>
       </c>
@@ -13373,7 +13371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1110</v>
       </c>
@@ -13396,7 +13394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1110</v>
       </c>
@@ -13419,7 +13417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1110</v>
       </c>
@@ -13442,7 +13440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1110</v>
       </c>
@@ -13465,7 +13463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1110</v>
       </c>
@@ -13488,7 +13486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1110</v>
       </c>
@@ -13511,7 +13509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1110</v>
       </c>
@@ -13534,7 +13532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1110</v>
       </c>
@@ -13557,7 +13555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1110</v>
       </c>
@@ -13580,7 +13578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1110</v>
       </c>
@@ -13603,7 +13601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1110</v>
       </c>
@@ -13626,7 +13624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1144</v>
       </c>
@@ -13649,7 +13647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1147</v>
       </c>
@@ -13672,7 +13670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1150</v>
       </c>
@@ -13692,7 +13690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1153</v>
       </c>
@@ -13715,7 +13713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1157</v>
       </c>
@@ -13738,7 +13736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1160</v>
       </c>
@@ -13761,7 +13759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1163</v>
       </c>
@@ -13784,7 +13782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1166</v>
       </c>
@@ -13807,7 +13805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1166</v>
       </c>
@@ -13830,7 +13828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1172</v>
       </c>
@@ -13853,7 +13851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1176</v>
       </c>
@@ -13876,7 +13874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1179</v>
       </c>
@@ -13899,7 +13897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1182</v>
       </c>
@@ -13922,7 +13920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1186</v>
       </c>
@@ -13945,7 +13943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1192</v>
       </c>
@@ -13968,7 +13966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1195</v>
       </c>
@@ -13991,7 +13989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1198</v>
       </c>
@@ -14011,7 +14009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1203</v>
       </c>
@@ -14034,7 +14032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1207</v>
       </c>
@@ -14054,7 +14052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1210</v>
       </c>
@@ -14074,7 +14072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1213</v>
       </c>
@@ -14097,7 +14095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1217</v>
       </c>
@@ -14120,7 +14118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1220</v>
       </c>
@@ -14143,7 +14141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1226</v>
       </c>
@@ -14163,7 +14161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1230</v>
       </c>
@@ -14186,7 +14184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1235</v>
       </c>
@@ -14209,7 +14207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1238</v>
       </c>
@@ -14229,7 +14227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1242</v>
       </c>
@@ -14252,7 +14250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1245</v>
       </c>
@@ -14272,7 +14270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1248</v>
       </c>
@@ -14292,7 +14290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1252</v>
       </c>
@@ -14315,7 +14313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1252</v>
       </c>
@@ -14338,7 +14336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1259</v>
       </c>
@@ -14361,7 +14359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1261</v>
       </c>
@@ -14381,7 +14379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1264</v>
       </c>
@@ -14401,7 +14399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1267</v>
       </c>
@@ -14424,7 +14422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1271</v>
       </c>
@@ -14447,7 +14445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1274</v>
       </c>
@@ -14467,7 +14465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1277</v>
       </c>
@@ -14490,7 +14488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1280</v>
       </c>
@@ -14510,7 +14508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1283</v>
       </c>
@@ -14530,7 +14528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1287</v>
       </c>
@@ -14550,7 +14548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1291</v>
       </c>
@@ -14573,7 +14571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1295</v>
       </c>
@@ -14593,7 +14591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1299</v>
       </c>
@@ -14613,7 +14611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1303</v>
       </c>
@@ -14633,7 +14631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1306</v>
       </c>
@@ -14656,7 +14654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1312</v>
       </c>
@@ -14676,7 +14674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1315</v>
       </c>
@@ -14699,7 +14697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1318</v>
       </c>
@@ -14719,7 +14717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1318</v>
       </c>
@@ -14739,7 +14737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1318</v>
       </c>
@@ -14759,7 +14757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1326</v>
       </c>
@@ -14782,7 +14780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1330</v>
       </c>
@@ -14802,7 +14800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1334</v>
       </c>
@@ -14825,7 +14823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1337</v>
       </c>
@@ -14845,7 +14843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1340</v>
       </c>
@@ -14868,7 +14866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1344</v>
       </c>
@@ -14891,7 +14889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1347</v>
       </c>
@@ -14914,7 +14912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1404</v>
       </c>
@@ -14937,7 +14935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1450</v>
       </c>
@@ -14960,7 +14958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1454</v>
       </c>
@@ -14983,7 +14981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1458</v>
       </c>
@@ -15003,7 +15001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1462</v>
       </c>
@@ -15026,7 +15024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1466</v>
       </c>
@@ -15046,7 +15044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1469</v>
       </c>
@@ -15069,7 +15067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1472</v>
       </c>
@@ -15089,7 +15087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1475</v>
       </c>
@@ -15109,7 +15107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1479</v>
       </c>
@@ -15129,7 +15127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1483</v>
       </c>
@@ -15149,7 +15147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1486</v>
       </c>
@@ -15172,7 +15170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1489</v>
       </c>
@@ -15195,7 +15193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1493</v>
       </c>
@@ -15215,7 +15213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1496</v>
       </c>
@@ -15238,7 +15236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1506</v>
       </c>
@@ -15261,7 +15259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1510</v>
       </c>
@@ -15284,7 +15282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1513</v>
       </c>
@@ -15307,7 +15305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1516</v>
       </c>
@@ -15330,7 +15328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1519</v>
       </c>
@@ -15353,7 +15351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1522</v>
       </c>
@@ -15376,7 +15374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1525</v>
       </c>
@@ -15396,7 +15394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>25</v>
       </c>
@@ -15419,7 +15417,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>25</v>
       </c>
@@ -15442,7 +15440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>35</v>
       </c>
@@ -15465,7 +15463,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>42</v>
       </c>
@@ -15488,7 +15486,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>46</v>
       </c>
@@ -15511,7 +15509,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>49</v>
       </c>
@@ -15534,7 +15532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>52</v>
       </c>
@@ -15557,7 +15555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>55</v>
       </c>
@@ -15580,7 +15578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>73</v>
       </c>
@@ -15603,7 +15601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>146</v>
       </c>
@@ -15623,7 +15621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>188</v>
       </c>
@@ -15643,7 +15641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>188</v>
       </c>
@@ -15663,7 +15661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>253</v>
       </c>
@@ -15686,7 +15684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>253</v>
       </c>
@@ -15709,7 +15707,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>253</v>
       </c>
@@ -15732,7 +15730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>253</v>
       </c>
@@ -15752,7 +15750,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>253</v>
       </c>
@@ -15775,7 +15773,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>253</v>
       </c>
@@ -15798,7 +15796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>253</v>
       </c>
@@ -15818,7 +15816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>253</v>
       </c>
@@ -15841,7 +15839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>253</v>
       </c>
@@ -15864,7 +15862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>253</v>
       </c>
@@ -15887,7 +15885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>253</v>
       </c>
@@ -15910,7 +15908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>253</v>
       </c>
@@ -15933,7 +15931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>253</v>
       </c>
@@ -15956,7 +15954,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>430</v>
       </c>
@@ -15979,7 +15977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>433</v>
       </c>
@@ -16002,7 +16000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>755</v>
       </c>
@@ -16025,7 +16023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>758</v>
       </c>
@@ -16048,7 +16046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>820</v>
       </c>
@@ -16071,7 +16069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>823</v>
       </c>
@@ -16094,7 +16092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>823</v>
       </c>
@@ -16117,7 +16115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>828</v>
       </c>
@@ -16140,7 +16138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1025</v>
       </c>
@@ -16163,7 +16161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1028</v>
       </c>
@@ -16186,7 +16184,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1028</v>
       </c>
@@ -16209,7 +16207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1037</v>
       </c>
@@ -16232,7 +16230,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1189</v>
       </c>
@@ -16255,7 +16253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1309</v>
       </c>
@@ -16278,7 +16276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1350</v>
       </c>
@@ -16301,7 +16299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1350</v>
       </c>
@@ -16324,7 +16322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1356</v>
       </c>
@@ -16347,7 +16345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1356</v>
       </c>
@@ -16370,7 +16368,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1362</v>
       </c>
@@ -16393,7 +16391,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1362</v>
       </c>
@@ -16416,7 +16414,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1368</v>
       </c>
@@ -16439,7 +16437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1368</v>
       </c>
@@ -16462,7 +16460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1373</v>
       </c>
@@ -16485,7 +16483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1376</v>
       </c>
@@ -16505,7 +16503,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1379</v>
       </c>
@@ -16528,7 +16526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1383</v>
       </c>
@@ -16551,7 +16549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1383</v>
       </c>
@@ -16574,7 +16572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1389</v>
       </c>
@@ -16597,7 +16595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1389</v>
       </c>
@@ -16620,7 +16618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1389</v>
       </c>
@@ -16643,7 +16641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1389</v>
       </c>
@@ -16666,7 +16664,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1397</v>
       </c>
@@ -16689,7 +16687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1401</v>
       </c>
@@ -16712,7 +16710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1404</v>
       </c>
@@ -16735,7 +16733,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1409</v>
       </c>
@@ -16758,7 +16756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1412</v>
       </c>
@@ -16781,7 +16779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1416</v>
       </c>
@@ -16801,7 +16799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1416</v>
       </c>
@@ -16824,7 +16822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1421</v>
       </c>
@@ -16847,7 +16845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1424</v>
       </c>
@@ -16870,7 +16868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1427</v>
       </c>
@@ -16893,7 +16891,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1427</v>
       </c>
@@ -16916,7 +16914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1433</v>
       </c>
@@ -16939,7 +16937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1436</v>
       </c>
@@ -16962,7 +16960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1436</v>
       </c>
@@ -16985,7 +16983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1442</v>
       </c>
@@ -17008,7 +17006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1445</v>
       </c>
@@ -17031,7 +17029,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1445</v>
       </c>
@@ -17054,7 +17052,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1503</v>
       </c>
@@ -17077,7 +17075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>6</v>
       </c>
@@ -17097,7 +17095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>62</v>
       </c>
@@ -17117,7 +17115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>69</v>
       </c>
@@ -17140,7 +17138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>161</v>
       </c>
@@ -17163,7 +17161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>174</v>
       </c>
@@ -17183,7 +17181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>211</v>
       </c>
@@ -17206,7 +17204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>300</v>
       </c>
@@ -17229,7 +17227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>348</v>
       </c>
@@ -17249,7 +17247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>355</v>
       </c>
@@ -17272,7 +17270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>372</v>
       </c>
@@ -17295,7 +17293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>442</v>
       </c>
@@ -17318,7 +17316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>484</v>
       </c>
@@ -17338,7 +17336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>513</v>
       </c>
@@ -17361,7 +17359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>554</v>
       </c>
@@ -17384,7 +17382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>596</v>
       </c>
@@ -17404,7 +17402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>667</v>
       </c>
@@ -17427,7 +17425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>681</v>
       </c>
@@ -17450,7 +17448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>714</v>
       </c>
@@ -17473,7 +17471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>719</v>
       </c>
@@ -17496,7 +17494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>856</v>
       </c>
@@ -17519,7 +17517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>987</v>
       </c>
@@ -17542,7 +17540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1009</v>
       </c>
@@ -17565,7 +17563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1073</v>
       </c>
@@ -17588,7 +17586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1077</v>
       </c>
@@ -17608,7 +17606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1153</v>
       </c>
@@ -17628,7 +17626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1182</v>
       </c>
@@ -17651,7 +17649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1198</v>
       </c>
@@ -17674,7 +17672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>1223</v>
       </c>
@@ -17697,7 +17695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1230</v>
       </c>
@@ -17720,7 +17718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1340</v>
       </c>
@@ -17740,7 +17738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>625</v>
       </c>
@@ -17760,7 +17758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1309</v>
       </c>
@@ -17780,7 +17778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>488</v>
       </c>
@@ -17800,7 +17798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1356</v>
       </c>
@@ -17820,7 +17818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1356</v>
       </c>
@@ -17840,7 +17838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>247</v>
       </c>
@@ -17860,32 +17858,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
-        <v>863</v>
-      </c>
-      <c r="B523" t="s">
-        <v>864</v>
-      </c>
-      <c r="C523" t="s">
-        <v>865</v>
-      </c>
-      <c r="D523" t="s">
-        <v>1945</v>
-      </c>
-      <c r="E523">
-        <v>35448810000190</v>
-      </c>
-      <c r="G523" t="s">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="523" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="524" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="525" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="526" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{97A73577-28F2-45CA-9131-49B03B93C073}"/>
+  <autoFilter ref="A1:G522" xr:uid="{97A73577-28F2-45CA-9131-49B03B93C073}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="EDUCANDARIO DOM HELDER PESSOA CAMARA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/input/escolas_lex.xlsx
+++ b/input/escolas_lex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrerodrigues\projetos\licencas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919449AA-D2DD-4BE7-8256-FC7E099FE2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31B4A7F-43D1-4429-B3D3-CF4BB8529072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC585FA0-F66A-44AE-9546-6CB0DAE100F9}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="1945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="1949">
   <si>
     <t>SchoolType</t>
   </si>
@@ -5882,6 +5882,18 @@
   </si>
   <si>
     <t>SEB BRASÍLIA</t>
+  </si>
+  <si>
+    <t>COLEGIO CAMINHANDO PARA O FUTURO LTDA</t>
+  </si>
+  <si>
+    <t>723b0d02-db16-4950-bdc9-a79e985b3bd8</t>
+  </si>
+  <si>
+    <t>b2824b51-e515-4a69-8029-ba41e6f48e49</t>
+  </si>
+  <si>
+    <t>COLEGIO CAMINHANDO PARA O FUTURO</t>
   </si>
 </sst>
 </file>
@@ -5931,12 +5943,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5955,9 +5968,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5995,7 +6008,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6101,7 +6114,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6243,7 +6256,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6251,11 +6264,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A73577-28F2-45CA-9131-49B03B93C073}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B523" sqref="A523:XFD523"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D532" sqref="D532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6292,7 +6305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1499</v>
       </c>
@@ -6305,14 +6318,14 @@
       <c r="D2" t="s">
         <v>1500</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>50904199000150</v>
       </c>
       <c r="G2" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6325,7 +6338,7 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>1377900000115</v>
       </c>
       <c r="F3" t="s">
@@ -6335,7 +6348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6348,7 +6361,7 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>6164912000185</v>
       </c>
       <c r="F4" t="s">
@@ -6358,7 +6371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -6371,7 +6384,7 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>39439115000112</v>
       </c>
       <c r="F5" t="s">
@@ -6381,7 +6394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6394,7 +6407,7 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>2547304000107</v>
       </c>
       <c r="F6" t="s">
@@ -6404,7 +6417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -6417,7 +6430,7 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>12544349000173</v>
       </c>
       <c r="F7" t="s">
@@ -6427,7 +6440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -6440,7 +6453,7 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>16782672000136</v>
       </c>
       <c r="F8" t="s">
@@ -6450,7 +6463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -6463,7 +6476,7 @@
       <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>53416921000520</v>
       </c>
       <c r="F9" t="s">
@@ -6473,7 +6486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -6486,7 +6499,7 @@
       <c r="D10" t="s">
         <v>60</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>34670401000170</v>
       </c>
       <c r="F10" t="s">
@@ -6496,7 +6509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -6509,7 +6522,7 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>9565924000100</v>
       </c>
       <c r="F11" t="s">
@@ -6519,7 +6532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -6532,7 +6545,7 @@
       <c r="D12" t="s">
         <v>67</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>56362056000140</v>
       </c>
       <c r="F12" t="s">
@@ -6542,7 +6555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -6555,14 +6568,14 @@
       <c r="D13" t="s">
         <v>70</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>1492485000140</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -6575,7 +6588,7 @@
       <c r="D14" t="s">
         <v>77</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>53416921001500</v>
       </c>
       <c r="F14" t="s">
@@ -6585,7 +6598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -6598,7 +6611,7 @@
       <c r="D15" t="s">
         <v>80</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>5155331000114</v>
       </c>
       <c r="F15" t="s">
@@ -6608,7 +6621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -6621,7 +6634,7 @@
       <c r="D16" t="s">
         <v>83</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>14248395000150</v>
       </c>
       <c r="F16" t="s">
@@ -6631,7 +6644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -6644,7 +6657,7 @@
       <c r="D17" t="s">
         <v>86</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>65059370000140</v>
       </c>
       <c r="F17" t="s">
@@ -6654,7 +6667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -6667,7 +6680,7 @@
       <c r="D18" t="s">
         <v>89</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>951049000120</v>
       </c>
       <c r="F18" t="s">
@@ -6677,7 +6690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -6690,7 +6703,7 @@
       <c r="D19" t="s">
         <v>94</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>20153805000182</v>
       </c>
       <c r="F19" t="s">
@@ -6700,7 +6713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -6713,7 +6726,7 @@
       <c r="D20" t="s">
         <v>98</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>177428000104</v>
       </c>
       <c r="F20" t="s">
@@ -6723,7 +6736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -6736,7 +6749,7 @@
       <c r="D21" t="s">
         <v>103</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>6057175000111</v>
       </c>
       <c r="F21" t="s">
@@ -6746,7 +6759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -6759,7 +6772,7 @@
       <c r="D22" t="s">
         <v>105</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>9069920000130</v>
       </c>
       <c r="F22" t="s">
@@ -6769,7 +6782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -6782,7 +6795,7 @@
       <c r="D23" t="s">
         <v>110</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>5960184000155</v>
       </c>
       <c r="F23" t="s">
@@ -6792,7 +6805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -6805,7 +6818,7 @@
       <c r="D24" t="s">
         <v>112</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>24912925000177</v>
       </c>
       <c r="F24" t="s">
@@ -6815,7 +6828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -6828,7 +6841,7 @@
       <c r="D25" t="s">
         <v>115</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>4942494000184</v>
       </c>
       <c r="F25" t="s">
@@ -6838,7 +6851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -6851,7 +6864,7 @@
       <c r="D26" t="s">
         <v>118</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>9484351000190</v>
       </c>
       <c r="F26" t="s">
@@ -6861,7 +6874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -6874,7 +6887,7 @@
       <c r="D27" t="s">
         <v>121</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>7631897000109</v>
       </c>
       <c r="F27" t="s">
@@ -6884,7 +6897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -6897,7 +6910,7 @@
       <c r="D28" t="s">
         <v>126</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>51481101000162</v>
       </c>
       <c r="F28" t="s">
@@ -6907,7 +6920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -6920,7 +6933,7 @@
       <c r="D29" t="s">
         <v>128</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <v>42030505000149</v>
       </c>
       <c r="F29" t="s">
@@ -6930,7 +6943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -6943,7 +6956,7 @@
       <c r="D30" t="s">
         <v>130</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <v>10667819000160</v>
       </c>
       <c r="F30" t="s">
@@ -6953,7 +6966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -6966,7 +6979,7 @@
       <c r="D31" t="s">
         <v>132</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
         <v>42030285000153</v>
       </c>
       <c r="F31" t="s">
@@ -6976,7 +6989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>133</v>
       </c>
@@ -6989,7 +7002,7 @@
       <c r="D32" t="s">
         <v>134</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <v>54683834000178</v>
       </c>
       <c r="F32" t="s">
@@ -6999,7 +7012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -7012,7 +7025,7 @@
       <c r="D33" t="s">
         <v>139</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="4">
         <v>9000291000192</v>
       </c>
       <c r="F33" t="s">
@@ -7022,7 +7035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>140</v>
       </c>
@@ -7035,14 +7048,14 @@
       <c r="D34" t="s">
         <v>141</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="4">
         <v>48722247000148</v>
       </c>
       <c r="G34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -7055,7 +7068,7 @@
       <c r="D35" t="s">
         <v>144</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
         <v>40451213000154</v>
       </c>
       <c r="F35" t="s">
@@ -7065,7 +7078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -7078,7 +7091,7 @@
       <c r="D36" t="s">
         <v>151</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="4">
         <v>970453000140</v>
       </c>
       <c r="F36" t="s">
@@ -7088,7 +7101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -7101,14 +7114,14 @@
       <c r="D37" t="s">
         <v>156</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
         <v>17787911000103</v>
       </c>
       <c r="G37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>157</v>
       </c>
@@ -7121,7 +7134,7 @@
       <c r="D38" t="s">
         <v>160</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="4">
         <v>22962393000157</v>
       </c>
       <c r="F38" t="s">
@@ -7131,7 +7144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -7144,14 +7157,14 @@
       <c r="D39" t="s">
         <v>162</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="4">
         <v>32025033000182</v>
       </c>
       <c r="G39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>165</v>
       </c>
@@ -7164,7 +7177,7 @@
       <c r="D40" t="s">
         <v>166</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="4">
         <v>5924839000130</v>
       </c>
       <c r="F40" t="s">
@@ -7174,7 +7187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>168</v>
       </c>
@@ -7187,7 +7200,7 @@
       <c r="D41" t="s">
         <v>169</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <v>2114474000270</v>
       </c>
       <c r="F41" t="s">
@@ -7197,7 +7210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>171</v>
       </c>
@@ -7210,14 +7223,14 @@
       <c r="D42" t="s">
         <v>172</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
         <v>49000285000150</v>
       </c>
       <c r="G42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>174</v>
       </c>
@@ -7230,7 +7243,7 @@
       <c r="D43" t="s">
         <v>178</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
         <v>33268393000178</v>
       </c>
       <c r="F43" t="s">
@@ -7240,7 +7253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>179</v>
       </c>
@@ -7253,7 +7266,7 @@
       <c r="D44" t="s">
         <v>180</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="4">
         <v>7748088000173</v>
       </c>
       <c r="F44" t="s">
@@ -7263,7 +7276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>182</v>
       </c>
@@ -7276,14 +7289,14 @@
       <c r="D45" t="s">
         <v>183</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
         <v>18909733000109</v>
       </c>
       <c r="G45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>185</v>
       </c>
@@ -7296,7 +7309,7 @@
       <c r="D46" t="s">
         <v>186</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="4">
         <v>4645428000142</v>
       </c>
       <c r="F46" t="s">
@@ -7306,7 +7319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -7319,14 +7332,14 @@
       <c r="D47" t="s">
         <v>191</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="4">
         <v>56012628004400</v>
       </c>
       <c r="G47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>195</v>
       </c>
@@ -7339,14 +7352,14 @@
       <c r="D48" t="s">
         <v>196</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="4">
         <v>8404731000104</v>
       </c>
       <c r="G48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>198</v>
       </c>
@@ -7359,7 +7372,7 @@
       <c r="D49" t="s">
         <v>199</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="4">
         <v>60716214000190</v>
       </c>
       <c r="F49" t="s">
@@ -7369,7 +7382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>201</v>
       </c>
@@ -7382,14 +7395,14 @@
       <c r="D50" t="s">
         <v>202</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="4">
         <v>23975555000154</v>
       </c>
       <c r="G50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -7402,14 +7415,14 @@
       <c r="D51" t="s">
         <v>207</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>385475000143</v>
       </c>
       <c r="G51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -7422,7 +7435,7 @@
       <c r="D52" t="s">
         <v>209</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>52583195000143</v>
       </c>
       <c r="F52" t="s">
@@ -7432,7 +7445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>211</v>
       </c>
@@ -7445,14 +7458,14 @@
       <c r="D53" t="s">
         <v>212</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <v>1297140000136</v>
       </c>
       <c r="G53" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>215</v>
       </c>
@@ -7465,7 +7478,7 @@
       <c r="D54" t="s">
         <v>216</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="4">
         <v>6002540000190</v>
       </c>
       <c r="F54" t="s">
@@ -7475,7 +7488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>218</v>
       </c>
@@ -7488,7 +7501,7 @@
       <c r="D55" t="s">
         <v>219</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="4">
         <v>9012942000164</v>
       </c>
       <c r="F55" t="s">
@@ -7498,7 +7511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -7511,7 +7524,7 @@
       <c r="D56" t="s">
         <v>224</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="4">
         <v>13207355000106</v>
       </c>
       <c r="F56" t="s">
@@ -7521,7 +7534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>225</v>
       </c>
@@ -7534,14 +7547,14 @@
       <c r="D57" t="s">
         <v>226</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="4">
         <v>6343277000101</v>
       </c>
       <c r="G57" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>228</v>
       </c>
@@ -7554,7 +7567,7 @@
       <c r="D58" t="s">
         <v>231</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="4">
         <v>13226097000105</v>
       </c>
       <c r="F58" t="s">
@@ -7564,7 +7577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -7577,7 +7590,7 @@
       <c r="D59" t="s">
         <v>233</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="4">
         <v>40060738000169</v>
       </c>
       <c r="F59" t="s">
@@ -7587,7 +7600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>235</v>
       </c>
@@ -7600,7 +7613,7 @@
       <c r="D60" t="s">
         <v>236</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="4">
         <v>11516546000116</v>
       </c>
       <c r="F60" t="s">
@@ -7610,7 +7623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>238</v>
       </c>
@@ -7623,7 +7636,7 @@
       <c r="D61" t="s">
         <v>239</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="4">
         <v>60130895000100</v>
       </c>
       <c r="F61" t="s">
@@ -7633,7 +7646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>241</v>
       </c>
@@ -7646,7 +7659,7 @@
       <c r="D62" t="s">
         <v>242</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="4">
         <v>1099223000110</v>
       </c>
       <c r="F62" t="s">
@@ -7656,7 +7669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>244</v>
       </c>
@@ -7669,7 +7682,7 @@
       <c r="D63" t="s">
         <v>245</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="4">
         <v>29805098000136</v>
       </c>
       <c r="F63" t="s">
@@ -7679,7 +7692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>247</v>
       </c>
@@ -7692,7 +7705,7 @@
       <c r="D64" t="s">
         <v>248</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="4">
         <v>21232694000162</v>
       </c>
       <c r="F64" t="s">
@@ -7702,7 +7715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -7715,7 +7728,7 @@
       <c r="D65" t="s">
         <v>251</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="4">
         <v>9635346000130</v>
       </c>
       <c r="F65" t="s">
@@ -7725,7 +7738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>281</v>
       </c>
@@ -7738,7 +7751,7 @@
       <c r="D66" t="s">
         <v>282</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="4">
         <v>9104655000184</v>
       </c>
       <c r="F66" t="s">
@@ -7748,7 +7761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>284</v>
       </c>
@@ -7761,7 +7774,7 @@
       <c r="D67" t="s">
         <v>287</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="4">
         <v>53416921002140</v>
       </c>
       <c r="F67" t="s">
@@ -7771,7 +7784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -7784,7 +7797,7 @@
       <c r="D68" t="s">
         <v>289</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="4">
         <v>31439286000130</v>
       </c>
       <c r="F68" t="s">
@@ -7794,7 +7807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>291</v>
       </c>
@@ -7807,7 +7820,7 @@
       <c r="D69" t="s">
         <v>292</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="4">
         <v>7584832000141</v>
       </c>
       <c r="F69" t="s">
@@ -7817,7 +7830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -7830,14 +7843,14 @@
       <c r="D70" t="s">
         <v>295</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="4">
         <v>7039106000148</v>
       </c>
       <c r="G70" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>297</v>
       </c>
@@ -7850,14 +7863,14 @@
       <c r="D71" t="s">
         <v>298</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="4">
         <v>5496304000105</v>
       </c>
       <c r="G71" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>300</v>
       </c>
@@ -7870,14 +7883,14 @@
       <c r="D72" t="s">
         <v>301</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="4">
         <v>56011711000116</v>
       </c>
       <c r="G72" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>304</v>
       </c>
@@ -7890,7 +7903,7 @@
       <c r="D73" t="s">
         <v>305</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="4">
         <v>9206393000169</v>
       </c>
       <c r="F73" t="s">
@@ -7900,7 +7913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>307</v>
       </c>
@@ -7913,7 +7926,7 @@
       <c r="D74" t="s">
         <v>308</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="4">
         <v>29496948000161</v>
       </c>
       <c r="F74" t="s">
@@ -7923,7 +7936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>310</v>
       </c>
@@ -7936,14 +7949,14 @@
       <c r="D75" t="s">
         <v>311</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="4">
         <v>3445887000110</v>
       </c>
       <c r="G75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>313</v>
       </c>
@@ -7956,7 +7969,7 @@
       <c r="D76" t="s">
         <v>316</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="4">
         <v>35086269000117</v>
       </c>
       <c r="F76" t="s">
@@ -7966,7 +7979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>317</v>
       </c>
@@ -7979,14 +7992,14 @@
       <c r="D77" t="s">
         <v>318</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="4">
         <v>39377296000108</v>
       </c>
       <c r="G77" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>320</v>
       </c>
@@ -7999,14 +8012,14 @@
       <c r="D78" t="s">
         <v>321</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="4">
         <v>34103786000194</v>
       </c>
       <c r="G78" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>323</v>
       </c>
@@ -8019,14 +8032,14 @@
       <c r="D79" t="s">
         <v>324</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="4">
         <v>34103786000194</v>
       </c>
       <c r="G79" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>326</v>
       </c>
@@ -8039,7 +8052,7 @@
       <c r="D80" t="s">
         <v>327</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="4">
         <v>83268623000177</v>
       </c>
       <c r="F80" t="s">
@@ -8049,7 +8062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>329</v>
       </c>
@@ -8062,7 +8075,7 @@
       <c r="D81" t="s">
         <v>330</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="4">
         <v>12145966000104</v>
       </c>
       <c r="F81" t="s">
@@ -8072,7 +8085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>332</v>
       </c>
@@ -8085,7 +8098,7 @@
       <c r="D82" t="s">
         <v>333</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="4">
         <v>17203928002209</v>
       </c>
       <c r="F82" t="s">
@@ -8095,7 +8108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>335</v>
       </c>
@@ -8108,14 +8121,14 @@
       <c r="D83" t="s">
         <v>336</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="4">
         <v>21263506000163</v>
       </c>
       <c r="G83" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>338</v>
       </c>
@@ -8128,14 +8141,14 @@
       <c r="D84" t="s">
         <v>339</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="4">
         <v>1876232000170</v>
       </c>
       <c r="G84" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>341</v>
       </c>
@@ -8148,7 +8161,7 @@
       <c r="D85" t="s">
         <v>344</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="4">
         <v>33646704000519</v>
       </c>
       <c r="F85" t="s">
@@ -8158,7 +8171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>345</v>
       </c>
@@ -8171,7 +8184,7 @@
       <c r="D86" t="s">
         <v>346</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="4">
         <v>39872738000184</v>
       </c>
       <c r="F86" t="s">
@@ -8181,7 +8194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>348</v>
       </c>
@@ -8194,7 +8207,7 @@
       <c r="D87" t="s">
         <v>349</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="4">
         <v>9292850000185</v>
       </c>
       <c r="F87" t="s">
@@ -8204,7 +8217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>352</v>
       </c>
@@ -8217,7 +8230,7 @@
       <c r="D88" t="s">
         <v>353</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="4">
         <v>2697887000144</v>
       </c>
       <c r="F88" t="s">
@@ -8227,7 +8240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>355</v>
       </c>
@@ -8240,7 +8253,7 @@
       <c r="D89" t="s">
         <v>356</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="4">
         <v>13408459000170</v>
       </c>
       <c r="F89" t="s">
@@ -8250,7 +8263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>359</v>
       </c>
@@ -8263,7 +8276,7 @@
       <c r="D90" t="s">
         <v>360</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="4">
         <v>27381987000198</v>
       </c>
       <c r="F90" t="s">
@@ -8273,7 +8286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>362</v>
       </c>
@@ -8286,7 +8299,7 @@
       <c r="D91" t="s">
         <v>363</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="4">
         <v>11984868000190</v>
       </c>
       <c r="F91" t="s">
@@ -8296,7 +8309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>365</v>
       </c>
@@ -8309,7 +8322,7 @@
       <c r="D92" t="s">
         <v>368</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="4">
         <v>68623289000139</v>
       </c>
       <c r="F92" t="s">
@@ -8319,7 +8332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>369</v>
       </c>
@@ -8332,7 +8345,7 @@
       <c r="D93" t="s">
         <v>370</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="4">
         <v>2279729000174</v>
       </c>
       <c r="F93" t="s">
@@ -8342,7 +8355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>372</v>
       </c>
@@ -8355,14 +8368,14 @@
       <c r="D94" t="s">
         <v>373</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="4">
         <v>82788902000107</v>
       </c>
       <c r="G94" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>376</v>
       </c>
@@ -8375,7 +8388,7 @@
       <c r="D95" t="s">
         <v>379</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="4">
         <v>41176850000122</v>
       </c>
       <c r="F95" t="s">
@@ -8385,7 +8398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>380</v>
       </c>
@@ -8398,14 +8411,14 @@
       <c r="D96" t="s">
         <v>381</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="4">
         <v>33044435000197</v>
       </c>
       <c r="G96" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>383</v>
       </c>
@@ -8418,7 +8431,7 @@
       <c r="D97" t="s">
         <v>386</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="4">
         <v>8194562000125</v>
       </c>
       <c r="F97" t="s">
@@ -8428,7 +8441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>383</v>
       </c>
@@ -8441,7 +8454,7 @@
       <c r="D98" t="s">
         <v>384</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="4">
         <v>48277677000106</v>
       </c>
       <c r="F98" t="s">
@@ -8451,7 +8464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>388</v>
       </c>
@@ -8464,7 +8477,7 @@
       <c r="D99" t="s">
         <v>389</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="4">
         <v>1463319000116</v>
       </c>
       <c r="F99" t="s">
@@ -8474,7 +8487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>391</v>
       </c>
@@ -8487,7 +8500,7 @@
       <c r="D100" t="s">
         <v>392</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="4">
         <v>10802982000199</v>
       </c>
       <c r="F100" t="s">
@@ -8497,7 +8510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>394</v>
       </c>
@@ -8510,7 +8523,7 @@
       <c r="D101" t="s">
         <v>395</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="4">
         <v>10729846000110</v>
       </c>
       <c r="F101" t="s">
@@ -8520,7 +8533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>397</v>
       </c>
@@ -8533,7 +8546,7 @@
       <c r="D102" t="s">
         <v>398</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="4">
         <v>24996467000100</v>
       </c>
       <c r="F102" t="s">
@@ -8543,7 +8556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>400</v>
       </c>
@@ -8556,14 +8569,14 @@
       <c r="D103" t="s">
         <v>403</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="4">
         <v>50445246000145</v>
       </c>
       <c r="G103" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>404</v>
       </c>
@@ -8576,7 +8589,7 @@
       <c r="D104" t="s">
         <v>407</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="4">
         <v>9943564000132</v>
       </c>
       <c r="F104" t="s">
@@ -8586,7 +8599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>408</v>
       </c>
@@ -8599,7 +8612,7 @@
       <c r="D105" t="s">
         <v>409</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="4">
         <v>8790544000106</v>
       </c>
       <c r="F105" t="s">
@@ -8609,7 +8622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>411</v>
       </c>
@@ -8622,14 +8635,14 @@
       <c r="D106" t="s">
         <v>412</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="4">
         <v>3521442000171</v>
       </c>
       <c r="G106" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>414</v>
       </c>
@@ -8642,7 +8655,7 @@
       <c r="D107" t="s">
         <v>415</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="4">
         <v>46348280000124</v>
       </c>
       <c r="F107" t="s">
@@ -8652,7 +8665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>417</v>
       </c>
@@ -8665,7 +8678,7 @@
       <c r="D108" t="s">
         <v>420</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="4">
         <v>5951513000282</v>
       </c>
       <c r="F108" t="s">
@@ -8675,7 +8688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>421</v>
       </c>
@@ -8688,7 +8701,7 @@
       <c r="D109" t="s">
         <v>422</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="4">
         <v>24917561000118</v>
       </c>
       <c r="F109" t="s">
@@ -8698,7 +8711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>424</v>
       </c>
@@ -8711,7 +8724,7 @@
       <c r="D110" t="s">
         <v>427</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="4">
         <v>1130539000209</v>
       </c>
       <c r="F110" t="s">
@@ -8721,7 +8734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>424</v>
       </c>
@@ -8734,7 +8747,7 @@
       <c r="D111" t="s">
         <v>429</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="4">
         <v>1130539000128</v>
       </c>
       <c r="F111" t="s">
@@ -8744,7 +8757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>436</v>
       </c>
@@ -8757,7 +8770,7 @@
       <c r="D112" t="s">
         <v>439</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="4">
         <v>28436310000172</v>
       </c>
       <c r="F112" t="s">
@@ -8767,7 +8780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>436</v>
       </c>
@@ -8780,7 +8793,7 @@
       <c r="D113" t="s">
         <v>441</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="4">
         <v>4070495000186</v>
       </c>
       <c r="F113" t="s">
@@ -8790,7 +8803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>442</v>
       </c>
@@ -8803,14 +8816,14 @@
       <c r="D114" t="s">
         <v>443</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="4">
         <v>27977149000262</v>
       </c>
       <c r="G114" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>446</v>
       </c>
@@ -8823,7 +8836,7 @@
       <c r="D115" t="s">
         <v>447</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="4">
         <v>9176197000199</v>
       </c>
       <c r="F115" t="s">
@@ -8833,7 +8846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>449</v>
       </c>
@@ -8846,7 +8859,7 @@
       <c r="D116" t="s">
         <v>450</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="4">
         <v>2188157000118</v>
       </c>
       <c r="F116" t="s">
@@ -8856,7 +8869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>452</v>
       </c>
@@ -8869,14 +8882,14 @@
       <c r="D117" t="s">
         <v>453</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="4">
         <v>421603000167</v>
       </c>
       <c r="G117" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>455</v>
       </c>
@@ -8889,7 +8902,7 @@
       <c r="D118" t="s">
         <v>458</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="4">
         <v>30955000000106</v>
       </c>
       <c r="F118" t="s">
@@ -8899,7 +8912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>455</v>
       </c>
@@ -8912,7 +8925,7 @@
       <c r="D119" t="s">
         <v>456</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="4">
         <v>13482434000117</v>
       </c>
       <c r="F119" t="s">
@@ -8922,7 +8935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>455</v>
       </c>
@@ -8935,7 +8948,7 @@
       <c r="D120" t="s">
         <v>461</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="4">
         <v>3750852000194</v>
       </c>
       <c r="F120" t="s">
@@ -8945,7 +8958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>462</v>
       </c>
@@ -8958,14 +8971,14 @@
       <c r="D121" t="s">
         <v>463</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="4">
         <v>8711216000177</v>
       </c>
       <c r="G121" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>465</v>
       </c>
@@ -8978,7 +8991,7 @@
       <c r="D122" t="s">
         <v>466</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="4">
         <v>36345073000162</v>
       </c>
       <c r="F122" t="s">
@@ -8988,7 +9001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>468</v>
       </c>
@@ -9001,7 +9014,7 @@
       <c r="D123" t="s">
         <v>469</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="4">
         <v>45800356000148</v>
       </c>
       <c r="F123" t="s">
@@ -9011,7 +9024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>471</v>
       </c>
@@ -9024,7 +9037,7 @@
       <c r="D124" t="s">
         <v>472</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="4">
         <v>4756536000192</v>
       </c>
       <c r="F124" t="s">
@@ -9034,7 +9047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>474</v>
       </c>
@@ -9047,7 +9060,7 @@
       <c r="D125" t="s">
         <v>475</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="4">
         <v>56368202000145</v>
       </c>
       <c r="F125" t="s">
@@ -9057,7 +9070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>477</v>
       </c>
@@ -9070,7 +9083,7 @@
       <c r="D126" t="s">
         <v>478</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="4">
         <v>972792000166</v>
       </c>
       <c r="F126" t="s">
@@ -9080,7 +9093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>480</v>
       </c>
@@ -9093,14 +9106,14 @@
       <c r="D127" t="s">
         <v>483</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="4">
         <v>794395000141</v>
       </c>
       <c r="G127" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>484</v>
       </c>
@@ -9113,7 +9126,7 @@
       <c r="D128" t="s">
         <v>485</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="4">
         <v>716608000117</v>
       </c>
       <c r="F128" t="s">
@@ -9123,7 +9136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>488</v>
       </c>
@@ -9136,7 +9149,7 @@
       <c r="D129" t="s">
         <v>491</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="4">
         <v>48069924000251</v>
       </c>
       <c r="F129" t="s">
@@ -9146,7 +9159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>488</v>
       </c>
@@ -9159,7 +9172,7 @@
       <c r="D130" t="s">
         <v>493</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="4">
         <v>48069924000685</v>
       </c>
       <c r="F130" t="s">
@@ -9169,7 +9182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>488</v>
       </c>
@@ -9182,7 +9195,7 @@
       <c r="D131" t="s">
         <v>495</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="4">
         <v>48069924001061</v>
       </c>
       <c r="F131" t="s">
@@ -9192,7 +9205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>488</v>
       </c>
@@ -9205,7 +9218,7 @@
       <c r="D132" t="s">
         <v>497</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="4">
         <v>48069924000413</v>
       </c>
       <c r="F132" t="s">
@@ -9215,7 +9228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>488</v>
       </c>
@@ -9228,7 +9241,7 @@
       <c r="D133" t="s">
         <v>499</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="4">
         <v>48069924001142</v>
       </c>
       <c r="F133" t="s">
@@ -9238,7 +9251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>488</v>
       </c>
@@ -9251,7 +9264,7 @@
       <c r="D134" t="s">
         <v>501</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="4">
         <v>48069924000766</v>
       </c>
       <c r="F134" t="s">
@@ -9261,7 +9274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>502</v>
       </c>
@@ -9274,14 +9287,14 @@
       <c r="D135" t="s">
         <v>503</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="4">
         <v>5955428000101</v>
       </c>
       <c r="G135" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>505</v>
       </c>
@@ -9294,7 +9307,7 @@
       <c r="D136" t="s">
         <v>506</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="4">
         <v>8335404000148</v>
       </c>
       <c r="F136" t="s">
@@ -9304,7 +9317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>508</v>
       </c>
@@ -9317,7 +9330,7 @@
       <c r="D137" t="s">
         <v>509</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="4">
         <v>43668142000134</v>
       </c>
       <c r="F137" t="s">
@@ -9327,7 +9340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>508</v>
       </c>
@@ -9340,7 +9353,7 @@
       <c r="D138" t="s">
         <v>512</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="4">
         <v>42262085000126</v>
       </c>
       <c r="F138" t="s">
@@ -9350,7 +9363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>513</v>
       </c>
@@ -9363,7 +9376,7 @@
       <c r="D139" t="s">
         <v>514</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="4">
         <v>51253946000109</v>
       </c>
       <c r="F139" t="s">
@@ -9373,7 +9386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>517</v>
       </c>
@@ -9386,7 +9399,7 @@
       <c r="D140" t="s">
         <v>518</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="4">
         <v>53007135000145</v>
       </c>
       <c r="F140" t="e">
@@ -9396,7 +9409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>520</v>
       </c>
@@ -9409,14 +9422,14 @@
       <c r="D141" t="s">
         <v>521</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="4">
         <v>7732914000196</v>
       </c>
       <c r="G141" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>523</v>
       </c>
@@ -9429,14 +9442,14 @@
       <c r="D142" t="s">
         <v>524</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="4">
         <v>7134099000163</v>
       </c>
       <c r="G142" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>526</v>
       </c>
@@ -9449,14 +9462,14 @@
       <c r="D143" t="s">
         <v>527</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="4">
         <v>37438264000131</v>
       </c>
       <c r="G143" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>529</v>
       </c>
@@ -9469,7 +9482,7 @@
       <c r="D144" t="s">
         <v>530</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="4">
         <v>36756617000189</v>
       </c>
       <c r="F144" t="s">
@@ -9479,7 +9492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>532</v>
       </c>
@@ -9492,7 +9505,7 @@
       <c r="D145" t="s">
         <v>533</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="4">
         <v>4647728000160</v>
       </c>
       <c r="F145" t="s">
@@ -9502,7 +9515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>535</v>
       </c>
@@ -9515,7 +9528,7 @@
       <c r="D146" t="s">
         <v>536</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="4">
         <v>44643786000130</v>
       </c>
       <c r="F146" t="s">
@@ -9525,7 +9538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>538</v>
       </c>
@@ -9538,7 +9551,7 @@
       <c r="D147" t="s">
         <v>541</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="4">
         <v>4847013000151</v>
       </c>
       <c r="F147" t="s">
@@ -9548,7 +9561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>538</v>
       </c>
@@ -9561,7 +9574,7 @@
       <c r="D148" t="s">
         <v>543</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="4">
         <v>3876611000196</v>
       </c>
       <c r="F148" t="s">
@@ -9571,7 +9584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>544</v>
       </c>
@@ -9584,7 +9597,7 @@
       <c r="D149" t="s">
         <v>545</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="4">
         <v>6373574000191</v>
       </c>
       <c r="F149" t="s">
@@ -9594,7 +9607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>547</v>
       </c>
@@ -9607,14 +9620,14 @@
       <c r="D150" t="s">
         <v>550</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="4">
         <v>11233561000157</v>
       </c>
       <c r="G150" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>551</v>
       </c>
@@ -9627,7 +9640,7 @@
       <c r="D151" t="s">
         <v>552</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="4">
         <v>4531514000124</v>
       </c>
       <c r="F151" t="s">
@@ -9637,7 +9650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>554</v>
       </c>
@@ -9650,14 +9663,14 @@
       <c r="D152" t="s">
         <v>555</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="4">
         <v>1058507000169</v>
       </c>
       <c r="G152" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>558</v>
       </c>
@@ -9670,7 +9683,7 @@
       <c r="D153" t="s">
         <v>559</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="4">
         <v>3255661000156</v>
       </c>
       <c r="F153" t="s">
@@ -9680,7 +9693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>561</v>
       </c>
@@ -9693,7 +9706,7 @@
       <c r="D154" t="s">
         <v>562</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="4">
         <v>30871552000136</v>
       </c>
       <c r="F154" t="s">
@@ -9703,7 +9716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>564</v>
       </c>
@@ -9716,14 +9729,14 @@
       <c r="D155" t="s">
         <v>565</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="4">
         <v>14805747000121</v>
       </c>
       <c r="G155" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>567</v>
       </c>
@@ -9736,7 +9749,7 @@
       <c r="D156" t="s">
         <v>568</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="4">
         <v>3441599000197</v>
       </c>
       <c r="F156" t="s">
@@ -9746,7 +9759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>570</v>
       </c>
@@ -9759,7 +9772,7 @@
       <c r="D157" t="s">
         <v>571</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="4">
         <v>17110535000118</v>
       </c>
       <c r="F157" t="s">
@@ -9769,7 +9782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>573</v>
       </c>
@@ -9782,7 +9795,7 @@
       <c r="D158" t="s">
         <v>574</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="4">
         <v>13920834000167</v>
       </c>
       <c r="F158" t="s">
@@ -9792,7 +9805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>576</v>
       </c>
@@ -9805,7 +9818,7 @@
       <c r="D159" t="s">
         <v>577</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="4">
         <v>409627000109</v>
       </c>
       <c r="F159" t="s">
@@ -9815,7 +9828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>579</v>
       </c>
@@ -9828,14 +9841,14 @@
       <c r="D160" t="s">
         <v>580</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="4">
         <v>22772441000144</v>
       </c>
       <c r="G160" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>582</v>
       </c>
@@ -9848,7 +9861,7 @@
       <c r="D161" t="s">
         <v>583</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="4">
         <v>10591778000176</v>
       </c>
       <c r="F161" t="s">
@@ -9858,7 +9871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>585</v>
       </c>
@@ -9871,7 +9884,7 @@
       <c r="D162" t="s">
         <v>588</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="4">
         <v>37509433000187</v>
       </c>
       <c r="F162" t="s">
@@ -9881,7 +9894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>589</v>
       </c>
@@ -9894,7 +9907,7 @@
       <c r="D163" t="s">
         <v>592</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="4">
         <v>5751170000121</v>
       </c>
       <c r="F163" t="s">
@@ -9904,7 +9917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>593</v>
       </c>
@@ -9917,14 +9930,14 @@
       <c r="D164" t="s">
         <v>594</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="4">
         <v>28798345000151</v>
       </c>
       <c r="G164" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>596</v>
       </c>
@@ -9937,7 +9950,7 @@
       <c r="D165" t="s">
         <v>597</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="4">
         <v>16421973000134</v>
       </c>
       <c r="F165" t="s">
@@ -9947,7 +9960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>600</v>
       </c>
@@ -9960,7 +9973,7 @@
       <c r="D166" t="s">
         <v>601</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="4">
         <v>490237000106</v>
       </c>
       <c r="F166" t="s">
@@ -9970,7 +9983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>603</v>
       </c>
@@ -9983,7 +9996,7 @@
       <c r="D167" t="s">
         <v>604</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="4">
         <v>9596993000180</v>
       </c>
       <c r="F167" t="s">
@@ -9993,7 +10006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>606</v>
       </c>
@@ -10006,7 +10019,7 @@
       <c r="D168" t="s">
         <v>607</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="4">
         <v>12476438000120</v>
       </c>
       <c r="F168" t="s">
@@ -10016,7 +10029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>609</v>
       </c>
@@ -10029,7 +10042,7 @@
       <c r="D169" t="s">
         <v>610</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="4">
         <v>8201693000192</v>
       </c>
       <c r="F169" t="s">
@@ -10039,7 +10052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>612</v>
       </c>
@@ -10052,14 +10065,14 @@
       <c r="D170" t="s">
         <v>613</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="4">
         <v>3285570000163</v>
       </c>
       <c r="G170" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>615</v>
       </c>
@@ -10072,7 +10085,7 @@
       <c r="D171" t="s">
         <v>618</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="4">
         <v>4152901000150</v>
       </c>
       <c r="F171" t="s">
@@ -10082,7 +10095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>615</v>
       </c>
@@ -10095,7 +10108,7 @@
       <c r="D172" t="s">
         <v>620</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="4">
         <v>301320000181</v>
       </c>
       <c r="F172" t="s">
@@ -10105,7 +10118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>621</v>
       </c>
@@ -10118,7 +10131,7 @@
       <c r="D173" t="s">
         <v>624</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="4">
         <v>52923219000166</v>
       </c>
       <c r="F173" t="s">
@@ -10128,7 +10141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>625</v>
       </c>
@@ -10141,7 +10154,7 @@
       <c r="D174" t="s">
         <v>626</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="4">
         <v>5261919000152</v>
       </c>
       <c r="F174" t="s">
@@ -10151,7 +10164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>628</v>
       </c>
@@ -10164,7 +10177,7 @@
       <c r="D175" t="s">
         <v>631</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="4">
         <v>9641277000178</v>
       </c>
       <c r="F175" t="s">
@@ -10174,7 +10187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>628</v>
       </c>
@@ -10187,7 +10200,7 @@
       <c r="D176" t="s">
         <v>633</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="4">
         <v>36363894000121</v>
       </c>
       <c r="F176" t="s">
@@ -10197,7 +10210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>634</v>
       </c>
@@ -10210,7 +10223,7 @@
       <c r="D177" t="s">
         <v>635</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="4">
         <v>3723940000105</v>
       </c>
       <c r="F177" t="s">
@@ -10220,7 +10233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>637</v>
       </c>
@@ -10233,7 +10246,7 @@
       <c r="D178" t="s">
         <v>638</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="4">
         <v>20147560000180</v>
       </c>
       <c r="F178" t="s">
@@ -10243,7 +10256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>640</v>
       </c>
@@ -10256,7 +10269,7 @@
       <c r="D179" t="s">
         <v>641</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="4">
         <v>33862392000157</v>
       </c>
       <c r="F179" t="s">
@@ -10266,7 +10279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>643</v>
       </c>
@@ -10279,7 +10292,7 @@
       <c r="D180" t="s">
         <v>644</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="4">
         <v>16962967000275</v>
       </c>
       <c r="F180" t="s">
@@ -10289,7 +10302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>646</v>
       </c>
@@ -10302,7 +10315,7 @@
       <c r="D181" t="s">
         <v>647</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="4">
         <v>12952479000145</v>
       </c>
       <c r="F181" t="s">
@@ -10312,7 +10325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>649</v>
       </c>
@@ -10325,7 +10338,7 @@
       <c r="D182" t="s">
         <v>652</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="4">
         <v>5422489000103</v>
       </c>
       <c r="F182" t="s">
@@ -10335,7 +10348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>649</v>
       </c>
@@ -10348,7 +10361,7 @@
       <c r="D183" t="s">
         <v>654</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="4">
         <v>51814747000114</v>
       </c>
       <c r="F183" t="s">
@@ -10358,7 +10371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>655</v>
       </c>
@@ -10371,14 +10384,14 @@
       <c r="D184" t="s">
         <v>656</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="4">
         <v>58230988000599</v>
       </c>
       <c r="G184" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>658</v>
       </c>
@@ -10391,14 +10404,14 @@
       <c r="D185" t="s">
         <v>659</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="4">
         <v>11284003000110</v>
       </c>
       <c r="G185" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>661</v>
       </c>
@@ -10411,14 +10424,14 @@
       <c r="D186" t="s">
         <v>662</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="4">
         <v>44293496000104</v>
       </c>
       <c r="G186" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>664</v>
       </c>
@@ -10431,7 +10444,7 @@
       <c r="D187" t="s">
         <v>665</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="4">
         <v>20229584000189</v>
       </c>
       <c r="F187" t="s">
@@ -10441,7 +10454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>667</v>
       </c>
@@ -10454,7 +10467,7 @@
       <c r="D188" t="s">
         <v>668</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="4">
         <v>5466057000102</v>
       </c>
       <c r="F188" t="s">
@@ -10464,7 +10477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>671</v>
       </c>
@@ -10477,7 +10490,7 @@
       <c r="D189" t="s">
         <v>674</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="4">
         <v>31672462000189</v>
       </c>
       <c r="F189" t="s">
@@ -10487,7 +10500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>675</v>
       </c>
@@ -10500,14 +10513,14 @@
       <c r="D190" t="s">
         <v>676</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="4">
         <v>19062704000117</v>
       </c>
       <c r="G190" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>678</v>
       </c>
@@ -10520,7 +10533,7 @@
       <c r="D191" t="s">
         <v>679</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="4">
         <v>25213018000100</v>
       </c>
       <c r="F191" t="s">
@@ -10530,7 +10543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>681</v>
       </c>
@@ -10543,14 +10556,14 @@
       <c r="D192" t="s">
         <v>684</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="4">
         <v>2774051000104</v>
       </c>
       <c r="G192" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>686</v>
       </c>
@@ -10563,7 +10576,7 @@
       <c r="D193" t="s">
         <v>687</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="4">
         <v>21231876000119</v>
       </c>
       <c r="F193" t="s">
@@ -10573,7 +10586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>689</v>
       </c>
@@ -10586,14 +10599,14 @@
       <c r="D194" t="s">
         <v>690</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="4">
         <v>13036127000102</v>
       </c>
       <c r="G194" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>692</v>
       </c>
@@ -10606,7 +10619,7 @@
       <c r="D195" t="s">
         <v>695</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="4">
         <v>13724542000159</v>
       </c>
       <c r="F195" t="s">
@@ -10616,7 +10629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>696</v>
       </c>
@@ -10629,14 +10642,14 @@
       <c r="D196" t="s">
         <v>697</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="4">
         <v>60550357000175</v>
       </c>
       <c r="G196" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>699</v>
       </c>
@@ -10649,7 +10662,7 @@
       <c r="D197" t="s">
         <v>700</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="4">
         <v>22960534000100</v>
       </c>
       <c r="F197" t="s">
@@ -10659,7 +10672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>702</v>
       </c>
@@ -10672,7 +10685,7 @@
       <c r="D198" t="s">
         <v>705</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="4">
         <v>45304415000197</v>
       </c>
       <c r="F198" t="s">
@@ -10682,7 +10695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>702</v>
       </c>
@@ -10695,7 +10708,7 @@
       <c r="D199" t="s">
         <v>707</v>
       </c>
-      <c r="E199">
+      <c r="E199" s="4">
         <v>2235010000131</v>
       </c>
       <c r="F199" t="s">
@@ -10705,7 +10718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>708</v>
       </c>
@@ -10718,14 +10731,14 @@
       <c r="D200" t="s">
         <v>709</v>
       </c>
-      <c r="E200">
+      <c r="E200" s="4">
         <v>70151477000153</v>
       </c>
       <c r="G200" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>711</v>
       </c>
@@ -10738,7 +10751,7 @@
       <c r="D201" t="s">
         <v>712</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="4">
         <v>73000747000113</v>
       </c>
       <c r="F201" t="s">
@@ -10748,7 +10761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>714</v>
       </c>
@@ -10761,14 +10774,14 @@
       <c r="D202" t="s">
         <v>715</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="4">
         <v>10902490000175</v>
       </c>
       <c r="G202" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>719</v>
       </c>
@@ -10781,7 +10794,7 @@
       <c r="D203" t="s">
         <v>722</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="4">
         <v>34895162000238</v>
       </c>
       <c r="F203" t="s">
@@ -10791,7 +10804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>719</v>
       </c>
@@ -10804,7 +10817,7 @@
       <c r="D204" t="s">
         <v>724</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="4">
         <v>5857270000137</v>
       </c>
       <c r="F204" t="s">
@@ -10814,7 +10827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>719</v>
       </c>
@@ -10827,7 +10840,7 @@
       <c r="D205" t="s">
         <v>726</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="4">
         <v>8347720000130</v>
       </c>
       <c r="F205" t="s">
@@ -10837,7 +10850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>719</v>
       </c>
@@ -10850,7 +10863,7 @@
       <c r="D206" t="s">
         <v>728</v>
       </c>
-      <c r="E206">
+      <c r="E206" s="4">
         <v>34895162000157</v>
       </c>
       <c r="F206" t="s">
@@ -10860,7 +10873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>731</v>
       </c>
@@ -10873,7 +10886,7 @@
       <c r="D207" t="s">
         <v>734</v>
       </c>
-      <c r="E207">
+      <c r="E207" s="4">
         <v>13083232000100</v>
       </c>
       <c r="F207" t="s">
@@ -10883,7 +10896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>731</v>
       </c>
@@ -10896,7 +10909,7 @@
       <c r="D208" t="s">
         <v>736</v>
       </c>
-      <c r="E208">
+      <c r="E208" s="4">
         <v>51243137000108</v>
       </c>
       <c r="F208" t="s">
@@ -10906,7 +10919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>737</v>
       </c>
@@ -10919,7 +10932,7 @@
       <c r="D209" t="s">
         <v>738</v>
       </c>
-      <c r="E209">
+      <c r="E209" s="4">
         <v>11177273000122</v>
       </c>
       <c r="F209" t="s">
@@ -10929,7 +10942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>740</v>
       </c>
@@ -10942,7 +10955,7 @@
       <c r="D210" t="s">
         <v>741</v>
       </c>
-      <c r="E210">
+      <c r="E210" s="4">
         <v>5005669000190</v>
       </c>
       <c r="F210" t="s">
@@ -10952,7 +10965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>743</v>
       </c>
@@ -10965,7 +10978,7 @@
       <c r="D211" t="s">
         <v>744</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="4">
         <v>992633000123</v>
       </c>
       <c r="F211" t="s">
@@ -10975,7 +10988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>746</v>
       </c>
@@ -10988,7 +11001,7 @@
       <c r="D212" t="s">
         <v>747</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="4">
         <v>34688698000100</v>
       </c>
       <c r="F212" t="s">
@@ -10998,7 +11011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>749</v>
       </c>
@@ -11011,7 +11024,7 @@
       <c r="D213" t="s">
         <v>752</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="4">
         <v>2227407000262</v>
       </c>
       <c r="F213" t="s">
@@ -11021,7 +11034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>749</v>
       </c>
@@ -11034,7 +11047,7 @@
       <c r="D214" t="s">
         <v>754</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="4">
         <v>2227407000181</v>
       </c>
       <c r="F214" t="s">
@@ -11044,7 +11057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>761</v>
       </c>
@@ -11057,7 +11070,7 @@
       <c r="D215" t="s">
         <v>762</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="4">
         <v>8754350000155</v>
       </c>
       <c r="F215" t="s">
@@ -11067,7 +11080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>764</v>
       </c>
@@ -11080,7 +11093,7 @@
       <c r="D216" t="s">
         <v>765</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="4">
         <v>635899000119</v>
       </c>
       <c r="F216" t="s">
@@ -11090,7 +11103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>764</v>
       </c>
@@ -11103,14 +11116,14 @@
       <c r="D217" t="s">
         <v>768</v>
       </c>
-      <c r="E217">
+      <c r="E217" s="4">
         <v>8715680000131</v>
       </c>
       <c r="G217" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>769</v>
       </c>
@@ -11123,7 +11136,7 @@
       <c r="D218" t="s">
         <v>770</v>
       </c>
-      <c r="E218">
+      <c r="E218" s="4">
         <v>42668535000185</v>
       </c>
       <c r="F218" t="s">
@@ -11133,7 +11146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>772</v>
       </c>
@@ -11146,7 +11159,7 @@
       <c r="D219" t="s">
         <v>15</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="4">
         <v>28466203000197</v>
       </c>
       <c r="F219" t="s">
@@ -11156,7 +11169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>774</v>
       </c>
@@ -11169,7 +11182,7 @@
       <c r="D220" t="s">
         <v>775</v>
       </c>
-      <c r="E220">
+      <c r="E220" s="4">
         <v>33314929000144</v>
       </c>
       <c r="F220" t="s">
@@ -11179,7 +11192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>777</v>
       </c>
@@ -11192,7 +11205,7 @@
       <c r="D221" t="s">
         <v>778</v>
       </c>
-      <c r="E221">
+      <c r="E221" s="4">
         <v>26287728000130</v>
       </c>
       <c r="F221" t="s">
@@ -11202,7 +11215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>780</v>
       </c>
@@ -11215,7 +11228,7 @@
       <c r="D222" t="s">
         <v>781</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="4">
         <v>25002155000198</v>
       </c>
       <c r="F222" t="s">
@@ -11225,7 +11238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>783</v>
       </c>
@@ -11238,7 +11251,7 @@
       <c r="D223" t="s">
         <v>784</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="4">
         <v>10831048000103</v>
       </c>
       <c r="F223" t="s">
@@ -11248,7 +11261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>786</v>
       </c>
@@ -11261,7 +11274,7 @@
       <c r="D224" t="s">
         <v>787</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="4">
         <v>5387081000148</v>
       </c>
       <c r="F224" t="s">
@@ -11271,7 +11284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>789</v>
       </c>
@@ -11284,7 +11297,7 @@
       <c r="D225" t="s">
         <v>790</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="4">
         <v>23838241000100</v>
       </c>
       <c r="F225" t="s">
@@ -11294,7 +11307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>792</v>
       </c>
@@ -11307,14 +11320,14 @@
       <c r="D226" t="s">
         <v>795</v>
       </c>
-      <c r="E226">
+      <c r="E226" s="4">
         <v>11894103000169</v>
       </c>
       <c r="G226" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>796</v>
       </c>
@@ -11327,14 +11340,14 @@
       <c r="D227" t="s">
         <v>799</v>
       </c>
-      <c r="E227">
+      <c r="E227" s="4">
         <v>7691359000100</v>
       </c>
       <c r="G227" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>800</v>
       </c>
@@ -11347,14 +11360,14 @@
       <c r="D228" t="s">
         <v>803</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="4">
         <v>3806618000131</v>
       </c>
       <c r="G228" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>804</v>
       </c>
@@ -11367,14 +11380,14 @@
       <c r="D229" t="s">
         <v>807</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="4">
         <v>17744801000164</v>
       </c>
       <c r="G229" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>808</v>
       </c>
@@ -11387,7 +11400,7 @@
       <c r="D230" t="s">
         <v>811</v>
       </c>
-      <c r="E230">
+      <c r="E230" s="4">
         <v>23693676000103</v>
       </c>
       <c r="F230" t="s">
@@ -11397,7 +11410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>812</v>
       </c>
@@ -11410,7 +11423,7 @@
       <c r="D231" t="s">
         <v>813</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="4">
         <v>2421276000179</v>
       </c>
       <c r="F231" t="s">
@@ -11420,7 +11433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>815</v>
       </c>
@@ -11433,7 +11446,7 @@
       <c r="D232" t="s">
         <v>818</v>
       </c>
-      <c r="E232">
+      <c r="E232" s="4">
         <v>26383824000181</v>
       </c>
       <c r="F232" t="s">
@@ -11443,7 +11456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>815</v>
       </c>
@@ -11456,7 +11469,7 @@
       <c r="D233" t="s">
         <v>24</v>
       </c>
-      <c r="E233">
+      <c r="E233" s="4">
         <v>26383824000181</v>
       </c>
       <c r="F233" t="s">
@@ -11466,7 +11479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>831</v>
       </c>
@@ -11479,7 +11492,7 @@
       <c r="D234" t="s">
         <v>832</v>
       </c>
-      <c r="E234">
+      <c r="E234" s="4">
         <v>72140700000192</v>
       </c>
       <c r="F234" t="s">
@@ -11489,7 +11502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>834</v>
       </c>
@@ -11502,7 +11515,7 @@
       <c r="D235" t="s">
         <v>835</v>
       </c>
-      <c r="E235">
+      <c r="E235" s="4">
         <v>23439693000119</v>
       </c>
       <c r="F235" t="s">
@@ -11512,7 +11525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>837</v>
       </c>
@@ -11525,7 +11538,7 @@
       <c r="D236" t="s">
         <v>838</v>
       </c>
-      <c r="E236">
+      <c r="E236" s="4">
         <v>5951513000100</v>
       </c>
       <c r="F236" t="s">
@@ -11535,7 +11548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>840</v>
       </c>
@@ -11548,7 +11561,7 @@
       <c r="D237" t="s">
         <v>16</v>
       </c>
-      <c r="E237">
+      <c r="E237" s="4">
         <v>10430184000183</v>
       </c>
       <c r="F237" t="s">
@@ -11558,7 +11571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>843</v>
       </c>
@@ -11571,7 +11584,7 @@
       <c r="D238" t="s">
         <v>844</v>
       </c>
-      <c r="E238">
+      <c r="E238" s="4">
         <v>50792704000112</v>
       </c>
       <c r="F238" t="s">
@@ -11581,7 +11594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>846</v>
       </c>
@@ -11594,14 +11607,14 @@
       <c r="D239" t="s">
         <v>847</v>
       </c>
-      <c r="E239">
+      <c r="E239" s="4">
         <v>32980959000127</v>
       </c>
       <c r="G239" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>849</v>
       </c>
@@ -11614,7 +11627,7 @@
       <c r="D240" t="s">
         <v>850</v>
       </c>
-      <c r="E240">
+      <c r="E240" s="4">
         <v>97523370000145</v>
       </c>
       <c r="F240" t="s">
@@ -11624,7 +11637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>852</v>
       </c>
@@ -11637,7 +11650,7 @@
       <c r="D241" t="s">
         <v>855</v>
       </c>
-      <c r="E241">
+      <c r="E241" s="4">
         <v>8672838000133</v>
       </c>
       <c r="F241" t="s">
@@ -11647,7 +11660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>860</v>
       </c>
@@ -11660,7 +11673,7 @@
       <c r="D242" t="s">
         <v>861</v>
       </c>
-      <c r="E242">
+      <c r="E242" s="4">
         <v>69896439000140</v>
       </c>
       <c r="F242" t="s">
@@ -11683,7 +11696,7 @@
       <c r="D243" t="s">
         <v>864</v>
       </c>
-      <c r="E243">
+      <c r="E243" s="4">
         <v>35448810000190</v>
       </c>
       <c r="F243" t="s">
@@ -11693,7 +11706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>866</v>
       </c>
@@ -11706,7 +11719,7 @@
       <c r="D244" t="s">
         <v>867</v>
       </c>
-      <c r="E244">
+      <c r="E244" s="4">
         <v>6737746000169</v>
       </c>
       <c r="F244" t="s">
@@ -11716,7 +11729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>869</v>
       </c>
@@ -11729,14 +11742,14 @@
       <c r="D245" t="s">
         <v>870</v>
       </c>
-      <c r="E245">
+      <c r="E245" s="4">
         <v>10822072000178</v>
       </c>
       <c r="G245" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>872</v>
       </c>
@@ -11749,7 +11762,7 @@
       <c r="D246" t="s">
         <v>873</v>
       </c>
-      <c r="E246">
+      <c r="E246" s="4">
         <v>7395381000102</v>
       </c>
       <c r="F246" t="s">
@@ -11759,7 +11772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>875</v>
       </c>
@@ -11772,7 +11785,7 @@
       <c r="D247" t="s">
         <v>878</v>
       </c>
-      <c r="E247">
+      <c r="E247" s="4">
         <v>32318603000122</v>
       </c>
       <c r="F247" t="s">
@@ -11782,7 +11795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>879</v>
       </c>
@@ -11795,7 +11808,7 @@
       <c r="D248" t="s">
         <v>882</v>
       </c>
-      <c r="E248">
+      <c r="E248" s="4">
         <v>4497695000110</v>
       </c>
       <c r="F248" t="s">
@@ -11805,7 +11818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>883</v>
       </c>
@@ -11818,14 +11831,14 @@
       <c r="D249" t="s">
         <v>884</v>
       </c>
-      <c r="E249">
+      <c r="E249" s="4">
         <v>11265407000167</v>
       </c>
       <c r="G249" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>886</v>
       </c>
@@ -11838,7 +11851,7 @@
       <c r="D250" t="s">
         <v>887</v>
       </c>
-      <c r="E250">
+      <c r="E250" s="4">
         <v>4132552000104</v>
       </c>
       <c r="F250" t="s">
@@ -11848,7 +11861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>889</v>
       </c>
@@ -11861,14 +11874,14 @@
       <c r="D251" t="s">
         <v>892</v>
       </c>
-      <c r="E251">
+      <c r="E251" s="4">
         <v>3766692000171</v>
       </c>
       <c r="G251" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>893</v>
       </c>
@@ -11881,7 +11894,7 @@
       <c r="D252" t="s">
         <v>896</v>
       </c>
-      <c r="E252">
+      <c r="E252" s="4">
         <v>8281595000102</v>
       </c>
       <c r="F252" t="s">
@@ -11891,7 +11904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>897</v>
       </c>
@@ -11904,7 +11917,7 @@
       <c r="D253" t="s">
         <v>898</v>
       </c>
-      <c r="E253">
+      <c r="E253" s="4">
         <v>51797678000188</v>
       </c>
       <c r="F253" t="s">
@@ -11914,7 +11927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>900</v>
       </c>
@@ -11927,7 +11940,7 @@
       <c r="D254" t="s">
         <v>901</v>
       </c>
-      <c r="E254">
+      <c r="E254" s="4">
         <v>63216972000138</v>
       </c>
       <c r="F254" t="s">
@@ -11937,7 +11950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>903</v>
       </c>
@@ -11950,14 +11963,14 @@
       <c r="D255" t="s">
         <v>904</v>
       </c>
-      <c r="E255">
+      <c r="E255" s="4">
         <v>552766000189</v>
       </c>
       <c r="G255" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>906</v>
       </c>
@@ -11970,7 +11983,7 @@
       <c r="D256" t="s">
         <v>907</v>
       </c>
-      <c r="E256">
+      <c r="E256" s="4">
         <v>19606829000160</v>
       </c>
       <c r="F256" t="s">
@@ -11980,7 +11993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>909</v>
       </c>
@@ -11993,14 +12006,14 @@
       <c r="D257" t="s">
         <v>912</v>
       </c>
-      <c r="E257">
+      <c r="E257" s="4">
         <v>26570855000141</v>
       </c>
       <c r="G257" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>913</v>
       </c>
@@ -12013,14 +12026,14 @@
       <c r="D258" t="s">
         <v>914</v>
       </c>
-      <c r="E258">
+      <c r="E258" s="4">
         <v>3596299000187</v>
       </c>
       <c r="G258" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>916</v>
       </c>
@@ -12033,7 +12046,7 @@
       <c r="D259" t="s">
         <v>917</v>
       </c>
-      <c r="E259">
+      <c r="E259" s="4">
         <v>5121569000129</v>
       </c>
       <c r="F259" t="s">
@@ -12043,7 +12056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>919</v>
       </c>
@@ -12056,14 +12069,14 @@
       <c r="D260" t="s">
         <v>922</v>
       </c>
-      <c r="E260">
+      <c r="E260" s="4">
         <v>15522187000160</v>
       </c>
       <c r="G260" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>923</v>
       </c>
@@ -12076,7 +12089,7 @@
       <c r="D261" t="s">
         <v>924</v>
       </c>
-      <c r="E261">
+      <c r="E261" s="4">
         <v>41182015000103</v>
       </c>
       <c r="F261" t="s">
@@ -12086,7 +12099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>926</v>
       </c>
@@ -12099,7 +12112,7 @@
       <c r="D262" t="s">
         <v>927</v>
       </c>
-      <c r="E262">
+      <c r="E262" s="4">
         <v>79322343000122</v>
       </c>
       <c r="F262" t="s">
@@ -12109,7 +12122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>929</v>
       </c>
@@ -12122,7 +12135,7 @@
       <c r="D263" t="s">
         <v>930</v>
       </c>
-      <c r="E263">
+      <c r="E263" s="4">
         <v>30634685000199</v>
       </c>
       <c r="F263" t="s">
@@ -12132,7 +12145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>932</v>
       </c>
@@ -12145,14 +12158,14 @@
       <c r="D264" t="s">
         <v>933</v>
       </c>
-      <c r="E264">
+      <c r="E264" s="4">
         <v>4642335000164</v>
       </c>
       <c r="G264" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>935</v>
       </c>
@@ -12165,7 +12178,7 @@
       <c r="D265" t="s">
         <v>938</v>
       </c>
-      <c r="E265">
+      <c r="E265" s="4">
         <v>15129921000126</v>
       </c>
       <c r="F265" t="s">
@@ -12175,7 +12188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>939</v>
       </c>
@@ -12188,14 +12201,14 @@
       <c r="D266" t="s">
         <v>940</v>
       </c>
-      <c r="E266">
+      <c r="E266" s="4">
         <v>14433245000117</v>
       </c>
       <c r="G266" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>942</v>
       </c>
@@ -12208,14 +12221,14 @@
       <c r="D267" t="s">
         <v>943</v>
       </c>
-      <c r="E267">
+      <c r="E267" s="4">
         <v>27219393000185</v>
       </c>
       <c r="G267" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>945</v>
       </c>
@@ -12228,14 +12241,14 @@
       <c r="D268" t="s">
         <v>946</v>
       </c>
-      <c r="E268">
+      <c r="E268" s="4">
         <v>33553975000104</v>
       </c>
       <c r="G268" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>948</v>
       </c>
@@ -12248,14 +12261,14 @@
       <c r="D269" t="s">
         <v>949</v>
       </c>
-      <c r="E269">
+      <c r="E269" s="4">
         <v>25240978000151</v>
       </c>
       <c r="G269" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>951</v>
       </c>
@@ -12268,7 +12281,7 @@
       <c r="D270" t="s">
         <v>952</v>
       </c>
-      <c r="E270">
+      <c r="E270" s="4">
         <v>1805095000264</v>
       </c>
       <c r="F270" t="s">
@@ -12278,7 +12291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>954</v>
       </c>
@@ -12291,7 +12304,7 @@
       <c r="D271" t="s">
         <v>955</v>
       </c>
-      <c r="E271">
+      <c r="E271" s="4">
         <v>1805095000183</v>
       </c>
       <c r="F271" t="s">
@@ -12301,7 +12314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>957</v>
       </c>
@@ -12314,7 +12327,7 @@
       <c r="D272" t="s">
         <v>958</v>
       </c>
-      <c r="E272">
+      <c r="E272" s="4">
         <v>23901342000188</v>
       </c>
       <c r="F272" t="s">
@@ -12324,7 +12337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>960</v>
       </c>
@@ -12337,14 +12350,14 @@
       <c r="D273" t="s">
         <v>961</v>
       </c>
-      <c r="E273">
+      <c r="E273" s="4">
         <v>3411943000103</v>
       </c>
       <c r="G273" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>963</v>
       </c>
@@ -12357,14 +12370,14 @@
       <c r="D274" t="s">
         <v>966</v>
       </c>
-      <c r="E274">
+      <c r="E274" s="4">
         <v>24207268000167</v>
       </c>
       <c r="G274" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>967</v>
       </c>
@@ -12377,7 +12390,7 @@
       <c r="D275" t="s">
         <v>968</v>
       </c>
-      <c r="E275">
+      <c r="E275" s="4">
         <v>4768001000131</v>
       </c>
       <c r="F275" t="s">
@@ -12387,7 +12400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>970</v>
       </c>
@@ -12400,7 +12413,7 @@
       <c r="D276" t="s">
         <v>971</v>
       </c>
-      <c r="E276">
+      <c r="E276" s="4">
         <v>626497000158</v>
       </c>
       <c r="F276" t="s">
@@ -12410,7 +12423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>973</v>
       </c>
@@ -12423,14 +12436,14 @@
       <c r="D277" t="s">
         <v>974</v>
       </c>
-      <c r="E277">
+      <c r="E277" s="4">
         <v>7633526000158</v>
       </c>
       <c r="G277" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>976</v>
       </c>
@@ -12443,7 +12456,7 @@
       <c r="D278" t="s">
         <v>977</v>
       </c>
-      <c r="E278">
+      <c r="E278" s="4">
         <v>29279335000172</v>
       </c>
       <c r="F278" t="s">
@@ -12453,7 +12466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>979</v>
       </c>
@@ -12466,7 +12479,7 @@
       <c r="D279" t="s">
         <v>982</v>
       </c>
-      <c r="E279">
+      <c r="E279" s="4">
         <v>8624001000119</v>
       </c>
       <c r="F279" t="s">
@@ -12476,7 +12489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>983</v>
       </c>
@@ -12489,7 +12502,7 @@
       <c r="D280" t="s">
         <v>986</v>
       </c>
-      <c r="E280">
+      <c r="E280" s="4">
         <v>21965924000100</v>
       </c>
       <c r="F280" t="s">
@@ -12499,7 +12512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>987</v>
       </c>
@@ -12512,14 +12525,14 @@
       <c r="D281" t="s">
         <v>988</v>
       </c>
-      <c r="E281">
+      <c r="E281" s="4">
         <v>2160719000115</v>
       </c>
       <c r="G281" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>991</v>
       </c>
@@ -12532,7 +12545,7 @@
       <c r="D282" t="s">
         <v>992</v>
       </c>
-      <c r="E282">
+      <c r="E282" s="4">
         <v>3342603000160</v>
       </c>
       <c r="F282" t="s">
@@ -12542,7 +12555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>994</v>
       </c>
@@ -12555,14 +12568,14 @@
       <c r="D283" t="s">
         <v>995</v>
       </c>
-      <c r="E283">
+      <c r="E283" s="4">
         <v>32050476000123</v>
       </c>
       <c r="G283" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>997</v>
       </c>
@@ -12575,14 +12588,14 @@
       <c r="D284" t="s">
         <v>998</v>
       </c>
-      <c r="E284">
+      <c r="E284" s="4">
         <v>2726847000183</v>
       </c>
       <c r="G284" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1000</v>
       </c>
@@ -12595,14 +12608,14 @@
       <c r="D285" t="s">
         <v>1001</v>
       </c>
-      <c r="E285">
+      <c r="E285" s="4">
         <v>12794795000136</v>
       </c>
       <c r="G285" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1003</v>
       </c>
@@ -12615,7 +12628,7 @@
       <c r="D286" t="s">
         <v>1004</v>
       </c>
-      <c r="E286">
+      <c r="E286" s="4">
         <v>78575156000198</v>
       </c>
       <c r="F286" t="s">
@@ -12625,7 +12638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1006</v>
       </c>
@@ -12638,14 +12651,14 @@
       <c r="D287" t="s">
         <v>1007</v>
       </c>
-      <c r="E287">
+      <c r="E287" s="4">
         <v>3511616000115</v>
       </c>
       <c r="G287" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1009</v>
       </c>
@@ -12658,7 +12671,7 @@
       <c r="D288" t="s">
         <v>1010</v>
       </c>
-      <c r="E288">
+      <c r="E288" s="4">
         <v>7764667000100</v>
       </c>
       <c r="F288" t="s">
@@ -12668,7 +12681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1013</v>
       </c>
@@ -12681,7 +12694,7 @@
       <c r="D289" t="s">
         <v>1014</v>
       </c>
-      <c r="E289">
+      <c r="E289" s="4">
         <v>31304911000136</v>
       </c>
       <c r="F289" t="s">
@@ -12691,7 +12704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1016</v>
       </c>
@@ -12704,14 +12717,14 @@
       <c r="D290" t="s">
         <v>1017</v>
       </c>
-      <c r="E290">
+      <c r="E290" s="4">
         <v>26714422000112</v>
       </c>
       <c r="G290" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1020</v>
       </c>
@@ -12724,7 +12737,7 @@
       <c r="D291" t="s">
         <v>1023</v>
       </c>
-      <c r="E291">
+      <c r="E291" s="4">
         <v>11535923000164</v>
       </c>
       <c r="F291" t="s">
@@ -12734,7 +12747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1034</v>
       </c>
@@ -12747,7 +12760,7 @@
       <c r="D292" t="s">
         <v>1035</v>
       </c>
-      <c r="E292">
+      <c r="E292" s="4">
         <v>7086651000195</v>
       </c>
       <c r="F292" t="s">
@@ -12757,7 +12770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1040</v>
       </c>
@@ -12770,7 +12783,7 @@
       <c r="D293" t="s">
         <v>1041</v>
       </c>
-      <c r="E293">
+      <c r="E293" s="4">
         <v>44580130000116</v>
       </c>
       <c r="F293" t="s">
@@ -12780,7 +12793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1043</v>
       </c>
@@ -12793,7 +12806,7 @@
       <c r="D294" t="s">
         <v>1044</v>
       </c>
-      <c r="E294">
+      <c r="E294" s="4">
         <v>26383369000114</v>
       </c>
       <c r="F294" t="s">
@@ -12803,7 +12816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1046</v>
       </c>
@@ -12816,7 +12829,7 @@
       <c r="D295" t="s">
         <v>1047</v>
       </c>
-      <c r="E295">
+      <c r="E295" s="4">
         <v>430222000144</v>
       </c>
       <c r="F295" t="s">
@@ -12826,7 +12839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1049</v>
       </c>
@@ -12839,14 +12852,14 @@
       <c r="D296" t="s">
         <v>1052</v>
       </c>
-      <c r="E296">
+      <c r="E296" s="4">
         <v>28849342000604</v>
       </c>
       <c r="G296" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1049</v>
       </c>
@@ -12859,14 +12872,14 @@
       <c r="D297" t="s">
         <v>1054</v>
       </c>
-      <c r="E297">
+      <c r="E297" s="4">
         <v>28849342000523</v>
       </c>
       <c r="G297" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1049</v>
       </c>
@@ -12879,7 +12892,7 @@
       <c r="D298" t="s">
         <v>1056</v>
       </c>
-      <c r="E298">
+      <c r="E298" s="4">
         <v>28849342000108</v>
       </c>
       <c r="F298" t="s">
@@ -12889,7 +12902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1049</v>
       </c>
@@ -12902,14 +12915,14 @@
       <c r="D299" t="s">
         <v>1058</v>
       </c>
-      <c r="E299">
+      <c r="E299" s="4">
         <v>33919761001334</v>
       </c>
       <c r="G299" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1049</v>
       </c>
@@ -12922,14 +12935,14 @@
       <c r="D300" t="s">
         <v>1060</v>
       </c>
-      <c r="E300">
+      <c r="E300" s="4">
         <v>39428431000199</v>
       </c>
       <c r="G300" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1061</v>
       </c>
@@ -12942,7 +12955,7 @@
       <c r="D301" t="s">
         <v>1062</v>
       </c>
-      <c r="E301">
+      <c r="E301" s="4">
         <v>23141033000157</v>
       </c>
       <c r="F301" t="s">
@@ -12952,7 +12965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1064</v>
       </c>
@@ -12965,14 +12978,14 @@
       <c r="D302" t="s">
         <v>1065</v>
       </c>
-      <c r="E302">
+      <c r="E302" s="4">
         <v>39181433000126</v>
       </c>
       <c r="G302" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1067</v>
       </c>
@@ -12985,14 +12998,14 @@
       <c r="D303" t="s">
         <v>1068</v>
       </c>
-      <c r="E303">
+      <c r="E303" s="4">
         <v>33171765000143</v>
       </c>
       <c r="G303" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1070</v>
       </c>
@@ -13005,14 +13018,14 @@
       <c r="D304" t="s">
         <v>1071</v>
       </c>
-      <c r="E304">
+      <c r="E304" s="4">
         <v>12454262000105</v>
       </c>
       <c r="G304" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1073</v>
       </c>
@@ -13025,7 +13038,7 @@
       <c r="D305" t="s">
         <v>1074</v>
       </c>
-      <c r="E305">
+      <c r="E305" s="4">
         <v>76591718000161</v>
       </c>
       <c r="F305" t="s">
@@ -13035,7 +13048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1077</v>
       </c>
@@ -13048,7 +13061,7 @@
       <c r="D306" t="s">
         <v>1078</v>
       </c>
-      <c r="E306">
+      <c r="E306" s="4">
         <v>28968311000168</v>
       </c>
       <c r="F306" t="s">
@@ -13058,7 +13071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1081</v>
       </c>
@@ -13071,14 +13084,14 @@
       <c r="D307" t="s">
         <v>1082</v>
       </c>
-      <c r="E307">
+      <c r="E307" s="4">
         <v>31197815000136</v>
       </c>
       <c r="G307" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1084</v>
       </c>
@@ -13091,7 +13104,7 @@
       <c r="D308" t="s">
         <v>1085</v>
       </c>
-      <c r="E308">
+      <c r="E308" s="4">
         <v>45366200000109</v>
       </c>
       <c r="F308" t="s">
@@ -13101,7 +13114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1087</v>
       </c>
@@ -13114,7 +13127,7 @@
       <c r="D309" t="s">
         <v>1088</v>
       </c>
-      <c r="E309">
+      <c r="E309" s="4">
         <v>33789058000115</v>
       </c>
       <c r="F309" t="s">
@@ -13124,7 +13137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1090</v>
       </c>
@@ -13137,14 +13150,14 @@
       <c r="D310" t="s">
         <v>1091</v>
       </c>
-      <c r="E310">
+      <c r="E310" s="4">
         <v>2780329000148</v>
       </c>
       <c r="G310" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1093</v>
       </c>
@@ -13157,7 +13170,7 @@
       <c r="D311" t="s">
         <v>1096</v>
       </c>
-      <c r="E311">
+      <c r="E311" s="4">
         <v>44449709000144</v>
       </c>
       <c r="F311" t="s">
@@ -13167,7 +13180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1097</v>
       </c>
@@ -13180,7 +13193,7 @@
       <c r="D312" t="s">
         <v>1098</v>
       </c>
-      <c r="E312">
+      <c r="E312" s="4">
         <v>80810484000173</v>
       </c>
       <c r="F312" t="s">
@@ -13190,7 +13203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1100</v>
       </c>
@@ -13203,7 +13216,7 @@
       <c r="D313" t="s">
         <v>1101</v>
       </c>
-      <c r="E313">
+      <c r="E313" s="4">
         <v>45344021000162</v>
       </c>
       <c r="F313" t="s">
@@ -13213,7 +13226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1103</v>
       </c>
@@ -13226,7 +13239,7 @@
       <c r="D314" t="s">
         <v>1104</v>
       </c>
-      <c r="E314">
+      <c r="E314" s="4">
         <v>8174971000160</v>
       </c>
       <c r="F314" t="s">
@@ -13236,7 +13249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1106</v>
       </c>
@@ -13249,14 +13262,14 @@
       <c r="D315" t="s">
         <v>1109</v>
       </c>
-      <c r="E315">
+      <c r="E315" s="4">
         <v>7970492000197</v>
       </c>
       <c r="G315" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1110</v>
       </c>
@@ -13269,7 +13282,7 @@
       <c r="D316" t="s">
         <v>1113</v>
       </c>
-      <c r="E316">
+      <c r="E316" s="4">
         <v>3603595005801</v>
       </c>
       <c r="F316" t="s">
@@ -13279,7 +13292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1110</v>
       </c>
@@ -13292,7 +13305,7 @@
       <c r="D317" t="s">
         <v>1115</v>
       </c>
-      <c r="E317">
+      <c r="E317" s="4">
         <v>3603595001130</v>
       </c>
       <c r="F317" t="s">
@@ -13302,7 +13315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1110</v>
       </c>
@@ -13315,7 +13328,7 @@
       <c r="D318" t="s">
         <v>1117</v>
       </c>
-      <c r="E318">
+      <c r="E318" s="4">
         <v>3603595001644</v>
       </c>
       <c r="F318" t="s">
@@ -13325,7 +13338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1110</v>
       </c>
@@ -13338,7 +13351,7 @@
       <c r="D319" t="s">
         <v>1119</v>
       </c>
-      <c r="E319">
+      <c r="E319" s="4">
         <v>3603595001806</v>
       </c>
       <c r="F319" t="s">
@@ -13348,7 +13361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1110</v>
       </c>
@@ -13361,7 +13374,7 @@
       <c r="D320" t="s">
         <v>1121</v>
       </c>
-      <c r="E320">
+      <c r="E320" s="4">
         <v>3603595000834</v>
       </c>
       <c r="F320" t="s">
@@ -13371,7 +13384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1110</v>
       </c>
@@ -13384,7 +13397,7 @@
       <c r="D321" t="s">
         <v>1123</v>
       </c>
-      <c r="E321">
+      <c r="E321" s="4">
         <v>3603595003930</v>
       </c>
       <c r="F321" t="s">
@@ -13394,7 +13407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1110</v>
       </c>
@@ -13407,7 +13420,7 @@
       <c r="D322" t="s">
         <v>1125</v>
       </c>
-      <c r="E322">
+      <c r="E322" s="4">
         <v>3603595000168</v>
       </c>
       <c r="F322" t="s">
@@ -13417,7 +13430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1110</v>
       </c>
@@ -13430,7 +13443,7 @@
       <c r="D323" t="s">
         <v>1127</v>
       </c>
-      <c r="E323">
+      <c r="E323" s="4">
         <v>3603595001300</v>
       </c>
       <c r="F323" t="s">
@@ -13440,7 +13453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1110</v>
       </c>
@@ -13453,7 +13466,7 @@
       <c r="D324" t="s">
         <v>1129</v>
       </c>
-      <c r="E324">
+      <c r="E324" s="4">
         <v>3603595002020</v>
       </c>
       <c r="F324" t="s">
@@ -13463,7 +13476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1110</v>
       </c>
@@ -13476,7 +13489,7 @@
       <c r="D325" t="s">
         <v>1131</v>
       </c>
-      <c r="E325">
+      <c r="E325" s="4">
         <v>3603595001997</v>
       </c>
       <c r="F325" t="s">
@@ -13486,7 +13499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1110</v>
       </c>
@@ -13499,7 +13512,7 @@
       <c r="D326" t="s">
         <v>1133</v>
       </c>
-      <c r="E326">
+      <c r="E326" s="4">
         <v>3603595001482</v>
       </c>
       <c r="F326" t="s">
@@ -13509,7 +13522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1110</v>
       </c>
@@ -13522,7 +13535,7 @@
       <c r="D327" t="s">
         <v>1135</v>
       </c>
-      <c r="E327">
+      <c r="E327" s="4">
         <v>3603595005470</v>
       </c>
       <c r="F327" t="s">
@@ -13532,7 +13545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1110</v>
       </c>
@@ -13545,7 +13558,7 @@
       <c r="D328" t="s">
         <v>1137</v>
       </c>
-      <c r="E328">
+      <c r="E328" s="4">
         <v>3603595001210</v>
       </c>
       <c r="F328" t="s">
@@ -13555,7 +13568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1110</v>
       </c>
@@ -13568,7 +13581,7 @@
       <c r="D329" t="s">
         <v>1139</v>
       </c>
-      <c r="E329">
+      <c r="E329" s="4">
         <v>3603595006956</v>
       </c>
       <c r="F329" t="s">
@@ -13578,7 +13591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1110</v>
       </c>
@@ -13591,7 +13604,7 @@
       <c r="D330" t="s">
         <v>1141</v>
       </c>
-      <c r="E330">
+      <c r="E330" s="4">
         <v>3603595004740</v>
       </c>
       <c r="F330" t="s">
@@ -13601,7 +13614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1110</v>
       </c>
@@ -13614,7 +13627,7 @@
       <c r="D331" t="s">
         <v>1143</v>
       </c>
-      <c r="E331">
+      <c r="E331" s="4">
         <v>3603595001725</v>
       </c>
       <c r="F331" t="s">
@@ -13624,7 +13637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1144</v>
       </c>
@@ -13637,7 +13650,7 @@
       <c r="D332" t="s">
         <v>1145</v>
       </c>
-      <c r="E332">
+      <c r="E332" s="4">
         <v>15336255000288</v>
       </c>
       <c r="F332" t="s">
@@ -13647,7 +13660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1147</v>
       </c>
@@ -13660,7 +13673,7 @@
       <c r="D333" t="s">
         <v>1148</v>
       </c>
-      <c r="E333">
+      <c r="E333" s="4">
         <v>26364541000192</v>
       </c>
       <c r="F333" t="s">
@@ -13670,7 +13683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1150</v>
       </c>
@@ -13683,14 +13696,14 @@
       <c r="D334" t="s">
         <v>1151</v>
       </c>
-      <c r="E334">
+      <c r="E334" s="4">
         <v>30722663000180</v>
       </c>
       <c r="G334" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1153</v>
       </c>
@@ -13703,7 +13716,7 @@
       <c r="D335" t="s">
         <v>1154</v>
       </c>
-      <c r="E335">
+      <c r="E335" s="4">
         <v>325607000141</v>
       </c>
       <c r="F335" t="s">
@@ -13713,7 +13726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1157</v>
       </c>
@@ -13726,7 +13739,7 @@
       <c r="D336" t="s">
         <v>1158</v>
       </c>
-      <c r="E336">
+      <c r="E336" s="4">
         <v>4149320000169</v>
       </c>
       <c r="F336" t="s">
@@ -13736,7 +13749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1160</v>
       </c>
@@ -13749,7 +13762,7 @@
       <c r="D337" t="s">
         <v>1161</v>
       </c>
-      <c r="E337">
+      <c r="E337" s="4">
         <v>5659581000191</v>
       </c>
       <c r="F337" t="s">
@@ -13759,7 +13772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1163</v>
       </c>
@@ -13772,7 +13785,7 @@
       <c r="D338" t="s">
         <v>1164</v>
       </c>
-      <c r="E338">
+      <c r="E338" s="4">
         <v>1238496000107</v>
       </c>
       <c r="F338" t="s">
@@ -13782,7 +13795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1166</v>
       </c>
@@ -13795,7 +13808,7 @@
       <c r="D339" t="s">
         <v>1169</v>
       </c>
-      <c r="E339">
+      <c r="E339" s="4">
         <v>10489592000100</v>
       </c>
       <c r="F339" t="s">
@@ -13805,7 +13818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1166</v>
       </c>
@@ -13818,7 +13831,7 @@
       <c r="D340" t="s">
         <v>1171</v>
       </c>
-      <c r="E340">
+      <c r="E340" s="4">
         <v>10489592000291</v>
       </c>
       <c r="F340" t="s">
@@ -13828,7 +13841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1172</v>
       </c>
@@ -13841,7 +13854,7 @@
       <c r="D341" t="s">
         <v>1175</v>
       </c>
-      <c r="E341">
+      <c r="E341" s="4">
         <v>5276177000139</v>
       </c>
       <c r="F341" t="s">
@@ -13851,7 +13864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1176</v>
       </c>
@@ -13864,7 +13877,7 @@
       <c r="D342" t="s">
         <v>1178</v>
       </c>
-      <c r="E342">
+      <c r="E342" s="4">
         <v>2156364000190</v>
       </c>
       <c r="F342" t="s">
@@ -13874,7 +13887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1179</v>
       </c>
@@ -13887,7 +13900,7 @@
       <c r="D343" t="s">
         <v>1180</v>
       </c>
-      <c r="E343">
+      <c r="E343" s="4">
         <v>15013642000100</v>
       </c>
       <c r="F343" t="s">
@@ -13897,7 +13910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1182</v>
       </c>
@@ -13910,7 +13923,7 @@
       <c r="D344" t="s">
         <v>1183</v>
       </c>
-      <c r="E344">
+      <c r="E344" s="4">
         <v>8627306000184</v>
       </c>
       <c r="F344" t="s">
@@ -13920,7 +13933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1186</v>
       </c>
@@ -13933,7 +13946,7 @@
       <c r="D345" t="s">
         <v>1187</v>
       </c>
-      <c r="E345">
+      <c r="E345" s="4">
         <v>9309337000150</v>
       </c>
       <c r="F345" t="s">
@@ -13943,7 +13956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1192</v>
       </c>
@@ -13956,7 +13969,7 @@
       <c r="D346" t="s">
         <v>1193</v>
       </c>
-      <c r="E346">
+      <c r="E346" s="4">
         <v>26859540000119</v>
       </c>
       <c r="F346" t="s">
@@ -13966,7 +13979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1195</v>
       </c>
@@ -13979,7 +13992,7 @@
       <c r="D347" t="s">
         <v>1196</v>
       </c>
-      <c r="E347">
+      <c r="E347" s="4">
         <v>10497017000150</v>
       </c>
       <c r="F347" t="s">
@@ -13989,7 +14002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1198</v>
       </c>
@@ -14002,14 +14015,14 @@
       <c r="D348" t="s">
         <v>1201</v>
       </c>
-      <c r="E348">
+      <c r="E348" s="4">
         <v>564809000146</v>
       </c>
       <c r="G348" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1203</v>
       </c>
@@ -14022,7 +14035,7 @@
       <c r="D349" t="s">
         <v>1206</v>
       </c>
-      <c r="E349">
+      <c r="E349" s="4">
         <v>3847116000159</v>
       </c>
       <c r="F349" t="s">
@@ -14032,7 +14045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1207</v>
       </c>
@@ -14045,14 +14058,14 @@
       <c r="D350" t="s">
         <v>1208</v>
       </c>
-      <c r="E350">
+      <c r="E350" s="4">
         <v>13911099000125</v>
       </c>
       <c r="G350" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1210</v>
       </c>
@@ -14065,14 +14078,14 @@
       <c r="D351" t="s">
         <v>1211</v>
       </c>
-      <c r="E351">
+      <c r="E351" s="4">
         <v>2826656000193</v>
       </c>
       <c r="G351" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1213</v>
       </c>
@@ -14085,7 +14098,7 @@
       <c r="D352" t="s">
         <v>1216</v>
       </c>
-      <c r="E352">
+      <c r="E352" s="4">
         <v>7371069000170</v>
       </c>
       <c r="F352" t="s">
@@ -14095,7 +14108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1217</v>
       </c>
@@ -14108,7 +14121,7 @@
       <c r="D353" t="s">
         <v>1218</v>
       </c>
-      <c r="E353">
+      <c r="E353" s="4">
         <v>24242477000222</v>
       </c>
       <c r="F353" t="s">
@@ -14118,7 +14131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1220</v>
       </c>
@@ -14131,7 +14144,7 @@
       <c r="D354" t="s">
         <v>1221</v>
       </c>
-      <c r="E354">
+      <c r="E354" s="4">
         <v>46433716000183</v>
       </c>
       <c r="F354" t="s">
@@ -14141,7 +14154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1226</v>
       </c>
@@ -14154,14 +14167,14 @@
       <c r="D355" t="s">
         <v>1229</v>
       </c>
-      <c r="E355">
+      <c r="E355" s="4">
         <v>28036914000121</v>
       </c>
       <c r="G355" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1230</v>
       </c>
@@ -14174,7 +14187,7 @@
       <c r="D356" t="s">
         <v>1233</v>
       </c>
-      <c r="E356">
+      <c r="E356" s="4">
         <v>50904622000112</v>
       </c>
       <c r="F356" t="s">
@@ -14184,7 +14197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1235</v>
       </c>
@@ -14197,7 +14210,7 @@
       <c r="D357" t="s">
         <v>1236</v>
       </c>
-      <c r="E357">
+      <c r="E357" s="4">
         <v>42514768000123</v>
       </c>
       <c r="F357" t="s">
@@ -14207,7 +14220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1238</v>
       </c>
@@ -14220,14 +14233,14 @@
       <c r="D358" t="s">
         <v>1241</v>
       </c>
-      <c r="E358">
+      <c r="E358" s="4">
         <v>41404602000434</v>
       </c>
       <c r="G358" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1242</v>
       </c>
@@ -14240,7 +14253,7 @@
       <c r="D359" t="s">
         <v>1243</v>
       </c>
-      <c r="E359">
+      <c r="E359" s="4">
         <v>48012250000178</v>
       </c>
       <c r="F359" t="s">
@@ -14250,7 +14263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1245</v>
       </c>
@@ -14263,14 +14276,14 @@
       <c r="D360" t="s">
         <v>1246</v>
       </c>
-      <c r="E360">
+      <c r="E360" s="4">
         <v>33919761001334</v>
       </c>
       <c r="G360" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1248</v>
       </c>
@@ -14283,14 +14296,14 @@
       <c r="D361" t="s">
         <v>1251</v>
       </c>
-      <c r="E361">
+      <c r="E361" s="4">
         <v>8997162000158</v>
       </c>
       <c r="G361" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1252</v>
       </c>
@@ -14303,7 +14316,7 @@
       <c r="D362" t="s">
         <v>1255</v>
       </c>
-      <c r="E362">
+      <c r="E362" s="4">
         <v>56012628005988</v>
       </c>
       <c r="F362" t="s">
@@ -14313,7 +14326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1252</v>
       </c>
@@ -14326,7 +14339,7 @@
       <c r="D363" t="s">
         <v>1257</v>
       </c>
-      <c r="E363">
+      <c r="E363" s="4">
         <v>56012628004078</v>
       </c>
       <c r="F363" t="s">
@@ -14336,7 +14349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1259</v>
       </c>
@@ -14349,7 +14362,7 @@
       <c r="D364" t="s">
         <v>1258</v>
       </c>
-      <c r="E364">
+      <c r="E364" s="4">
         <v>22267948000221</v>
       </c>
       <c r="F364" t="s">
@@ -14359,7 +14372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1261</v>
       </c>
@@ -14372,14 +14385,14 @@
       <c r="D365" t="s">
         <v>1262</v>
       </c>
-      <c r="E365">
+      <c r="E365" s="4">
         <v>20621141000139</v>
       </c>
       <c r="G365" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1264</v>
       </c>
@@ -14392,14 +14405,14 @@
       <c r="D366" t="s">
         <v>1265</v>
       </c>
-      <c r="E366">
+      <c r="E366" s="4">
         <v>30469108000199</v>
       </c>
       <c r="G366" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1267</v>
       </c>
@@ -14412,7 +14425,7 @@
       <c r="D367" t="s">
         <v>1270</v>
       </c>
-      <c r="E367">
+      <c r="E367" s="4">
         <v>17419223000190</v>
       </c>
       <c r="F367" t="s">
@@ -14422,7 +14435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1271</v>
       </c>
@@ -14435,7 +14448,7 @@
       <c r="D368" t="s">
         <v>1272</v>
       </c>
-      <c r="E368">
+      <c r="E368" s="4">
         <v>2143737000199</v>
       </c>
       <c r="F368" t="s">
@@ -14445,7 +14458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1274</v>
       </c>
@@ -14458,14 +14471,14 @@
       <c r="D369" t="s">
         <v>1275</v>
       </c>
-      <c r="E369">
+      <c r="E369" s="4">
         <v>42089035000199</v>
       </c>
       <c r="G369" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1277</v>
       </c>
@@ -14478,7 +14491,7 @@
       <c r="D370" t="s">
         <v>1278</v>
       </c>
-      <c r="E370">
+      <c r="E370" s="4">
         <v>8295787000178</v>
       </c>
       <c r="F370" t="s">
@@ -14488,7 +14501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1280</v>
       </c>
@@ -14501,14 +14514,14 @@
       <c r="D371" t="s">
         <v>1281</v>
       </c>
-      <c r="E371">
+      <c r="E371" s="4">
         <v>28655132000170</v>
       </c>
       <c r="G371" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1283</v>
       </c>
@@ -14521,14 +14534,14 @@
       <c r="D372" t="s">
         <v>1286</v>
       </c>
-      <c r="E372">
+      <c r="E372" s="4">
         <v>27326022000100</v>
       </c>
       <c r="G372" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1287</v>
       </c>
@@ -14541,14 +14554,14 @@
       <c r="D373" t="s">
         <v>1290</v>
       </c>
-      <c r="E373">
+      <c r="E373" s="4">
         <v>31227383000169</v>
       </c>
       <c r="G373" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1291</v>
       </c>
@@ -14561,7 +14574,7 @@
       <c r="D374" t="s">
         <v>1294</v>
       </c>
-      <c r="E374">
+      <c r="E374" s="4">
         <v>7355118000181</v>
       </c>
       <c r="F374" t="s">
@@ -14571,7 +14584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1295</v>
       </c>
@@ -14584,14 +14597,14 @@
       <c r="D375" t="s">
         <v>1298</v>
       </c>
-      <c r="E375">
+      <c r="E375" s="4">
         <v>10596634000102</v>
       </c>
       <c r="G375" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1299</v>
       </c>
@@ -14604,14 +14617,14 @@
       <c r="D376" t="s">
         <v>1302</v>
       </c>
-      <c r="E376">
+      <c r="E376" s="4">
         <v>74277000169</v>
       </c>
       <c r="G376" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1303</v>
       </c>
@@ -14624,14 +14637,14 @@
       <c r="D377" t="s">
         <v>1304</v>
       </c>
-      <c r="E377">
+      <c r="E377" s="4">
         <v>30145954000153</v>
       </c>
       <c r="G377" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1306</v>
       </c>
@@ -14644,7 +14657,7 @@
       <c r="D378" t="s">
         <v>1307</v>
       </c>
-      <c r="E378">
+      <c r="E378" s="4">
         <v>29293897000170</v>
       </c>
       <c r="F378" t="s">
@@ -14654,7 +14667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1312</v>
       </c>
@@ -14667,14 +14680,14 @@
       <c r="D379" t="s">
         <v>1313</v>
       </c>
-      <c r="E379">
+      <c r="E379" s="4">
         <v>35128108000149</v>
       </c>
       <c r="G379" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1315</v>
       </c>
@@ -14687,7 +14700,7 @@
       <c r="D380" t="s">
         <v>1316</v>
       </c>
-      <c r="E380">
+      <c r="E380" s="4">
         <v>31149654000105</v>
       </c>
       <c r="F380" t="s">
@@ -14697,7 +14710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1318</v>
       </c>
@@ -14710,14 +14723,14 @@
       <c r="D381" t="s">
         <v>1321</v>
       </c>
-      <c r="E381">
+      <c r="E381" s="4">
         <v>36413543000188</v>
       </c>
       <c r="G381" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1318</v>
       </c>
@@ -14730,14 +14743,14 @@
       <c r="D382" t="s">
         <v>1323</v>
       </c>
-      <c r="E382">
+      <c r="E382" s="4">
         <v>36413543000188</v>
       </c>
       <c r="G382" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1318</v>
       </c>
@@ -14750,14 +14763,14 @@
       <c r="D383" t="s">
         <v>1325</v>
       </c>
-      <c r="E383">
+      <c r="E383" s="4">
         <v>36413543000188</v>
       </c>
       <c r="G383" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1326</v>
       </c>
@@ -14770,7 +14783,7 @@
       <c r="D384" t="s">
         <v>1329</v>
       </c>
-      <c r="E384">
+      <c r="E384" s="4">
         <v>4615618000117</v>
       </c>
       <c r="F384" t="s">
@@ -14780,7 +14793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1330</v>
       </c>
@@ -14793,14 +14806,14 @@
       <c r="D385" t="s">
         <v>1333</v>
       </c>
-      <c r="E385">
+      <c r="E385" s="4">
         <v>33919761000796</v>
       </c>
       <c r="G385" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1334</v>
       </c>
@@ -14813,7 +14826,7 @@
       <c r="D386" t="s">
         <v>1335</v>
       </c>
-      <c r="E386">
+      <c r="E386" s="4">
         <v>36290708000171</v>
       </c>
       <c r="F386" t="s">
@@ -14823,7 +14836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1337</v>
       </c>
@@ -14836,14 +14849,14 @@
       <c r="D387" t="s">
         <v>1338</v>
       </c>
-      <c r="E387">
+      <c r="E387" s="4">
         <v>1949930000159</v>
       </c>
       <c r="G387" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1340</v>
       </c>
@@ -14856,7 +14869,7 @@
       <c r="D388" t="s">
         <v>1341</v>
       </c>
-      <c r="E388">
+      <c r="E388" s="4">
         <v>43085266000197</v>
       </c>
       <c r="F388" t="s">
@@ -14866,7 +14879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1344</v>
       </c>
@@ -14879,7 +14892,7 @@
       <c r="D389" t="s">
         <v>1345</v>
       </c>
-      <c r="E389">
+      <c r="E389" s="4">
         <v>35113727000160</v>
       </c>
       <c r="F389" t="s">
@@ -14889,7 +14902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1347</v>
       </c>
@@ -14902,7 +14915,7 @@
       <c r="D390" t="s">
         <v>1348</v>
       </c>
-      <c r="E390">
+      <c r="E390" s="4">
         <v>34146282000402</v>
       </c>
       <c r="F390" t="s">
@@ -14912,7 +14925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1404</v>
       </c>
@@ -14925,7 +14938,7 @@
       <c r="D391" t="s">
         <v>1408</v>
       </c>
-      <c r="E391">
+      <c r="E391" s="4">
         <v>56012628006011</v>
       </c>
       <c r="F391" t="s">
@@ -14935,7 +14948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1450</v>
       </c>
@@ -14948,7 +14961,7 @@
       <c r="D392" t="s">
         <v>1453</v>
       </c>
-      <c r="E392">
+      <c r="E392" s="4">
         <v>3603739002391</v>
       </c>
       <c r="F392" t="s">
@@ -14958,7 +14971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1454</v>
       </c>
@@ -14971,7 +14984,7 @@
       <c r="D393" t="s">
         <v>1457</v>
       </c>
-      <c r="E393">
+      <c r="E393" s="4">
         <v>3603739001239</v>
       </c>
       <c r="F393" t="s">
@@ -14981,7 +14994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1458</v>
       </c>
@@ -14994,14 +15007,14 @@
       <c r="D394" t="s">
         <v>1461</v>
       </c>
-      <c r="E394">
+      <c r="E394" s="4">
         <v>3603739001158</v>
       </c>
       <c r="G394" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1462</v>
       </c>
@@ -15014,7 +15027,7 @@
       <c r="D395" t="s">
         <v>1465</v>
       </c>
-      <c r="E395">
+      <c r="E395" s="4">
         <v>3603739002200</v>
       </c>
       <c r="F395" t="s">
@@ -15024,7 +15037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1466</v>
       </c>
@@ -15037,14 +15050,14 @@
       <c r="D396" t="s">
         <v>1467</v>
       </c>
-      <c r="E396">
+      <c r="E396" s="4">
         <v>3603739000690</v>
       </c>
       <c r="G396" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1469</v>
       </c>
@@ -15057,7 +15070,7 @@
       <c r="D397" t="s">
         <v>1470</v>
       </c>
-      <c r="E397">
+      <c r="E397" s="4">
         <v>3603739002634</v>
       </c>
       <c r="F397" t="s">
@@ -15067,7 +15080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1472</v>
       </c>
@@ -15080,14 +15093,14 @@
       <c r="D398" t="s">
         <v>1473</v>
       </c>
-      <c r="E398">
+      <c r="E398" s="4">
         <v>3603739001743</v>
       </c>
       <c r="G398" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1475</v>
       </c>
@@ -15100,14 +15113,14 @@
       <c r="D399" t="s">
         <v>1478</v>
       </c>
-      <c r="E399">
+      <c r="E399" s="4">
         <v>10601410000141</v>
       </c>
       <c r="G399" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1479</v>
       </c>
@@ -15120,14 +15133,14 @@
       <c r="D400" t="s">
         <v>1482</v>
       </c>
-      <c r="E400">
+      <c r="E400" s="4">
         <v>3768023001453</v>
       </c>
       <c r="G400" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1483</v>
       </c>
@@ -15140,14 +15153,14 @@
       <c r="D401" t="s">
         <v>1484</v>
       </c>
-      <c r="E401">
+      <c r="E401" s="4">
         <v>26582526000110</v>
       </c>
       <c r="G401" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1486</v>
       </c>
@@ -15160,7 +15173,7 @@
       <c r="D402" t="s">
         <v>1487</v>
       </c>
-      <c r="E402">
+      <c r="E402" s="4">
         <v>26589534000199</v>
       </c>
       <c r="F402" t="s">
@@ -15170,7 +15183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1489</v>
       </c>
@@ -15183,7 +15196,7 @@
       <c r="D403" t="s">
         <v>1492</v>
       </c>
-      <c r="E403">
+      <c r="E403" s="4">
         <v>40595864000118</v>
       </c>
       <c r="F403" t="s">
@@ -15193,7 +15206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1493</v>
       </c>
@@ -15206,14 +15219,14 @@
       <c r="D404" t="s">
         <v>1494</v>
       </c>
-      <c r="E404">
+      <c r="E404" s="4">
         <v>25571563000837</v>
       </c>
       <c r="G404" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1496</v>
       </c>
@@ -15226,7 +15239,7 @@
       <c r="D405" t="s">
         <v>1497</v>
       </c>
-      <c r="E405">
+      <c r="E405" s="4">
         <v>23141033000319</v>
       </c>
       <c r="F405" t="s">
@@ -15236,7 +15249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1506</v>
       </c>
@@ -15249,7 +15262,7 @@
       <c r="D406" t="s">
         <v>1509</v>
       </c>
-      <c r="E406">
+      <c r="E406" s="4">
         <v>70394507000152</v>
       </c>
       <c r="F406" t="s">
@@ -15259,7 +15272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1510</v>
       </c>
@@ -15272,7 +15285,7 @@
       <c r="D407" t="s">
         <v>1511</v>
       </c>
-      <c r="E407">
+      <c r="E407" s="4">
         <v>24675488000115</v>
       </c>
       <c r="F407" t="s">
@@ -15282,7 +15295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1513</v>
       </c>
@@ -15295,7 +15308,7 @@
       <c r="D408" t="s">
         <v>1514</v>
       </c>
-      <c r="E408">
+      <c r="E408" s="4">
         <v>70050406000164</v>
       </c>
       <c r="F408" t="s">
@@ -15305,7 +15318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1516</v>
       </c>
@@ -15318,7 +15331,7 @@
       <c r="D409" t="s">
         <v>1517</v>
       </c>
-      <c r="E409">
+      <c r="E409" s="4">
         <v>9079021000119</v>
       </c>
       <c r="F409" t="s">
@@ -15328,7 +15341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1519</v>
       </c>
@@ -15341,7 +15354,7 @@
       <c r="D410" t="s">
         <v>1520</v>
       </c>
-      <c r="E410">
+      <c r="E410" s="4">
         <v>84714682000194</v>
       </c>
       <c r="F410" t="s">
@@ -15351,7 +15364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1522</v>
       </c>
@@ -15364,7 +15377,7 @@
       <c r="D411" t="s">
         <v>1523</v>
       </c>
-      <c r="E411">
+      <c r="E411" s="4">
         <v>23624360000240</v>
       </c>
       <c r="F411" t="s">
@@ -15374,7 +15387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1525</v>
       </c>
@@ -15387,14 +15400,14 @@
       <c r="D412" t="s">
         <v>1526</v>
       </c>
-      <c r="E412">
+      <c r="E412" s="4">
         <v>8227994000195</v>
       </c>
       <c r="G412" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>25</v>
       </c>
@@ -15407,7 +15420,7 @@
       <c r="D413" t="s">
         <v>28</v>
       </c>
-      <c r="E413">
+      <c r="E413" s="4">
         <v>56012628005805</v>
       </c>
       <c r="F413" t="s">
@@ -15417,7 +15430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>25</v>
       </c>
@@ -15430,7 +15443,7 @@
       <c r="D414" t="s">
         <v>31</v>
       </c>
-      <c r="E414">
+      <c r="E414" s="4">
         <v>33268567000445</v>
       </c>
       <c r="F414" t="s">
@@ -15440,7 +15453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>35</v>
       </c>
@@ -15453,7 +15466,7 @@
       <c r="D415" t="s">
         <v>36</v>
       </c>
-      <c r="E415">
+      <c r="E415" s="4">
         <v>56012628003772</v>
       </c>
       <c r="F415" t="s">
@@ -15463,7 +15476,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>42</v>
       </c>
@@ -15486,7 +15499,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>46</v>
       </c>
@@ -15499,7 +15512,7 @@
       <c r="D417" t="s">
         <v>47</v>
       </c>
-      <c r="E417">
+      <c r="E417" s="4">
         <v>7549613000202</v>
       </c>
       <c r="F417" t="s">
@@ -15509,7 +15522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>49</v>
       </c>
@@ -15522,7 +15535,7 @@
       <c r="D418" t="s">
         <v>50</v>
       </c>
-      <c r="E418">
+      <c r="E418" s="4">
         <v>7549613000474</v>
       </c>
       <c r="F418" t="s">
@@ -15532,7 +15545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>52</v>
       </c>
@@ -15545,7 +15558,7 @@
       <c r="D419" t="s">
         <v>53</v>
       </c>
-      <c r="E419">
+      <c r="E419" s="4">
         <v>30298376000276</v>
       </c>
       <c r="F419" t="s">
@@ -15555,7 +15568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>55</v>
       </c>
@@ -15568,7 +15581,7 @@
       <c r="D420" t="s">
         <v>58</v>
       </c>
-      <c r="E420">
+      <c r="E420" s="4">
         <v>30298376000195</v>
       </c>
       <c r="F420" t="e">
@@ -15578,7 +15591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>73</v>
       </c>
@@ -15591,7 +15604,7 @@
       <c r="D421" t="s">
         <v>74</v>
       </c>
-      <c r="E421">
+      <c r="E421" s="4">
         <v>56012628003500</v>
       </c>
       <c r="F421" t="s">
@@ -15601,7 +15614,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>146</v>
       </c>
@@ -15614,14 +15627,14 @@
       <c r="D422" t="s">
         <v>149</v>
       </c>
-      <c r="E422">
+      <c r="E422" s="4">
         <v>19204608000166</v>
       </c>
       <c r="G422" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>188</v>
       </c>
@@ -15634,14 +15647,14 @@
       <c r="D423" t="s">
         <v>99</v>
       </c>
-      <c r="E423">
+      <c r="E423" s="4">
         <v>56012628004230</v>
       </c>
       <c r="G423" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>188</v>
       </c>
@@ -15654,14 +15667,14 @@
       <c r="D424" t="s">
         <v>194</v>
       </c>
-      <c r="E424">
+      <c r="E424" s="4">
         <v>56012628004310</v>
       </c>
       <c r="G424" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>253</v>
       </c>
@@ -15674,7 +15687,7 @@
       <c r="D425" t="s">
         <v>256</v>
       </c>
-      <c r="E425">
+      <c r="E425" s="4">
         <v>33268567001840</v>
       </c>
       <c r="F425" t="s">
@@ -15684,7 +15697,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>253</v>
       </c>
@@ -15697,7 +15710,7 @@
       <c r="D426" t="s">
         <v>258</v>
       </c>
-      <c r="E426">
+      <c r="E426" s="4">
         <v>33268567001760</v>
       </c>
       <c r="F426" t="s">
@@ -15707,7 +15720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>253</v>
       </c>
@@ -15720,7 +15733,7 @@
       <c r="D427" t="s">
         <v>260</v>
       </c>
-      <c r="E427">
+      <c r="E427" s="4">
         <v>33268567001689</v>
       </c>
       <c r="F427" t="s">
@@ -15730,7 +15743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>253</v>
       </c>
@@ -15743,14 +15756,14 @@
       <c r="D428" t="s">
         <v>262</v>
       </c>
-      <c r="E428">
+      <c r="E428" s="4">
         <v>56012628005040</v>
       </c>
       <c r="G428" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>253</v>
       </c>
@@ -15763,7 +15776,7 @@
       <c r="D429" t="s">
         <v>264</v>
       </c>
-      <c r="E429">
+      <c r="E429" s="4">
         <v>56012628004906</v>
       </c>
       <c r="F429" t="s">
@@ -15773,7 +15786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>253</v>
       </c>
@@ -15786,7 +15799,7 @@
       <c r="D430" t="s">
         <v>266</v>
       </c>
-      <c r="E430">
+      <c r="E430" s="4">
         <v>56012628005473</v>
       </c>
       <c r="F430" t="s">
@@ -15796,7 +15809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>253</v>
       </c>
@@ -15809,14 +15822,14 @@
       <c r="D431" t="s">
         <v>268</v>
       </c>
-      <c r="E431">
+      <c r="E431" s="4">
         <v>7644843000170</v>
       </c>
       <c r="G431" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>253</v>
       </c>
@@ -15829,7 +15842,7 @@
       <c r="D432" t="s">
         <v>270</v>
       </c>
-      <c r="E432">
+      <c r="E432" s="4">
         <v>56012628005392</v>
       </c>
       <c r="F432" t="s">
@@ -15839,7 +15852,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>253</v>
       </c>
@@ -15852,7 +15865,7 @@
       <c r="D433" t="s">
         <v>272</v>
       </c>
-      <c r="E433">
+      <c r="E433" s="4">
         <v>56012628004825</v>
       </c>
       <c r="F433" t="s">
@@ -15862,7 +15875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>253</v>
       </c>
@@ -15875,7 +15888,7 @@
       <c r="D434" t="s">
         <v>274</v>
       </c>
-      <c r="E434">
+      <c r="E434" s="4">
         <v>56012628005120</v>
       </c>
       <c r="F434" t="s">
@@ -15885,7 +15898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>253</v>
       </c>
@@ -15898,7 +15911,7 @@
       <c r="D435" t="s">
         <v>276</v>
       </c>
-      <c r="E435">
+      <c r="E435" s="4">
         <v>56012628005554</v>
       </c>
       <c r="F435" t="s">
@@ -15908,7 +15921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>253</v>
       </c>
@@ -15921,7 +15934,7 @@
       <c r="D436" t="s">
         <v>278</v>
       </c>
-      <c r="E436">
+      <c r="E436" s="4">
         <v>33268567001417</v>
       </c>
       <c r="F436" t="s">
@@ -15931,7 +15944,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>253</v>
       </c>
@@ -15944,7 +15957,7 @@
       <c r="D437" t="s">
         <v>280</v>
       </c>
-      <c r="E437">
+      <c r="E437" s="4">
         <v>33268567001506</v>
       </c>
       <c r="F437" t="s">
@@ -15954,7 +15967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>430</v>
       </c>
@@ -15967,7 +15980,7 @@
       <c r="D438" t="s">
         <v>431</v>
       </c>
-      <c r="E438">
+      <c r="E438" s="4">
         <v>5857215000732</v>
       </c>
       <c r="F438" t="s">
@@ -15977,7 +15990,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>433</v>
       </c>
@@ -15990,7 +16003,7 @@
       <c r="D439" t="s">
         <v>434</v>
       </c>
-      <c r="E439">
+      <c r="E439" s="4">
         <v>4200833000157</v>
       </c>
       <c r="F439" t="s">
@@ -16000,7 +16013,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>755</v>
       </c>
@@ -16013,7 +16026,7 @@
       <c r="D440" t="s">
         <v>756</v>
       </c>
-      <c r="E440">
+      <c r="E440" s="4">
         <v>10870228000196</v>
       </c>
       <c r="F440" t="s">
@@ -16023,7 +16036,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>758</v>
       </c>
@@ -16036,7 +16049,7 @@
       <c r="D441" t="s">
         <v>759</v>
       </c>
-      <c r="E441">
+      <c r="E441" s="4">
         <v>23567572000152</v>
       </c>
       <c r="F441" t="s">
@@ -16046,7 +16059,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>820</v>
       </c>
@@ -16059,7 +16072,7 @@
       <c r="D442" t="s">
         <v>821</v>
       </c>
-      <c r="E442">
+      <c r="E442" s="4">
         <v>21255704000185</v>
       </c>
       <c r="F442" t="s">
@@ -16069,7 +16082,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>823</v>
       </c>
@@ -16082,7 +16095,7 @@
       <c r="D443" t="s">
         <v>824</v>
       </c>
-      <c r="E443">
+      <c r="E443" s="4">
         <v>21255704000347</v>
       </c>
       <c r="F443" t="s">
@@ -16092,7 +16105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>823</v>
       </c>
@@ -16105,7 +16118,7 @@
       <c r="D444" t="s">
         <v>827</v>
       </c>
-      <c r="E444">
+      <c r="E444" s="4">
         <v>47154834000115</v>
       </c>
       <c r="F444" t="s">
@@ -16115,7 +16128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>828</v>
       </c>
@@ -16128,7 +16141,7 @@
       <c r="D445" t="s">
         <v>829</v>
       </c>
-      <c r="E445">
+      <c r="E445" s="4">
         <v>21255704000690</v>
       </c>
       <c r="F445" t="s">
@@ -16138,7 +16151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1025</v>
       </c>
@@ -16151,7 +16164,7 @@
       <c r="D446" t="s">
         <v>1024</v>
       </c>
-      <c r="E446">
+      <c r="E446" s="4">
         <v>47768602000157</v>
       </c>
       <c r="F446" t="s">
@@ -16161,7 +16174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1028</v>
       </c>
@@ -16174,7 +16187,7 @@
       <c r="D447" t="s">
         <v>1031</v>
       </c>
-      <c r="E447">
+      <c r="E447" s="4">
         <v>33618984000390</v>
       </c>
       <c r="F447" t="s">
@@ -16184,7 +16197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1028</v>
       </c>
@@ -16197,7 +16210,7 @@
       <c r="D448" t="s">
         <v>1033</v>
       </c>
-      <c r="E448">
+      <c r="E448" s="4">
         <v>5857215000813</v>
       </c>
       <c r="F448" t="s">
@@ -16207,7 +16220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1037</v>
       </c>
@@ -16220,7 +16233,7 @@
       <c r="D449" t="s">
         <v>1038</v>
       </c>
-      <c r="E449">
+      <c r="E449" s="4">
         <v>56012628001800</v>
       </c>
       <c r="F449" t="s">
@@ -16230,7 +16243,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1189</v>
       </c>
@@ -16243,7 +16256,7 @@
       <c r="D450" t="s">
         <v>1190</v>
       </c>
-      <c r="E450">
+      <c r="E450" s="4">
         <v>22776342000130</v>
       </c>
       <c r="F450" t="s">
@@ -16253,7 +16266,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1309</v>
       </c>
@@ -16266,7 +16279,7 @@
       <c r="D451" t="s">
         <v>1310</v>
       </c>
-      <c r="E451">
+      <c r="E451" s="4">
         <v>56012628004078</v>
       </c>
       <c r="F451" t="s">
@@ -16276,7 +16289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1350</v>
       </c>
@@ -16289,7 +16302,7 @@
       <c r="D452" t="s">
         <v>1353</v>
       </c>
-      <c r="E452">
+      <c r="E452" s="4">
         <v>33268567001336</v>
       </c>
       <c r="F452" t="s">
@@ -16299,7 +16312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1350</v>
       </c>
@@ -16312,7 +16325,7 @@
       <c r="D453" t="s">
         <v>1355</v>
       </c>
-      <c r="E453">
+      <c r="E453" s="4">
         <v>56012628004663</v>
       </c>
       <c r="F453" t="s">
@@ -16322,7 +16335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1356</v>
       </c>
@@ -16335,7 +16348,7 @@
       <c r="D454" t="s">
         <v>1359</v>
       </c>
-      <c r="E454">
+      <c r="E454" s="4">
         <v>56012628002296</v>
       </c>
       <c r="F454" t="s">
@@ -16345,7 +16358,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1356</v>
       </c>
@@ -16358,7 +16371,7 @@
       <c r="D455" t="s">
         <v>1361</v>
       </c>
-      <c r="E455">
+      <c r="E455" s="4">
         <v>33268567001174</v>
       </c>
       <c r="F455" t="s">
@@ -16368,7 +16381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1362</v>
       </c>
@@ -16381,7 +16394,7 @@
       <c r="D456" t="s">
         <v>1365</v>
       </c>
-      <c r="E456">
+      <c r="E456" s="4">
         <v>76031368000189</v>
       </c>
       <c r="F456" t="s">
@@ -16391,7 +16404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1362</v>
       </c>
@@ -16404,7 +16417,7 @@
       <c r="D457" t="s">
         <v>1367</v>
       </c>
-      <c r="E457">
+      <c r="E457" s="4">
         <v>76031368000502</v>
       </c>
       <c r="F457" t="s">
@@ -16414,7 +16427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1368</v>
       </c>
@@ -16427,7 +16440,7 @@
       <c r="D458" t="s">
         <v>1369</v>
       </c>
-      <c r="E458">
+      <c r="E458" s="4">
         <v>76031368000774</v>
       </c>
       <c r="F458" t="s">
@@ -16437,7 +16450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1368</v>
       </c>
@@ -16450,7 +16463,7 @@
       <c r="D459" t="s">
         <v>1372</v>
       </c>
-      <c r="E459">
+      <c r="E459" s="4">
         <v>76031368000936</v>
       </c>
       <c r="F459" t="s">
@@ -16460,7 +16473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1373</v>
       </c>
@@ -16473,7 +16486,7 @@
       <c r="D460" t="s">
         <v>1374</v>
       </c>
-      <c r="E460">
+      <c r="E460" s="4">
         <v>76031368000421</v>
       </c>
       <c r="F460" t="s">
@@ -16483,7 +16496,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1376</v>
       </c>
@@ -16496,14 +16509,14 @@
       <c r="D461" t="s">
         <v>1377</v>
       </c>
-      <c r="E461">
+      <c r="E461" s="4">
         <v>76031368000340</v>
       </c>
       <c r="G461" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1379</v>
       </c>
@@ -16516,7 +16529,7 @@
       <c r="D462" t="s">
         <v>1382</v>
       </c>
-      <c r="E462">
+      <c r="E462" s="4">
         <v>33268567001093</v>
       </c>
       <c r="F462" t="s">
@@ -16526,7 +16539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1383</v>
       </c>
@@ -16539,7 +16552,7 @@
       <c r="D463" t="s">
         <v>1386</v>
       </c>
-      <c r="E463">
+      <c r="E463" s="4">
         <v>56012628002105</v>
       </c>
       <c r="F463" t="s">
@@ -16549,7 +16562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1383</v>
       </c>
@@ -16562,7 +16575,7 @@
       <c r="D464" t="s">
         <v>1388</v>
       </c>
-      <c r="E464">
+      <c r="E464" s="4">
         <v>33268567000364</v>
       </c>
       <c r="F464" t="s">
@@ -16572,7 +16585,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1389</v>
       </c>
@@ -16585,7 +16598,7 @@
       <c r="D465" t="s">
         <v>1380</v>
       </c>
-      <c r="E465">
+      <c r="E465" s="4">
         <v>56012628001729</v>
       </c>
       <c r="F465" t="s">
@@ -16595,7 +16608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1389</v>
       </c>
@@ -16608,7 +16621,7 @@
       <c r="D466" t="s">
         <v>1390</v>
       </c>
-      <c r="E466">
+      <c r="E466" s="4">
         <v>56012628000757</v>
       </c>
       <c r="F466" t="s">
@@ -16618,7 +16631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1389</v>
       </c>
@@ -16631,7 +16644,7 @@
       <c r="D467" t="s">
         <v>1394</v>
       </c>
-      <c r="E467">
+      <c r="E467" s="4">
         <v>33268567000879</v>
       </c>
       <c r="F467" t="s">
@@ -16641,7 +16654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1389</v>
       </c>
@@ -16654,7 +16667,7 @@
       <c r="D468" t="s">
         <v>1396</v>
       </c>
-      <c r="E468">
+      <c r="E468" s="4">
         <v>56012628001214</v>
       </c>
       <c r="F468" t="s">
@@ -16664,7 +16677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1397</v>
       </c>
@@ -16677,7 +16690,7 @@
       <c r="D469" t="s">
         <v>1400</v>
       </c>
-      <c r="E469">
+      <c r="E469" s="4">
         <v>56012628003268</v>
       </c>
       <c r="F469" t="s">
@@ -16687,7 +16700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1401</v>
       </c>
@@ -16700,7 +16713,7 @@
       <c r="D470" t="s">
         <v>1402</v>
       </c>
-      <c r="E470">
+      <c r="E470" s="4">
         <v>56012628003349</v>
       </c>
       <c r="F470" t="s">
@@ -16710,7 +16723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1404</v>
       </c>
@@ -16723,7 +16736,7 @@
       <c r="D471" t="s">
         <v>1405</v>
       </c>
-      <c r="E471">
+      <c r="E471" s="4">
         <v>56012628005716</v>
       </c>
       <c r="F471" t="s">
@@ -16733,7 +16746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1409</v>
       </c>
@@ -16746,7 +16759,7 @@
       <c r="D472" t="s">
         <v>1410</v>
       </c>
-      <c r="E472">
+      <c r="E472" s="4">
         <v>56012628003187</v>
       </c>
       <c r="F472" t="s">
@@ -16756,7 +16769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1412</v>
       </c>
@@ -16769,7 +16782,7 @@
       <c r="D473" t="s">
         <v>1415</v>
       </c>
-      <c r="E473">
+      <c r="E473" s="4">
         <v>33268567000950</v>
       </c>
       <c r="F473" t="s">
@@ -16779,7 +16792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1416</v>
       </c>
@@ -16792,14 +16805,14 @@
       <c r="D474" t="s">
         <v>1417</v>
       </c>
-      <c r="E474">
+      <c r="E474" s="4">
         <v>56012628002962</v>
       </c>
       <c r="G474" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1416</v>
       </c>
@@ -16812,7 +16825,7 @@
       <c r="D475" t="s">
         <v>1420</v>
       </c>
-      <c r="E475">
+      <c r="E475" s="4">
         <v>33268567000283</v>
       </c>
       <c r="F475" t="s">
@@ -16822,7 +16835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1421</v>
       </c>
@@ -16835,7 +16848,7 @@
       <c r="D476" t="s">
         <v>1422</v>
       </c>
-      <c r="E476">
+      <c r="E476" s="4">
         <v>15236367000186</v>
       </c>
       <c r="F476" t="s">
@@ -16845,7 +16858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1424</v>
       </c>
@@ -16858,7 +16871,7 @@
       <c r="D477" t="s">
         <v>1425</v>
       </c>
-      <c r="E477">
+      <c r="E477" s="4">
         <v>15236367001077</v>
       </c>
       <c r="F477" t="s">
@@ -16868,7 +16881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1427</v>
       </c>
@@ -16881,7 +16894,7 @@
       <c r="D478" t="s">
         <v>1430</v>
       </c>
-      <c r="E478">
+      <c r="E478" s="4">
         <v>15236367001158</v>
       </c>
       <c r="F478" t="s">
@@ -16891,7 +16904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1427</v>
       </c>
@@ -16904,7 +16917,7 @@
       <c r="D479" t="s">
         <v>1432</v>
       </c>
-      <c r="E479">
+      <c r="E479" s="4">
         <v>15236367001310</v>
       </c>
       <c r="F479" t="s">
@@ -16914,7 +16927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1433</v>
       </c>
@@ -16927,7 +16940,7 @@
       <c r="D480" t="s">
         <v>1434</v>
       </c>
-      <c r="E480">
+      <c r="E480" s="4">
         <v>15236367001239</v>
       </c>
       <c r="F480" t="s">
@@ -16937,7 +16950,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1436</v>
       </c>
@@ -16950,7 +16963,7 @@
       <c r="D481" t="s">
         <v>1439</v>
       </c>
-      <c r="E481">
+      <c r="E481" s="4">
         <v>5857215000309</v>
       </c>
       <c r="F481" t="s">
@@ -16960,7 +16973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1436</v>
       </c>
@@ -16973,7 +16986,7 @@
       <c r="D482" t="s">
         <v>1441</v>
       </c>
-      <c r="E482">
+      <c r="E482" s="4">
         <v>5857215000147</v>
       </c>
       <c r="F482" t="s">
@@ -16983,7 +16996,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1442</v>
       </c>
@@ -16996,7 +17009,7 @@
       <c r="D483" t="s">
         <v>1443</v>
       </c>
-      <c r="E483">
+      <c r="E483" s="4">
         <v>56012628002539</v>
       </c>
       <c r="F483" t="s">
@@ -17006,7 +17019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1445</v>
       </c>
@@ -17019,7 +17032,7 @@
       <c r="D484" t="s">
         <v>1446</v>
       </c>
-      <c r="E484">
+      <c r="E484" s="4">
         <v>56012628002610</v>
       </c>
       <c r="F484" t="s">
@@ -17029,7 +17042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1445</v>
       </c>
@@ -17042,7 +17055,7 @@
       <c r="D485" t="s">
         <v>1449</v>
       </c>
-      <c r="E485">
+      <c r="E485" s="4">
         <v>33268567001255</v>
       </c>
       <c r="F485" t="s">
@@ -17052,7 +17065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1503</v>
       </c>
@@ -17065,7 +17078,7 @@
       <c r="D486" t="s">
         <v>1504</v>
       </c>
-      <c r="E486">
+      <c r="E486" s="4">
         <v>23141033000238</v>
       </c>
       <c r="F486" t="s">
@@ -17075,7 +17088,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>6</v>
       </c>
@@ -17088,14 +17101,14 @@
       <c r="D487" t="s">
         <v>10</v>
       </c>
-      <c r="E487">
+      <c r="E487" s="4">
         <v>3000543000105</v>
       </c>
       <c r="G487" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>62</v>
       </c>
@@ -17108,14 +17121,14 @@
       <c r="D488" t="s">
         <v>65</v>
       </c>
-      <c r="E488">
+      <c r="E488" s="4">
         <v>52556567000142</v>
       </c>
       <c r="G488" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>69</v>
       </c>
@@ -17128,7 +17141,7 @@
       <c r="D489" t="s">
         <v>72</v>
       </c>
-      <c r="E489">
+      <c r="E489" s="4">
         <v>72133820000162</v>
       </c>
       <c r="F489" t="s">
@@ -17138,7 +17151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>161</v>
       </c>
@@ -17151,7 +17164,7 @@
       <c r="D490" t="s">
         <v>164</v>
       </c>
-      <c r="E490">
+      <c r="E490" s="4">
         <v>43254428000173</v>
       </c>
       <c r="F490" t="s">
@@ -17161,7 +17174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>174</v>
       </c>
@@ -17174,14 +17187,14 @@
       <c r="D491" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E491" s="1">
+      <c r="E491" s="5">
         <v>77910487000174</v>
       </c>
       <c r="G491" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>211</v>
       </c>
@@ -17194,7 +17207,7 @@
       <c r="D492" t="s">
         <v>213</v>
       </c>
-      <c r="E492">
+      <c r="E492" s="4">
         <v>12839628000164</v>
       </c>
       <c r="F492" t="s">
@@ -17204,7 +17217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>300</v>
       </c>
@@ -17217,7 +17230,7 @@
       <c r="D493" t="s">
         <v>302</v>
       </c>
-      <c r="E493">
+      <c r="E493" s="4">
         <v>38079209000165</v>
       </c>
       <c r="F493" t="s">
@@ -17227,7 +17240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>348</v>
       </c>
@@ -17240,14 +17253,14 @@
       <c r="D494" t="s">
         <v>351</v>
       </c>
-      <c r="E494">
+      <c r="E494" s="4">
         <v>51045752000100</v>
       </c>
       <c r="G494" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>355</v>
       </c>
@@ -17260,7 +17273,7 @@
       <c r="D495" t="s">
         <v>358</v>
       </c>
-      <c r="E495">
+      <c r="E495" s="4">
         <v>46718836000127</v>
       </c>
       <c r="F495" t="s">
@@ -17270,7 +17283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>372</v>
       </c>
@@ -17283,7 +17296,7 @@
       <c r="D496" t="s">
         <v>375</v>
       </c>
-      <c r="E496">
+      <c r="E496" s="4">
         <v>36214347000184</v>
       </c>
       <c r="F496" t="s">
@@ -17293,7 +17306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>442</v>
       </c>
@@ -17306,7 +17319,7 @@
       <c r="D497" t="s">
         <v>445</v>
       </c>
-      <c r="E497">
+      <c r="E497" s="4">
         <v>15047591000120</v>
       </c>
       <c r="F497" t="s">
@@ -17316,7 +17329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>484</v>
       </c>
@@ -17329,14 +17342,14 @@
       <c r="D498" t="s">
         <v>487</v>
       </c>
-      <c r="E498">
+      <c r="E498" s="4">
         <v>27379919000194</v>
       </c>
       <c r="G498" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>513</v>
       </c>
@@ -17349,7 +17362,7 @@
       <c r="D499" t="s">
         <v>515</v>
       </c>
-      <c r="E499">
+      <c r="E499" s="4">
         <v>3506577000168</v>
       </c>
       <c r="F499" t="s">
@@ -17359,7 +17372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>554</v>
       </c>
@@ -17372,7 +17385,7 @@
       <c r="D500" t="s">
         <v>557</v>
       </c>
-      <c r="E500">
+      <c r="E500" s="4">
         <v>29271264000161</v>
       </c>
       <c r="F500" t="s">
@@ -17382,7 +17395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>596</v>
       </c>
@@ -17395,14 +17408,14 @@
       <c r="D501" t="s">
         <v>599</v>
       </c>
-      <c r="E501">
+      <c r="E501" s="4">
         <v>51152629000198</v>
       </c>
       <c r="G501" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>667</v>
       </c>
@@ -17415,7 +17428,7 @@
       <c r="D502" t="s">
         <v>670</v>
       </c>
-      <c r="E502">
+      <c r="E502" s="4">
         <v>7394984000181</v>
       </c>
       <c r="F502" t="s">
@@ -17425,7 +17438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>681</v>
       </c>
@@ -17438,7 +17451,7 @@
       <c r="D503" t="s">
         <v>685</v>
       </c>
-      <c r="E503">
+      <c r="E503" s="4">
         <v>24648653000140</v>
       </c>
       <c r="F503" t="s">
@@ -17448,7 +17461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>714</v>
       </c>
@@ -17461,7 +17474,7 @@
       <c r="D504" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="E504" s="1">
+      <c r="E504" s="5">
         <v>11230668000141</v>
       </c>
       <c r="F504" t="s">
@@ -17471,7 +17484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>719</v>
       </c>
@@ -17484,7 +17497,7 @@
       <c r="D505" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="E505" s="1">
+      <c r="E505" s="5">
         <v>10352769000122</v>
       </c>
       <c r="F505" t="s">
@@ -17494,7 +17507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>856</v>
       </c>
@@ -17507,7 +17520,7 @@
       <c r="D506" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="E506" s="1">
+      <c r="E506" s="5">
         <v>51868453000175</v>
       </c>
       <c r="F506" t="s">
@@ -17517,7 +17530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>987</v>
       </c>
@@ -17530,7 +17543,7 @@
       <c r="D507" t="s">
         <v>989</v>
       </c>
-      <c r="E507">
+      <c r="E507" s="4">
         <v>26083559000116</v>
       </c>
       <c r="F507" t="s">
@@ -17540,7 +17553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1009</v>
       </c>
@@ -17553,7 +17566,7 @@
       <c r="D508" t="s">
         <v>1011</v>
       </c>
-      <c r="E508">
+      <c r="E508" s="4">
         <v>10203179000138</v>
       </c>
       <c r="F508" t="s">
@@ -17563,7 +17576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1073</v>
       </c>
@@ -17576,7 +17589,7 @@
       <c r="D509" t="s">
         <v>1075</v>
       </c>
-      <c r="E509">
+      <c r="E509" s="4">
         <v>80105182000102</v>
       </c>
       <c r="F509" t="s">
@@ -17586,7 +17599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1077</v>
       </c>
@@ -17599,14 +17612,14 @@
       <c r="D510" t="s">
         <v>1080</v>
       </c>
-      <c r="E510">
+      <c r="E510" s="4">
         <v>31395054000127</v>
       </c>
       <c r="G510" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1153</v>
       </c>
@@ -17619,14 +17632,14 @@
       <c r="D511" t="s">
         <v>1155</v>
       </c>
-      <c r="E511">
+      <c r="E511" s="4">
         <v>38196160000120</v>
       </c>
       <c r="G511" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1182</v>
       </c>
@@ -17639,7 +17652,7 @@
       <c r="D512" t="s">
         <v>1185</v>
       </c>
-      <c r="E512">
+      <c r="E512" s="4">
         <v>20736476000100</v>
       </c>
       <c r="F512" t="s">
@@ -17649,7 +17662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1198</v>
       </c>
@@ -17662,7 +17675,7 @@
       <c r="D513" t="s">
         <v>1202</v>
       </c>
-      <c r="E513">
+      <c r="E513" s="4">
         <v>34214923000168</v>
       </c>
       <c r="F513" t="s">
@@ -17672,7 +17685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>1223</v>
       </c>
@@ -17685,7 +17698,7 @@
       <c r="D514" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="E514" s="1">
+      <c r="E514" s="5">
         <v>28849342000795</v>
       </c>
       <c r="F514" t="s">
@@ -17695,7 +17708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1230</v>
       </c>
@@ -17708,7 +17721,7 @@
       <c r="D515" t="s">
         <v>1234</v>
       </c>
-      <c r="E515">
+      <c r="E515" s="4">
         <v>52356323000116</v>
       </c>
       <c r="F515" t="s">
@@ -17718,7 +17731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1340</v>
       </c>
@@ -17731,14 +17744,14 @@
       <c r="D516" t="s">
         <v>1342</v>
       </c>
-      <c r="E516">
+      <c r="E516" s="4">
         <v>42552770000197</v>
       </c>
       <c r="G516" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>625</v>
       </c>
@@ -17751,14 +17764,14 @@
       <c r="D517" t="s">
         <v>1934</v>
       </c>
-      <c r="E517">
+      <c r="E517" s="4">
         <v>32031159000160</v>
       </c>
       <c r="G517" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1309</v>
       </c>
@@ -17771,14 +17784,14 @@
       <c r="D518" t="s">
         <v>1935</v>
       </c>
-      <c r="E518">
+      <c r="E518" s="4">
         <v>47259678000157</v>
       </c>
       <c r="G518" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>488</v>
       </c>
@@ -17791,14 +17804,14 @@
       <c r="D519" t="s">
         <v>1939</v>
       </c>
-      <c r="E519">
+      <c r="E519" s="4">
         <v>48069924000502</v>
       </c>
       <c r="G519" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1356</v>
       </c>
@@ -17811,14 +17824,14 @@
       <c r="D520" t="s">
         <v>1941</v>
       </c>
-      <c r="E520">
+      <c r="E520" s="4">
         <v>33268567002146</v>
       </c>
       <c r="G520" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1356</v>
       </c>
@@ -17831,14 +17844,14 @@
       <c r="D521" t="s">
         <v>1943</v>
       </c>
-      <c r="E521">
+      <c r="E521" s="4">
         <v>33268567002227</v>
       </c>
       <c r="G521" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>247</v>
       </c>
@@ -17851,25 +17864,38 @@
       <c r="D522" t="s">
         <v>248</v>
       </c>
-      <c r="E522">
+      <c r="E522" s="4">
         <v>21232694000162</v>
       </c>
       <c r="G522" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E523" s="4">
+        <v>37281603000119</v>
+      </c>
+      <c r="G523" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="524" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="525" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="526" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:G522" xr:uid="{97A73577-28F2-45CA-9131-49B03B93C073}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="EDUCANDARIO DOM HELDER PESSOA CAMARA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G522" xr:uid="{97A73577-28F2-45CA-9131-49B03B93C073}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
